--- a/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 3\CaCl2 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9DD84-1903-4FAC-8C5D-21930453C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CAF9DD84-1903-4FAC-8C5D-21930453C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94CE7F34-F6C2-43A3-9BE1-75DC001CDE3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="785" activeTab="5" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="785" firstSheet="1" activeTab="5" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="New experimental Values" sheetId="4" r:id="rId1"/>
@@ -3678,28 +3678,16 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> for CaCl2 n=3</a:t>
+              <a:t>Temperature vs Ø for CaCl2 n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3719,9 +3707,9 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -6126,22 +6114,17 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6160,9 +6143,9 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -6192,9 +6175,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6222,9 +6205,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -6251,9 +6234,9 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -6282,9 +6265,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6333,11 +6316,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -6377,7 +6360,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -21413,13 +21401,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>179070</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -21757,16 +21745,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23012,24 +23000,24 @@
       <selection activeCell="AI11" sqref="AI11:AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -23090,7 +23078,7 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -23201,7 +23189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1E-3</v>
       </c>
@@ -23312,7 +23300,7 @@
         <v>0.95520000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.01</v>
       </c>
@@ -23423,7 +23411,7 @@
         <v>0.88929999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -23534,7 +23522,7 @@
         <v>0.85580000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
@@ -23645,7 +23633,7 @@
         <v>0.83379999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23756,7 +23744,7 @@
         <v>0.82430000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -23867,7 +23855,7 @@
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -23978,7 +23966,7 @@
         <v>0.8196</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.3</v>
       </c>
@@ -24089,7 +24077,7 @@
         <v>0.82930000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.4</v>
       </c>
@@ -24200,7 +24188,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -24311,7 +24299,7 @@
         <v>0.85929999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.6</v>
       </c>
@@ -24422,7 +24410,7 @@
         <v>0.87749999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.7</v>
       </c>
@@ -24533,7 +24521,7 @@
         <v>0.8972</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.8</v>
       </c>
@@ -24644,7 +24632,7 @@
         <v>0.91830000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.9</v>
       </c>
@@ -24755,7 +24743,7 @@
         <v>0.9405</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -24866,7 +24854,7 @@
         <v>0.96360000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.2</v>
       </c>
@@ -24977,7 +24965,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.4</v>
       </c>
@@ -25088,7 +25076,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1.6</v>
       </c>
@@ -25199,7 +25187,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1.8</v>
       </c>
@@ -25310,7 +25298,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -25421,7 +25409,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2.25</v>
       </c>
@@ -25532,7 +25520,7 @@
         <v>1.298</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2.5</v>
       </c>
@@ -25643,7 +25631,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2.75</v>
       </c>
@@ -25754,7 +25742,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -25865,7 +25853,7 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3.25</v>
       </c>
@@ -25976,7 +25964,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>3.5</v>
       </c>
@@ -26087,7 +26075,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>3.75</v>
       </c>
@@ -26198,7 +26186,7 @@
         <v>1.7270000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -26309,7 +26297,7 @@
         <v>1.794</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.25</v>
       </c>
@@ -26420,7 +26408,7 @@
         <v>1.8580000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4.5</v>
       </c>
@@ -26531,7 +26519,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4.75</v>
       </c>
@@ -26642,7 +26630,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -26753,7 +26741,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>5.5</v>
       </c>
@@ -26864,7 +26852,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -26975,7 +26963,7 @@
         <v>2.194</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6.5</v>
       </c>
@@ -27086,7 +27074,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -27197,7 +27185,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7.5</v>
       </c>
@@ -27305,7 +27293,7 @@
         <v>2.2730000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -27413,7 +27401,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>8.5</v>
       </c>
@@ -27519,7 +27507,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -27638,41 +27626,41 @@
       <selection activeCell="BE5" sqref="BE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="7.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="11.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="5"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="5"/>
-    <col min="27" max="27" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="5"/>
+    <col min="12" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="7.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" style="1"/>
+    <col min="16" max="16" width="11.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.90625" style="5"/>
+    <col min="21" max="21" width="9.08984375" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" customWidth="1"/>
+    <col min="24" max="24" width="8.90625" style="5"/>
+    <col min="27" max="27" width="8.90625" style="5"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" style="5" customWidth="1"/>
     <col min="33" max="34" width="12" customWidth="1"/>
     <col min="35" max="35" width="12" style="7" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.21875" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="5"/>
-    <col min="42" max="44" width="21.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.1796875" customWidth="1"/>
+    <col min="40" max="40" width="8.90625" style="5"/>
+    <col min="42" max="44" width="21.54296875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
@@ -27691,7 +27679,7 @@
       <c r="AI1"/>
       <c r="AN1"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="J2"/>
       <c r="M2" s="4" t="s">
         <v>2</v>
@@ -27714,7 +27702,7 @@
       <c r="AI2" s="1"/>
       <c r="AN2"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="H3" s="1"/>
       <c r="J3"/>
       <c r="M3" s="4" t="s">
@@ -27738,7 +27726,7 @@
       <c r="AI3" s="1"/>
       <c r="AN3"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="J4"/>
       <c r="T4"/>
       <c r="X4"/>
@@ -27755,7 +27743,7 @@
       <c r="AI4" s="1"/>
       <c r="AN4"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="T5"/>
       <c r="X5"/>
@@ -27764,7 +27752,7 @@
       <c r="AI5"/>
       <c r="AN5"/>
     </row>
-    <row r="6" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -27880,7 +27868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -28024,7 +28012,7 @@
         <v>0.8639</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
@@ -28164,7 +28152,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -28310,7 +28298,7 @@
         <v>0.89829999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
@@ -28456,7 +28444,7 @@
         <v>0.91969999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.6</v>
       </c>
@@ -28602,7 +28590,7 @@
         <v>0.94289999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -28748,7 +28736,7 @@
         <v>0.96760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.8</v>
       </c>
@@ -28894,7 +28882,7 @@
         <v>0.99380000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.9</v>
       </c>
@@ -29040,7 +29028,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -29194,7 +29182,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.2</v>
       </c>
@@ -29348,7 +29336,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.4</v>
       </c>
@@ -29502,7 +29490,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.6</v>
       </c>
@@ -29656,7 +29644,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.8</v>
       </c>
@@ -29810,7 +29798,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -29964,7 +29952,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2.25</v>
       </c>
@@ -30112,7 +30100,7 @@
         <v>1.4890000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2.5</v>
       </c>
@@ -30260,7 +30248,7 @@
         <v>1.591</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2.75</v>
       </c>
@@ -30408,7 +30396,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -30556,7 +30544,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3.25</v>
       </c>
@@ -30704,7 +30692,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>3.5</v>
       </c>
@@ -30852,7 +30840,7 @@
         <v>2.0270000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>3.75</v>
       </c>
@@ -31000,7 +30988,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.3</v>
       </c>
@@ -31140,7 +31128,7 @@
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.4</v>
       </c>
@@ -31280,7 +31268,7 @@
         <v>0.89539999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -31420,7 +31408,7 @@
         <v>0.91669999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.6</v>
       </c>
@@ -31560,7 +31548,7 @@
         <v>0.93989999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.7</v>
       </c>
@@ -31700,7 +31688,7 @@
         <v>0.96460000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.8</v>
       </c>
@@ -31840,7 +31828,7 @@
         <v>0.99070000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.9</v>
       </c>
@@ -31980,7 +31968,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -32128,7 +32116,7 @@
         <v>1.046</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1.2</v>
       </c>
@@ -32276,7 +32264,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1.4</v>
       </c>
@@ -32424,7 +32412,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1.6</v>
       </c>
@@ -32572,7 +32560,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1.8</v>
       </c>
@@ -32720,7 +32708,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -32868,7 +32856,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2.25</v>
       </c>
@@ -33016,7 +33004,7 @@
         <v>1.4770000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2.5</v>
       </c>
@@ -33164,7 +33152,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2.75</v>
       </c>
@@ -33312,7 +33300,7 @@
         <v>1.677</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -33460,7 +33448,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>3.25</v>
       </c>
@@ -33608,7 +33596,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>3.5</v>
       </c>
@@ -33756,7 +33744,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>3.75</v>
       </c>
@@ -33904,7 +33892,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.2</v>
       </c>
@@ -34044,7 +34032,7 @@
         <v>0.85970000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.3</v>
       </c>
@@ -34184,7 +34172,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.4</v>
       </c>
@@ -34324,7 +34312,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.5</v>
       </c>
@@ -34464,7 +34452,7 @@
         <v>0.91479999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.6</v>
       </c>
@@ -34604,7 +34592,7 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0.7</v>
       </c>
@@ -34744,7 +34732,7 @@
         <v>0.96240000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.8</v>
       </c>
@@ -34884,7 +34872,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.9</v>
       </c>
@@ -35024,7 +35012,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -35172,7 +35160,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1.2</v>
       </c>
@@ -35320,7 +35308,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1.4</v>
       </c>
@@ -35468,7 +35456,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1.6</v>
       </c>
@@ -35616,7 +35604,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.8</v>
       </c>
@@ -35764,7 +35752,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -35912,7 +35900,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2.25</v>
       </c>
@@ -36060,7 +36048,7 @@
         <v>1.4690000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2.5</v>
       </c>
@@ -36200,7 +36188,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2.75</v>
       </c>
@@ -36348,7 +36336,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -36496,7 +36484,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>3.25</v>
       </c>
@@ -36644,7 +36632,7 @@
         <v>1.871</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>3.5</v>
       </c>
@@ -36792,7 +36780,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>3.75</v>
       </c>
@@ -36940,7 +36928,7 @@
         <v>2.0790000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>0.2</v>
       </c>
@@ -37080,7 +37068,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.3</v>
       </c>
@@ -37220,7 +37208,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.4</v>
       </c>
@@ -37360,7 +37348,7 @@
         <v>0.89159999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>0.5</v>
       </c>
@@ -37500,7 +37488,7 @@
         <v>0.91259999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>0.6</v>
       </c>
@@ -37640,7 +37628,7 @@
         <v>0.93540000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>0.7</v>
       </c>
@@ -37780,7 +37768,7 @@
         <v>0.95979999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>0.8</v>
       </c>
@@ -37920,7 +37908,7 @@
         <v>0.98560000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>0.9</v>
       </c>
@@ -38060,7 +38048,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -38208,7 +38196,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1.2</v>
       </c>
@@ -38356,7 +38344,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1.4</v>
       </c>
@@ -38504,7 +38492,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>1.6</v>
       </c>
@@ -38652,7 +38640,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1.8</v>
       </c>
@@ -38800,7 +38788,7 @@
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -38948,7 +38936,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2.25</v>
       </c>
@@ -39096,7 +39084,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2.5</v>
       </c>
@@ -39244,7 +39232,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2.75</v>
       </c>
@@ -39392,7 +39380,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -39540,7 +39528,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>3.25</v>
       </c>
@@ -39688,7 +39676,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3.5</v>
       </c>
@@ -39836,7 +39824,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>3.75</v>
       </c>
@@ -39984,7 +39972,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>0.2</v>
       </c>
@@ -40124,7 +40112,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>0.3</v>
       </c>
@@ -40264,7 +40252,7 @@
         <v>0.86870000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>0.4</v>
       </c>
@@ -40404,7 +40392,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>0.5</v>
       </c>
@@ -40544,7 +40532,7 @@
         <v>0.90739999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>0.6</v>
       </c>
@@ -40684,7 +40672,7 @@
         <v>0.92979999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>0.7</v>
       </c>
@@ -40824,7 +40812,7 @@
         <v>0.95369999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>0.8</v>
       </c>
@@ -40964,7 +40952,7 @@
         <v>0.97889999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>0.9</v>
       </c>
@@ -41104,7 +41092,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -41252,7 +41240,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1.2</v>
       </c>
@@ -41400,7 +41388,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1.4</v>
       </c>
@@ -41548,7 +41536,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1.6</v>
       </c>
@@ -41696,7 +41684,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1.8</v>
       </c>
@@ -41844,7 +41832,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -41992,7 +41980,7 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2.25</v>
       </c>
@@ -42140,7 +42128,7 @@
         <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2.5</v>
       </c>
@@ -42288,7 +42276,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2.75</v>
       </c>
@@ -42436,7 +42424,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -42584,7 +42572,7 @@
         <v>1.722</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>3.25</v>
       </c>
@@ -42732,7 +42720,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3.5</v>
       </c>
@@ -42880,7 +42868,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3.75</v>
       </c>
@@ -43028,7 +43016,7 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>0.2</v>
       </c>
@@ -43168,7 +43156,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>0.3</v>
       </c>
@@ -43308,7 +43296,7 @@
         <v>0.86370000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>0.4</v>
       </c>
@@ -43448,7 +43436,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>0.5</v>
       </c>
@@ -43588,7 +43576,7 @@
         <v>0.90129999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>0.6</v>
       </c>
@@ -43728,7 +43716,7 @@
         <v>0.92310000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>0.7</v>
       </c>
@@ -43868,7 +43856,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>0.8</v>
       </c>
@@ -44008,7 +43996,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>0.9</v>
       </c>
@@ -44156,7 +44144,7 @@
         <v>0.99680000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -44304,7 +44292,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>1.2</v>
       </c>
@@ -44452,7 +44440,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>1.4</v>
       </c>
@@ -44600,7 +44588,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>1.6</v>
       </c>
@@ -44748,7 +44736,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>1.8</v>
       </c>
@@ -44896,7 +44884,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -45044,7 +45032,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2.25</v>
       </c>
@@ -45192,7 +45180,7 @@
         <v>1.419</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2.5</v>
       </c>
@@ -45340,7 +45328,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2.75</v>
       </c>
@@ -45488,7 +45476,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -45636,7 +45624,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>3.25</v>
       </c>
@@ -45784,7 +45772,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>3.5</v>
       </c>
@@ -45932,7 +45920,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>3.75</v>
       </c>
@@ -46080,7 +46068,7 @@
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>0.2</v>
       </c>
@@ -46220,7 +46208,7 @@
         <v>0.8448</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>0.3</v>
       </c>
@@ -46360,7 +46348,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>0.4</v>
       </c>
@@ -46500,7 +46488,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>0.5</v>
       </c>
@@ -46640,7 +46628,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>0.6</v>
       </c>
@@ -46780,7 +46768,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>0.7</v>
       </c>
@@ -46920,7 +46908,7 @@
         <v>0.93810000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>0.8</v>
       </c>
@@ -47060,7 +47048,7 @@
         <v>0.96209999999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>0.9</v>
       </c>
@@ -47200,7 +47188,7 @@
         <v>0.98709999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -47348,7 +47336,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>1.2</v>
       </c>
@@ -47496,7 +47484,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>1.4</v>
       </c>
@@ -47644,7 +47632,7 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>1.6</v>
       </c>
@@ -47792,7 +47780,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>1.8</v>
       </c>
@@ -47940,7 +47928,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -48088,7 +48076,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>2.25</v>
       </c>
@@ -48236,7 +48224,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>2.5</v>
       </c>
@@ -48384,7 +48372,7 @@
         <v>1.4810000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>2.75</v>
       </c>
@@ -48532,7 +48520,7 @@
         <v>1.5680000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -48680,7 +48668,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>3.25</v>
       </c>
@@ -48828,7 +48816,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>3.5</v>
       </c>
@@ -48976,7 +48964,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>3.75</v>
       </c>
@@ -49124,7 +49112,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>0.2</v>
       </c>
@@ -49264,7 +49252,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>0.3</v>
       </c>
@@ -49404,7 +49392,7 @@
         <v>0.8518</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>0.4</v>
       </c>
@@ -49544,7 +49532,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>0.5</v>
       </c>
@@ -49684,7 +49672,7 @@
         <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>0.6</v>
       </c>
@@ -49824,7 +49812,7 @@
         <v>0.90710000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>0.7</v>
       </c>
@@ -49964,7 +49952,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>0.8</v>
       </c>
@@ -50104,7 +50092,7 @@
         <v>0.95220000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>0.9</v>
       </c>
@@ -50244,7 +50232,7 @@
         <v>0.97650000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -50392,7 +50380,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>1.2</v>
       </c>
@@ -50540,7 +50528,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>1.4</v>
       </c>
@@ -50688,7 +50676,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>1.6</v>
       </c>
@@ -50836,7 +50824,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>1.8</v>
       </c>
@@ -50984,7 +50972,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -51132,7 +51120,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>2.25</v>
       </c>
@@ -51280,7 +51268,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>2.5</v>
       </c>
@@ -51428,7 +51416,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>2.75</v>
       </c>
@@ -51576,7 +51564,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>3</v>
       </c>
@@ -51724,7 +51712,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>3.25</v>
       </c>
@@ -51872,7 +51860,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>3.5</v>
       </c>
@@ -52020,7 +52008,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>3.75</v>
       </c>
@@ -52179,16 +52167,16 @@
   <dimension ref="B2:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -52196,7 +52184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -52205,7 +52193,7 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -52216,7 +52204,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1.64413171449595E-2</v>
       </c>
@@ -52228,7 +52216,7 @@
         <v>8.8704358092670042E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.43253311258278199</v>
       </c>
@@ -52240,7 +52228,7 @@
         <v>2.2823699760963937E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1.0052198307578999</v>
       </c>
@@ -52252,7 +52240,7 @@
         <v>5.1487057077629544E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1.4732799852832901</v>
       </c>
@@ -52264,7 +52252,7 @@
         <v>7.3694219407179337E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1.99353844738778</v>
       </c>
@@ -52276,7 +52264,7 @@
         <v>9.7188616953497134E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2.4614836276674001</v>
       </c>
@@ -52288,7 +52276,7 @@
         <v>0.11732523240541651</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2.8251471670345798</v>
       </c>
@@ -52300,7 +52288,7 @@
         <v>0.13236466540735028</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>3.13695732155997</v>
       </c>
@@ -52312,7 +52300,7 @@
         <v>0.14485746444575009</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>3.5006208609271501</v>
       </c>
@@ -52324,7 +52312,7 @@
         <v>0.15898082121206311</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>3.6038677336276601</v>
       </c>
@@ -52336,7 +52324,7 @@
         <v>0.16290592219806463</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>3.96753127299485</v>
       </c>
@@ -52348,7 +52336,7 @@
         <v>0.17644412023370443</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>3.96810614422369</v>
       </c>
@@ -52360,7 +52348,7 @@
         <v>0.17646517446428464</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>4.1250459896983003</v>
       </c>
@@ -52372,7 +52360,7 @@
         <v>0.18217299613766277</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>4.3338392200147098</v>
       </c>
@@ -52384,7 +52372,7 @@
         <v>0.18964516789036034</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>4.3346440397350996</v>
       </c>
@@ -52396,7 +52384,7 @@
         <v>0.18967370615274448</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>4.5435522442972696</v>
       </c>
@@ -52408,7 +52396,7 @@
         <v>0.19701406222476264</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>4.7006070640176603</v>
       </c>
@@ -52420,7 +52408,7 @@
         <v>0.20244548173481314</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>4.8054635761589397</v>
       </c>
@@ -52432,7 +52420,7 @@
         <v>0.20603100948424874</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>5.0146017292126501</v>
       </c>
@@ -52444,7 +52432,7 @@
         <v>0.21308698873861018</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5.0676048565121397</v>
       </c>
@@ -52456,7 +52444,7 @@
         <v>0.21485535269763475</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>5.3288263428991902</v>
       </c>
@@ -52468,7 +52456,7 @@
         <v>0.22345575047730468</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>5.6420161883738</v>
       </c>
@@ -52480,7 +52468,7 @@
         <v>0.2335219918276184</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>5.9030077262693101</v>
       </c>
@@ -52492,7 +52480,7 @@
         <v>0.24171330108940928</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>6.2683958793230303</v>
       </c>
@@ -52504,7 +52492,7 @@
         <v>0.25289133527119789</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>6.4773040838852101</v>
       </c>
@@ -52516,7 +52504,7 @@
         <v>0.25913546382995689</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>7.0510255702722597</v>
       </c>
@@ -52528,7 +52516,7 @@
         <v>0.27575875212273737</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>7.2594738778513603</v>
       </c>
@@ -52540,7 +52528,7 @@
         <v>0.28161517647408635</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>7.52023546725533</v>
       </c>
@@ -52552,7 +52540,7 @@
         <v>0.28880934438583261</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>7.9369021339219996</v>
       </c>
@@ -52564,7 +52552,7 @@
         <v>0.30001043030815761</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>8.45819536423841</v>
       </c>
@@ -52576,7 +52564,7 @@
         <v>0.3135369044946853</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>8.77069536423841</v>
       </c>
@@ -52588,7 +52576,7 @@
         <v>0.32139787543606363</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>9.0836552612214891</v>
       </c>
@@ -52600,7 +52588,7 @@
         <v>0.3290920249146787</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>9.1878219278881499</v>
       </c>
@@ -52612,7 +52600,7 @@
         <v>0.33161441676718256</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>9.5528651582045594</v>
       </c>
@@ -52624,7 +52612,7 @@
         <v>0.34030617329796392</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>10.0741583885209</v>
       </c>
@@ -52636,7 +52624,7 @@
         <v>0.35233351607035707</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>10.491055003679101</v>
       </c>
@@ -52648,7 +52636,7 @@
         <v>0.36164113187157093</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>11.0123482339955</v>
       </c>
@@ -52660,7 +52648,7 @@
         <v>0.37290975325192577</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>11.533411515820401</v>
       </c>
@@ -52672,7 +52660,7 @@
         <v>0.38378272219593601</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>11.690121412803499</v>
       </c>
@@ -52684,7 +52672,7 @@
         <v>0.38697940189894225</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>11.950768027961701</v>
       </c>
@@ -52696,7 +52684,7 @@
         <v>0.39222342832777096</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>12.0558544885945</v>
       </c>
@@ -52709,7 +52697,7 @@
         <v>0.39431240293267006</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>12.1616307947019</v>
       </c>
@@ -52721,7 +52709,7 @@
         <v>0.39640063907581174</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>12.5795621780721</v>
       </c>
@@ -52733,7 +52721,7 @@
         <v>0.40451249389970351</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>12.945640176600399</v>
       </c>
@@ -52745,7 +52733,7 @@
         <v>0.41144084931813785</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>13.5203964311994</v>
       </c>
@@ -52757,7 +52745,7 @@
         <v>0.42199919855021301</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>13.9906410963944</v>
       </c>
@@ -52769,7 +52757,7 @@
         <v>0.4303599743001808</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>14.7215323767476</v>
       </c>
@@ -52781,7 +52769,7 @@
         <v>0.44288537412691403</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>15.138658940397301</v>
       </c>
@@ -52793,7 +52781,7 @@
         <v>0.44978991357420123</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>16.077308682855001</v>
       </c>
@@ -52805,7 +52793,7 @@
         <v>0.46471814618777785</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>16.599291758646</v>
       </c>
@@ -52817,7 +52805,7 @@
         <v>0.47267445286700427</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>17.433659860191302</v>
       </c>
@@ -52829,7 +52817,7 @@
         <v>0.48491247669474113</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>18.1631714495952</v>
       </c>
@@ -52841,7 +52829,7 @@
         <v>0.49515634272531867</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>19.1019361662987</v>
       </c>
@@ -52853,7 +52841,7 @@
         <v>0.50775399516922415</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>19.6228844738778</v>
       </c>
@@ -52865,7 +52853,7 @@
         <v>0.51447725920805065</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>20.0395511405445</v>
       </c>
@@ -52877,7 +52865,7 @@
         <v>0.5197239207703499</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>21.968014164827</v>
       </c>
@@ -52889,7 +52877,7 @@
         <v>0.54260053180260925</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>22.749379139072801</v>
       </c>
@@ -52901,7 +52889,7 @@
         <v>0.55126091781629694</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>22.957712472406101</v>
       </c>
@@ -52913,7 +52901,7 @@
         <v>0.55351491502276229</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>23.4790057027225</v>
       </c>
@@ -52926,7 +52914,7 @@
         <v>0.55905690009335263</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>24.208287343635</v>
       </c>
@@ -52938,7 +52926,7 @@
         <v>0.56658312867422123</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>25.042425496688701</v>
       </c>
@@ -52950,7 +52938,7 @@
         <v>0.57488252522595329</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>26.605960264900599</v>
       </c>
@@ -52962,7 +52950,7 @@
         <v>0.5896125779668151</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>27.336506622516499</v>
       </c>
@@ -52974,7 +52962,7 @@
         <v>0.59615072804863534</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>27.7014348785872</v>
       </c>
@@ -52986,7 +52974,7 @@
         <v>0.59933930786528788</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>27.9103430831493</v>
       </c>
@@ -52998,7 +52986,7 @@
         <v>0.60114209395447904</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>28.3283894407652</v>
       </c>
@@ -53010,7 +52998,7 @@
         <v>0.60470137037403593</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>29.1631024650478</v>
       </c>
@@ -53022,7 +53010,7 @@
         <v>0.6116214563070117</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>29.476177336276599</v>
       </c>
@@ -53034,7 +53022,7 @@
         <v>0.61415489381274313</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>29.6847406181015</v>
       </c>
@@ -53046,7 +53034,7 @@
         <v>0.61582434776801231</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>29.790516924208902</v>
       </c>
@@ -53058,7 +53046,7 @@
         <v>0.61666552956800236</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>28.279525386313399</v>
       </c>
@@ -53070,7 +53058,7 @@
         <v>0.60428862034965369</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>8.5599475717439297</v>
       </c>
@@ -53082,7 +53070,7 @@
         <v>0.31611641306455429</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>8.7688557763061095</v>
       </c>
@@ -53094,7 +53082,7 @@
         <v>0.32135212723524031</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>8.9771891096394398</v>
       </c>
@@ -53106,7 +53094,7 @@
         <v>0.32649420160570913</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>9.4466289551140505</v>
       </c>
@@ -53118,7 +53106,7 @@
         <v>0.3378000764709348</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>9.7594738778513594</v>
       </c>
@@ -53130,7 +53118,7 @@
         <v>0.34512612285390565</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>10.020580389992601</v>
       </c>
@@ -53142,7 +53130,7 @@
         <v>0.35111761664641056</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>10.1770603384841</v>
       </c>
@@ -53154,7 +53142,7 @@
         <v>0.35465603914801597</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>10.4377069536423</v>
       </c>
@@ -53166,7 +53154,7 @@
         <v>0.36046503932901586</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>10.959115158204501</v>
       </c>
@@ -53178,7 +53166,7 @@
         <v>0.37177730337487552</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>11.4800634657836</v>
       </c>
@@ -53190,7 +53178,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>11.689086644591599</v>
       </c>
@@ -53202,7 +53190,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>7.8307809050772601</v>
       </c>
@@ -53214,7 +53202,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>7.8310108535687997</v>
       </c>
@@ -53226,7 +53214,7 @@
         <v>0.29719737088983367</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>11.4800634657836</v>
       </c>
@@ -53238,7 +53226,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>11.689086644591599</v>
       </c>
@@ -53250,7 +53238,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>7.8307809050772601</v>
       </c>
@@ -53262,7 +53250,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>7.8310108535687997</v>
       </c>
@@ -53288,13 +53276,13 @@
       <selection activeCell="P4" sqref="P4:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -53302,7 +53290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -53328,7 +53316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -53372,7 +53360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -53416,7 +53404,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -53460,7 +53448,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -53504,7 +53492,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -53548,7 +53536,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -53592,7 +53580,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -53636,7 +53624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -53680,7 +53668,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -53724,7 +53712,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -53768,7 +53756,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -53812,7 +53800,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -53856,7 +53844,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -53900,7 +53888,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -53944,7 +53932,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -53988,7 +53976,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -54032,7 +54020,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -54076,7 +54064,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -54120,7 +54108,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -54164,7 +54152,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -54208,7 +54196,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -54252,7 +54240,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -54296,7 +54284,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -54340,7 +54328,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -54384,7 +54372,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -54428,7 +54416,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -54466,7 +54454,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -54504,7 +54492,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -54542,7 +54530,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -54580,7 +54568,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -54618,7 +54606,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -54650,7 +54638,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -54670,7 +54658,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -54702,7 +54690,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -54734,7 +54722,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -54766,7 +54754,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -54792,7 +54780,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -54824,7 +54812,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -54856,7 +54844,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -54888,7 +54876,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -54920,7 +54908,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -54952,7 +54940,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -54984,7 +54972,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -55010,7 +54998,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -55036,7 +55024,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -55062,7 +55050,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -55088,7 +55076,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -55114,7 +55102,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -55134,7 +55122,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -55154,7 +55142,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -55168,7 +55156,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -55182,7 +55170,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -55196,7 +55184,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -55210,7 +55198,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -55224,7 +55212,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -55238,7 +55226,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -55252,7 +55240,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -55266,7 +55254,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -55280,7 +55268,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -55294,7 +55282,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -55308,7 +55296,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -55322,7 +55310,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -55336,7 +55324,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -55350,7 +55338,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -55364,7 +55352,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -55378,7 +55366,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -55392,7 +55380,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -55406,7 +55394,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -55420,7 +55408,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -55434,7 +55422,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -55448,7 +55436,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -55462,7 +55450,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -55476,7 +55464,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -55490,7 +55478,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -55504,7 +55492,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -55518,7 +55506,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -55526,7 +55514,7 @@
         <v>297.483443708609</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -55540,7 +55528,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -55554,7 +55542,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -55568,7 +55556,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -55582,7 +55570,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -55596,7 +55584,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -55610,7 +55598,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -55624,7 +55612,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -55638,7 +55626,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -55652,7 +55640,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -55666,7 +55654,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -55680,7 +55668,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -55694,7 +55682,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.48119800000000001</v>
       </c>
@@ -55702,7 +55690,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.48283300000000001</v>
       </c>
@@ -55710,7 +55698,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.48448600000000003</v>
       </c>
@@ -55718,7 +55706,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.48615599999999998</v>
       </c>
@@ -55726,7 +55714,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.48784499999999997</v>
       </c>
@@ -55734,7 +55722,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.48955199999999999</v>
       </c>
@@ -55742,7 +55730,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.49127700000000002</v>
       </c>
@@ -55750,7 +55738,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.49302000000000001</v>
       </c>
@@ -55758,7 +55746,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.49478100000000003</v>
       </c>
@@ -55766,7 +55754,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.49655899999999997</v>
       </c>
@@ -55774,7 +55762,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.49835600000000002</v>
       </c>
@@ -55782,7 +55770,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.50017100000000003</v>
       </c>
@@ -55790,7 +55778,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.50200400000000001</v>
       </c>
@@ -55798,7 +55786,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.50385500000000005</v>
       </c>
@@ -55806,7 +55794,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.50572399999999995</v>
       </c>
@@ -55814,7 +55802,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.50761100000000003</v>
       </c>
@@ -55822,7 +55810,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.50951500000000005</v>
       </c>
@@ -55830,7 +55818,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.51143799999999995</v>
       </c>
@@ -55838,7 +55826,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.51337900000000003</v>
       </c>
@@ -55846,7 +55834,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.51533799999999996</v>
       </c>
@@ -55854,7 +55842,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.51731499999999997</v>
       </c>
@@ -55862,7 +55850,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.51931000000000005</v>
       </c>
@@ -55870,7 +55858,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.52132299999999998</v>
       </c>
@@ -55878,7 +55866,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.52335399999999999</v>
       </c>
@@ -55886,7 +55874,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.52540299999999995</v>
       </c>
@@ -55894,7 +55882,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.52746899999999997</v>
       </c>
@@ -55902,7 +55890,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.52955399999999997</v>
       </c>
@@ -55910,7 +55898,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.53165700000000005</v>
       </c>
@@ -55918,7 +55906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.53377799999999997</v>
       </c>
@@ -55926,7 +55914,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.53591699999999998</v>
       </c>
@@ -55934,7 +55922,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.53807400000000005</v>
       </c>
@@ -55942,7 +55930,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.54024899999999998</v>
       </c>
@@ -55950,7 +55938,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.54244199999999998</v>
       </c>
@@ -55958,7 +55946,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.54465300000000005</v>
       </c>
@@ -55966,7 +55954,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.54688199999999998</v>
       </c>
@@ -55974,7 +55962,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.54912899999999998</v>
       </c>
@@ -55982,7 +55970,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.55139400000000005</v>
       </c>
@@ -55990,7 +55978,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.55367699999999997</v>
       </c>
@@ -55998,7 +55986,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.55597700000000005</v>
       </c>
@@ -56006,7 +55994,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.55829600000000001</v>
       </c>
@@ -56014,7 +56002,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.56063300000000005</v>
       </c>
@@ -56022,7 +56010,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.56298800000000004</v>
       </c>
@@ -56040,13 +56028,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D49C2DC-6039-495A-9948-9FA92B02CE18}">
   <dimension ref="A24:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" zoomScale="62" workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.122618</v>
       </c>
@@ -56054,7 +56042,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.118628</v>
       </c>
@@ -56062,7 +56050,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.114498</v>
       </c>
@@ -56070,7 +56058,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.11022800000000001</v>
       </c>
@@ -56078,7 +56066,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.105818</v>
       </c>
@@ -56086,7 +56074,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.101268</v>
       </c>
@@ -56094,7 +56082,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9.6577800000000005E-2</v>
       </c>
@@ -56102,7 +56090,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9.1747800000000004E-2</v>
       </c>
@@ -56110,7 +56098,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8.6777900000000005E-2</v>
       </c>
@@ -56118,7 +56106,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8.1667900000000002E-2</v>
       </c>
@@ -56126,7 +56114,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7.6417899999999997E-2</v>
       </c>
@@ -56134,7 +56122,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7.1027999999999994E-2</v>
       </c>
@@ -56142,7 +56130,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6.5498000000000001E-2</v>
       </c>
@@ -56150,7 +56138,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5.9827999999999999E-2</v>
       </c>
@@ -56158,7 +56146,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5.4018099999999999E-2</v>
       </c>
@@ -56166,7 +56154,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.8068100000000002E-2</v>
       </c>
@@ -56174,7 +56162,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4.1978099999999997E-2</v>
       </c>
@@ -56182,7 +56170,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3.5748200000000001E-2</v>
       </c>
@@ -56190,7 +56178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2.93782E-2</v>
       </c>
@@ -56198,7 +56186,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.2868200000000002E-2</v>
       </c>
@@ -56206,7 +56194,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.6218300000000001E-2</v>
       </c>
@@ -56214,7 +56202,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>9.4282900000000006E-3</v>
       </c>
@@ -56222,7 +56210,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.4978700000000001E-3</v>
       </c>
@@ -56230,7 +56218,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.20586699999999999</v>
       </c>
@@ -56238,7 +56226,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.20577699999999999</v>
       </c>
@@ -56246,7 +56234,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.20574700000000001</v>
       </c>
@@ -56254,7 +56242,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.20577699999999999</v>
       </c>
@@ -56262,7 +56250,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.20586699999999999</v>
       </c>
@@ -56270,7 +56258,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.20601700000000001</v>
       </c>
@@ -56278,7 +56266,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.20622699999999999</v>
       </c>
@@ -56286,7 +56274,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.20649700000000001</v>
       </c>
@@ -56294,7 +56282,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.20682700000000001</v>
       </c>
@@ -56302,7 +56290,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.20721700000000001</v>
       </c>
@@ -56310,7 +56298,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.20766699999999999</v>
       </c>
@@ -56318,7 +56306,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.208177</v>
       </c>
@@ -56326,7 +56314,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.20874699999999999</v>
       </c>
@@ -56334,7 +56322,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.20937700000000001</v>
       </c>
@@ -56342,7 +56330,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.210067</v>
       </c>
@@ -56350,7 +56338,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.210817</v>
       </c>
@@ -56358,7 +56346,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.21162700000000001</v>
       </c>
@@ -56366,7 +56354,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.21249699999999999</v>
       </c>
@@ -56374,7 +56362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.21342700000000001</v>
       </c>
@@ -56382,7 +56370,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.214417</v>
       </c>
@@ -56390,7 +56378,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.21546699999999999</v>
       </c>
@@ -56398,7 +56386,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.21657699999999999</v>
       </c>
@@ -56406,7 +56394,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.217747</v>
       </c>
@@ -56414,7 +56402,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.218977</v>
       </c>
@@ -56422,7 +56410,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.22026699999999999</v>
       </c>
@@ -56430,7 +56418,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.22161700000000001</v>
       </c>
@@ -56438,7 +56426,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.223027</v>
       </c>
@@ -56446,7 +56434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.224497</v>
       </c>
@@ -56454,7 +56442,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.22602700000000001</v>
       </c>
@@ -56462,7 +56450,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.22761600000000001</v>
       </c>
@@ -56470,7 +56458,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.23097599999999999</v>
       </c>
@@ -56478,7 +56466,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.23274600000000001</v>
       </c>
@@ -56486,7 +56474,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.23457600000000001</v>
       </c>
@@ -56494,7 +56482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.23841599999999999</v>
       </c>
@@ -56502,7 +56490,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.240426</v>
       </c>
@@ -56510,7 +56498,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.24249599999999999</v>
       </c>
@@ -56518,7 +56506,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.24462600000000001</v>
       </c>
@@ -56526,7 +56514,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.24681600000000001</v>
       </c>
@@ -56534,7 +56522,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.24906600000000001</v>
       </c>
@@ -56542,7 +56530,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.25137599999999999</v>
       </c>
@@ -56550,7 +56538,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.25374600000000003</v>
       </c>
@@ -56558,7 +56546,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.25617600000000001</v>
       </c>
@@ -56566,7 +56554,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.25866600000000001</v>
       </c>
@@ -56574,7 +56562,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.261216</v>
       </c>
@@ -56582,7 +56570,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.263826</v>
       </c>
@@ -56590,7 +56578,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.26649600000000001</v>
       </c>
@@ -56598,7 +56586,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.25929600000000003</v>
       </c>
@@ -56606,7 +56594,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.26374999999999998</v>
       </c>
@@ -56614,7 +56602,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.26819199999999999</v>
       </c>
@@ -56622,7 +56610,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.27262199999999998</v>
       </c>
@@ -56630,7 +56618,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.27704000000000001</v>
       </c>
@@ -56638,7 +56626,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.281445</v>
       </c>
@@ -56646,7 +56634,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.28583900000000001</v>
       </c>
@@ -56654,7 +56642,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.29022100000000001</v>
       </c>
@@ -56662,7 +56650,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.29459099999999999</v>
       </c>
@@ -56670,7 +56658,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.29894900000000002</v>
       </c>
@@ -56678,7 +56666,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.30329499999999998</v>
       </c>
@@ -56686,7 +56674,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.30762899999999999</v>
       </c>
@@ -56694,7 +56682,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.31195000000000001</v>
       </c>
@@ -56702,7 +56690,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.31625999999999999</v>
       </c>
@@ -56710,7 +56698,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.32055800000000001</v>
       </c>
@@ -56718,7 +56706,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.32484400000000002</v>
       </c>
@@ -56726,7 +56714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.32911699999999999</v>
       </c>
@@ -56734,7 +56722,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.33337899999999998</v>
       </c>
@@ -56742,7 +56730,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.33762900000000001</v>
       </c>
@@ -56750,7 +56738,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.341866</v>
       </c>
@@ -56758,7 +56746,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.34609200000000001</v>
       </c>
@@ -56766,7 +56754,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.35030600000000001</v>
       </c>
@@ -56774,7 +56762,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.35450700000000002</v>
       </c>
@@ -56782,7 +56770,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.35869600000000001</v>
       </c>
@@ -56790,7 +56778,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.36287399999999997</v>
       </c>
@@ -56798,7 +56786,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.367039</v>
       </c>
@@ -56806,7 +56794,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.37119200000000002</v>
       </c>
@@ -56814,7 +56802,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.37533300000000003</v>
       </c>
@@ -56822,7 +56810,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.37946200000000002</v>
       </c>
@@ -56830,7 +56818,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.407802</v>
       </c>
@@ -56838,7 +56826,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.40787000000000001</v>
       </c>
@@ -56846,7 +56834,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.40795700000000001</v>
       </c>
@@ -56854,7 +56842,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.40806100000000001</v>
       </c>
@@ -56862,7 +56850,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.40818399999999999</v>
       </c>
@@ -56870,7 +56858,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.40832400000000002</v>
       </c>
@@ -56878,7 +56866,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.40848200000000001</v>
       </c>
@@ -56886,7 +56874,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.40865800000000002</v>
       </c>
@@ -56894,7 +56882,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.40885199999999999</v>
       </c>
@@ -56902,7 +56890,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.40906300000000001</v>
       </c>
@@ -56910,7 +56898,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.40929300000000002</v>
       </c>
@@ -56918,7 +56906,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.40954000000000002</v>
       </c>
@@ -56926,7 +56914,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.40980499999999997</v>
       </c>
@@ -56934,7 +56922,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.41008800000000001</v>
       </c>
@@ -56942,7 +56930,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.41038799999999998</v>
       </c>
@@ -56950,7 +56938,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.41070600000000002</v>
       </c>
@@ -56958,7 +56946,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.41104200000000002</v>
       </c>
@@ -56966,7 +56954,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.41139500000000001</v>
       </c>
@@ -56974,7 +56962,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.41176499999999999</v>
       </c>
@@ -56982,7 +56970,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.41215299999999999</v>
       </c>
@@ -56990,7 +56978,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.41255700000000001</v>
       </c>
@@ -56998,7 +56986,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.41297800000000001</v>
       </c>
@@ -57006,7 +56994,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.41341499999999998</v>
       </c>
@@ -57014,7 +57002,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.41386699999999998</v>
       </c>
@@ -57022,7 +57010,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.41433300000000001</v>
       </c>
@@ -57030,7 +57018,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.41481099999999999</v>
       </c>
@@ -57038,7 +57026,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.415296</v>
       </c>
@@ -57046,7 +57034,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.41577999999999998</v>
       </c>
@@ -57054,7 +57042,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.41623700000000002</v>
       </c>
@@ -57062,7 +57050,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.416578</v>
       </c>
@@ -57070,7 +57058,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.419819</v>
       </c>
@@ -57078,7 +57066,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.41950100000000001</v>
       </c>
@@ -57086,7 +57074,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.41993999999999998</v>
       </c>
@@ -57094,7 +57082,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.42051300000000003</v>
       </c>
@@ -57102,7 +57090,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.42114299999999999</v>
       </c>
@@ -57110,7 +57098,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.42181000000000002</v>
       </c>
@@ -57118,7 +57106,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.42250500000000002</v>
       </c>
@@ -57126,7 +57114,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.42322300000000002</v>
       </c>
@@ -57134,7 +57122,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.42396400000000001</v>
       </c>
@@ -57142,7 +57130,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.42472500000000002</v>
       </c>
@@ -57150,7 +57138,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.425506</v>
       </c>
@@ -57158,7 +57146,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.42630600000000002</v>
       </c>
@@ -57166,7 +57154,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.42712600000000001</v>
       </c>
@@ -57174,7 +57162,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.42796400000000001</v>
       </c>
@@ -57182,7 +57170,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.42882100000000001</v>
       </c>
@@ -57190,7 +57178,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.42969600000000002</v>
       </c>
@@ -57198,7 +57186,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.43058999999999997</v>
       </c>
@@ -57206,7 +57194,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.431502</v>
       </c>
@@ -57214,7 +57202,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.43243300000000001</v>
       </c>
@@ -57222,7 +57210,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.43338199999999999</v>
       </c>
@@ -57230,7 +57218,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.43434899999999999</v>
       </c>
@@ -57238,7 +57226,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.435334</v>
       </c>
@@ -57246,7 +57234,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.436338</v>
       </c>
@@ -57254,7 +57242,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.437359</v>
       </c>
@@ -57262,7 +57250,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.43839899999999998</v>
       </c>
@@ -57270,7 +57258,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.43945699999999999</v>
       </c>
@@ -57278,7 +57266,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.44053199999999998</v>
       </c>
@@ -57286,7 +57274,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.44162600000000002</v>
       </c>
@@ -57294,7 +57282,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.44273800000000002</v>
       </c>
@@ -57302,7 +57290,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.44386900000000001</v>
       </c>
@@ -57310,7 +57298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.445017</v>
       </c>
@@ -57318,7 +57306,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.446183</v>
       </c>
@@ -57326,7 +57314,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.44736700000000001</v>
       </c>
@@ -57334,7 +57322,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.44857000000000002</v>
       </c>
@@ -57342,7 +57330,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.44979000000000002</v>
       </c>
@@ -57350,7 +57338,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.45102799999999998</v>
       </c>
@@ -57358,7 +57346,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.45228499999999999</v>
       </c>
@@ -57366,7 +57354,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.45355899999999999</v>
       </c>
@@ -57374,7 +57362,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.45485199999999998</v>
       </c>
@@ -57382,7 +57370,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.45616200000000001</v>
       </c>
@@ -57390,7 +57378,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.45749099999999998</v>
       </c>
@@ -57398,7 +57386,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.45883699999999999</v>
       </c>
@@ -57406,7 +57394,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.460202</v>
       </c>
@@ -57414,7 +57402,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.46298499999999998</v>
       </c>
@@ -57422,7 +57410,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.46440399999999998</v>
       </c>
@@ -57430,7 +57418,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.46584100000000001</v>
       </c>
@@ -57438,7 +57426,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.46729500000000002</v>
       </c>
@@ -57446,7 +57434,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.46876800000000002</v>
       </c>
@@ -57454,7 +57442,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.47025899999999998</v>
       </c>
@@ -57462,7 +57450,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.47176699999999999</v>
       </c>
@@ -57470,7 +57458,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.47329399999999999</v>
       </c>
@@ -57478,7 +57466,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.47483900000000001</v>
       </c>
@@ -57486,7 +57474,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.47640199999999999</v>
       </c>
@@ -57494,7 +57482,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.47798200000000002</v>
       </c>
@@ -57502,7 +57490,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.47958099999999998</v>
       </c>
@@ -57510,7 +57498,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0.48119800000000001</v>
       </c>
@@ -57518,7 +57506,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0.48283300000000001</v>
       </c>
@@ -57526,7 +57514,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0.48448600000000003</v>
       </c>
@@ -57534,7 +57522,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0.48615599999999998</v>
       </c>
@@ -57542,7 +57530,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0.48784499999999997</v>
       </c>
@@ -57550,7 +57538,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0.48955199999999999</v>
       </c>
@@ -57558,7 +57546,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0.49127700000000002</v>
       </c>
@@ -57566,7 +57554,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0.49302000000000001</v>
       </c>
@@ -57574,7 +57562,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0.49478100000000003</v>
       </c>
@@ -57582,7 +57570,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0.49655899999999997</v>
       </c>
@@ -57590,7 +57578,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0.49835600000000002</v>
       </c>
@@ -57598,7 +57586,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0.50017100000000003</v>
       </c>
@@ -57606,7 +57594,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0.50200400000000001</v>
       </c>
@@ -57614,7 +57602,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>0.50385500000000005</v>
       </c>
@@ -57622,7 +57610,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0.50572399999999995</v>
       </c>
@@ -57630,7 +57618,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0.50761100000000003</v>
       </c>
@@ -57638,7 +57626,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.50951500000000005</v>
       </c>
@@ -57646,7 +57634,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0.51143799999999995</v>
       </c>
@@ -57654,7 +57642,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0.51337900000000003</v>
       </c>
@@ -57662,7 +57650,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0.51533799999999996</v>
       </c>
@@ -57670,7 +57658,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0.51731499999999997</v>
       </c>
@@ -57678,7 +57666,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0.51931000000000005</v>
       </c>
@@ -57686,7 +57674,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0.52132299999999998</v>
       </c>
@@ -57694,7 +57682,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0.52335399999999999</v>
       </c>
@@ -57702,7 +57690,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0.52540299999999995</v>
       </c>
@@ -57710,7 +57698,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0.52746899999999997</v>
       </c>
@@ -57718,7 +57706,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0.52955399999999997</v>
       </c>
@@ -57726,7 +57714,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0.53165700000000005</v>
       </c>
@@ -57734,7 +57722,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0.53377799999999997</v>
       </c>
@@ -57742,7 +57730,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0.53591699999999998</v>
       </c>
@@ -57750,7 +57738,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0.53807400000000005</v>
       </c>
@@ -57758,7 +57746,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0.54024899999999998</v>
       </c>
@@ -57766,7 +57754,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0.54244199999999998</v>
       </c>
@@ -57774,7 +57762,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0.54465300000000005</v>
       </c>
@@ -57782,7 +57770,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0.54688199999999998</v>
       </c>
@@ -57790,7 +57778,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0.54912899999999998</v>
       </c>
@@ -57798,7 +57786,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>0.55139400000000005</v>
       </c>
@@ -57806,7 +57794,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0.55367699999999997</v>
       </c>
@@ -57814,7 +57802,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0.55597700000000005</v>
       </c>
@@ -57822,7 +57810,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0.55829600000000001</v>
       </c>
@@ -57830,7 +57818,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>0.56063300000000005</v>
       </c>
@@ -57838,7 +57826,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0.56298800000000004</v>
       </c>
@@ -57846,7 +57834,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0.500413</v>
       </c>
@@ -57854,7 +57842,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>0.50360700000000003</v>
       </c>
@@ -57862,7 +57850,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0.50680499999999995</v>
       </c>
@@ -57870,7 +57858,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>0.51000699999999999</v>
       </c>
@@ -57878,7 +57866,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0.513212</v>
       </c>
@@ -57886,7 +57874,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0.51642200000000005</v>
       </c>
@@ -57894,7 +57882,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0.51963599999999999</v>
       </c>
@@ -57902,7 +57890,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>0.52285400000000004</v>
       </c>
@@ -57910,7 +57898,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>0.52607599999999999</v>
       </c>
@@ -57918,7 +57906,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>0.52930200000000005</v>
       </c>
@@ -57926,7 +57914,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>0.53253099999999998</v>
       </c>
@@ -57934,7 +57922,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>0.53576500000000005</v>
       </c>
@@ -57942,7 +57930,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>0.53900300000000001</v>
       </c>
@@ -57950,7 +57938,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>0.54224499999999998</v>
       </c>
@@ -57958,7 +57946,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>0.54549099999999995</v>
       </c>
@@ -57966,7 +57954,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>0.54874100000000003</v>
       </c>
@@ -57974,7 +57962,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>0.55199500000000001</v>
       </c>
@@ -57982,7 +57970,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>0.555253</v>
       </c>
@@ -57990,7 +57978,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>0.55851499999999998</v>
       </c>
@@ -57998,7 +57986,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>0.56177999999999995</v>
       </c>
@@ -58006,7 +57994,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>0.56505000000000005</v>
       </c>
@@ -58014,7 +58002,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>0.56832400000000005</v>
       </c>
@@ -58022,7 +58010,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>0.57160200000000005</v>
       </c>
@@ -58030,7 +58018,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.57488399999999995</v>
       </c>
@@ -58038,7 +58026,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>0.60925099999999999</v>
       </c>
@@ -58046,7 +58034,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>0.61000500000000002</v>
       </c>
@@ -58054,7 +58042,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>0.61074700000000004</v>
       </c>
@@ -58062,7 +58050,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>0.61147700000000005</v>
       </c>
@@ -58070,7 +58058,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>0.61219500000000004</v>
       </c>
@@ -58078,7 +58066,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0.61290100000000003</v>
       </c>
@@ -58086,7 +58074,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0.613595</v>
       </c>
@@ -58094,7 +58082,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>0.61427699999999996</v>
       </c>
@@ -58102,7 +58090,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>0.61494700000000002</v>
       </c>
@@ -58110,7 +58098,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0.61560499999999996</v>
       </c>
@@ -58118,7 +58106,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>0.61625099999999999</v>
       </c>
@@ -58126,7 +58114,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0.61688500000000002</v>
       </c>
@@ -58134,7 +58122,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0.61750700000000003</v>
       </c>
@@ -58142,7 +58130,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0.61811700000000003</v>
       </c>
@@ -58150,7 +58138,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>0.61871500000000001</v>
       </c>
@@ -58158,7 +58146,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>0.61930099999999999</v>
       </c>
@@ -58166,7 +58154,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>0.61987499999999995</v>
       </c>
@@ -58174,7 +58162,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0.62043700000000002</v>
       </c>
@@ -58182,7 +58170,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0.62098699999999996</v>
       </c>
@@ -58190,7 +58178,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>0.62152499999999999</v>
       </c>
@@ -58198,7 +58186,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>0.62205100000000002</v>
       </c>
@@ -58206,7 +58194,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>0.62256500000000004</v>
       </c>
@@ -58214,7 +58202,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>0.62306700000000004</v>
       </c>
@@ -58222,7 +58210,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>0.62355700000000003</v>
       </c>
@@ -58230,7 +58218,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>0.62403500000000001</v>
       </c>
@@ -58238,7 +58226,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>0.62450099999999997</v>
       </c>
@@ -58246,7 +58234,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0.62495500000000004</v>
       </c>
@@ -58254,7 +58242,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0.62539699999999998</v>
       </c>
@@ -58262,7 +58250,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0.62582700000000002</v>
       </c>
@@ -58270,7 +58258,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0.62624500000000005</v>
       </c>
@@ -58278,7 +58266,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0.62665099999999996</v>
       </c>
@@ -58286,7 +58274,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0.62704499999999996</v>
       </c>
@@ -58294,7 +58282,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0.62742699999999996</v>
       </c>
@@ -58302,7 +58290,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0.62779700000000005</v>
       </c>
@@ -58310,7 +58298,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0.62815500000000002</v>
       </c>
@@ -58318,7 +58306,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0.62850099999999998</v>
       </c>
@@ -58326,7 +58314,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>0.62883500000000003</v>
       </c>
@@ -58334,7 +58322,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>0.62915699999999997</v>
       </c>
@@ -58342,7 +58330,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>0.629467</v>
       </c>
@@ -58350,7 +58338,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>0.62976500000000002</v>
       </c>
@@ -58358,7 +58346,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>0.63005100000000003</v>
       </c>
@@ -58377,12 +58365,12 @@
   <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -58390,7 +58378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -58404,7 +58392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -58418,7 +58406,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -58432,7 +58420,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -58446,7 +58434,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -58460,7 +58448,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -58474,7 +58462,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -58488,7 +58476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -58502,7 +58490,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -58516,7 +58504,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -58530,7 +58518,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -58544,7 +58532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -58558,7 +58546,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -58572,7 +58560,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -58586,7 +58574,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -58600,7 +58588,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -58614,7 +58602,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -58628,7 +58616,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -58642,7 +58630,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -58656,7 +58644,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -58670,7 +58658,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -58684,7 +58672,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -58698,7 +58686,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -58712,7 +58700,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -58726,7 +58714,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -58740,7 +58728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -58754,7 +58742,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -58768,7 +58756,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -58782,7 +58770,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -58796,7 +58784,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -58810,7 +58798,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -58824,7 +58812,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -58838,7 +58826,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -58852,7 +58840,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -58866,7 +58854,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -58880,7 +58868,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -58894,7 +58882,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -58908,7 +58896,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -58922,7 +58910,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -58936,7 +58924,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -58950,7 +58938,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -58964,7 +58952,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -58978,7 +58966,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -58992,7 +58980,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -59006,7 +58994,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -59020,7 +59008,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -59034,7 +59022,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -59048,7 +59036,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -59062,7 +59050,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -59076,7 +59064,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -59090,7 +59078,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -59104,7 +59092,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -59118,7 +59106,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -59132,7 +59120,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -59146,7 +59134,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -59160,7 +59148,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -59174,7 +59162,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -59188,7 +59176,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -59202,7 +59190,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -59216,7 +59204,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -59230,7 +59218,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -59244,7 +59232,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -59258,7 +59246,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -59272,7 +59260,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -59286,7 +59274,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -59300,7 +59288,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -59314,7 +59302,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -59328,7 +59316,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -59342,7 +59330,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -59356,7 +59344,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -59370,7 +59358,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -59384,7 +59372,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -59398,7 +59386,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -59412,7 +59400,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -59426,7 +59414,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -59440,7 +59428,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -59454,7 +59442,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -59468,7 +59456,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -59482,7 +59470,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -59496,7 +59484,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -59510,7 +59498,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -59524,7 +59512,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -59538,7 +59526,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -59552,7 +59540,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -59566,7 +59554,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -59580,7 +59568,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -59594,7 +59582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -59608,7 +59596,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -59622,7 +59610,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -59636,7 +59624,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.341866</v>
       </c>
@@ -59644,7 +59632,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.34609200000000001</v>
       </c>
@@ -59652,7 +59640,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.35030600000000001</v>
       </c>
@@ -59660,7 +59648,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.35450700000000002</v>
       </c>
@@ -59668,7 +59656,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.35869600000000001</v>
       </c>
@@ -59676,7 +59664,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.36287399999999997</v>
       </c>
@@ -59684,7 +59672,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.367039</v>
       </c>
@@ -59692,7 +59680,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.37119200000000002</v>
       </c>
@@ -59700,7 +59688,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.37533300000000003</v>
       </c>
@@ -59708,7 +59696,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.37946200000000002</v>
       </c>
@@ -59716,7 +59704,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.407802</v>
       </c>
@@ -59724,7 +59712,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.40787000000000001</v>
       </c>
@@ -59732,7 +59720,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.40795700000000001</v>
       </c>
@@ -59740,7 +59728,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.40806100000000001</v>
       </c>
@@ -59748,7 +59736,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.40818399999999999</v>
       </c>
@@ -59756,7 +59744,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.40832400000000002</v>
       </c>
@@ -59764,7 +59752,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.40848200000000001</v>
       </c>
@@ -59772,7 +59760,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.40865800000000002</v>
       </c>
@@ -59780,7 +59768,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.40885199999999999</v>
       </c>
@@ -59788,7 +59776,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.40906300000000001</v>
       </c>
@@ -59796,7 +59784,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.40929300000000002</v>
       </c>
@@ -59804,7 +59792,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.40954000000000002</v>
       </c>
@@ -59812,7 +59800,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.40980499999999997</v>
       </c>
@@ -59820,7 +59808,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.41008800000000001</v>
       </c>
@@ -59828,7 +59816,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.41038799999999998</v>
       </c>
@@ -59836,7 +59824,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.41070600000000002</v>
       </c>
@@ -59844,7 +59832,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.41104200000000002</v>
       </c>
@@ -59852,7 +59840,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.41139500000000001</v>
       </c>
@@ -59860,7 +59848,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.41176499999999999</v>
       </c>
@@ -59868,7 +59856,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.41215299999999999</v>
       </c>
@@ -59876,7 +59864,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.41255700000000001</v>
       </c>
@@ -59884,7 +59872,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.41297800000000001</v>
       </c>
@@ -59892,7 +59880,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.41341499999999998</v>
       </c>
@@ -59900,7 +59888,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.41386699999999998</v>
       </c>
@@ -59908,7 +59896,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.41433300000000001</v>
       </c>
@@ -59916,7 +59904,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.41481099999999999</v>
       </c>
@@ -59924,7 +59912,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.415296</v>
       </c>
@@ -59932,7 +59920,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.41577999999999998</v>
       </c>
@@ -59940,7 +59928,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.41623700000000002</v>
       </c>
@@ -59948,7 +59936,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.416578</v>
       </c>
@@ -59956,7 +59944,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.419819</v>
       </c>
@@ -59964,7 +59952,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.41950100000000001</v>
       </c>
@@ -59972,7 +59960,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.41993999999999998</v>
       </c>
@@ -59980,7 +59968,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.42051300000000003</v>
       </c>
@@ -59988,7 +59976,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.42114299999999999</v>
       </c>
@@ -59996,7 +59984,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.42181000000000002</v>
       </c>
@@ -60004,7 +59992,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.42250500000000002</v>
       </c>
@@ -60012,7 +60000,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.42322300000000002</v>
       </c>
@@ -60020,7 +60008,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.42396400000000001</v>
       </c>
@@ -60028,7 +60016,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.42472500000000002</v>
       </c>
@@ -60036,7 +60024,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.425506</v>
       </c>
@@ -60044,7 +60032,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.42630600000000002</v>
       </c>
@@ -60052,7 +60040,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.42712600000000001</v>
       </c>
@@ -60060,7 +60048,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.42796400000000001</v>
       </c>
@@ -60068,7 +60056,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.42882100000000001</v>
       </c>
@@ -60076,7 +60064,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.42969600000000002</v>
       </c>
@@ -60084,7 +60072,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.43058999999999997</v>
       </c>
@@ -60092,7 +60080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.431502</v>
       </c>
@@ -60100,7 +60088,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.43243300000000001</v>
       </c>
@@ -60108,7 +60096,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.43338199999999999</v>
       </c>
@@ -60116,7 +60104,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.43434899999999999</v>
       </c>
@@ -60124,7 +60112,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.435334</v>
       </c>
@@ -60132,7 +60120,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.436338</v>
       </c>
@@ -60140,7 +60128,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.437359</v>
       </c>
@@ -60148,7 +60136,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.43839899999999998</v>
       </c>
@@ -60156,7 +60144,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.43945699999999999</v>
       </c>
@@ -60164,7 +60152,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.44053199999999998</v>
       </c>
@@ -60172,7 +60160,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.44162600000000002</v>
       </c>
@@ -60180,7 +60168,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.44273800000000002</v>
       </c>
@@ -60188,7 +60176,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.44386900000000001</v>
       </c>
@@ -60196,7 +60184,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.445017</v>
       </c>
@@ -60204,7 +60192,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.446183</v>
       </c>
@@ -60212,7 +60200,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.44736700000000001</v>
       </c>
@@ -60220,7 +60208,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.44857000000000002</v>
       </c>
@@ -60228,7 +60216,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.44979000000000002</v>
       </c>
@@ -60236,7 +60224,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.45102799999999998</v>
       </c>
@@ -60244,7 +60232,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.45228499999999999</v>
       </c>
@@ -60252,7 +60240,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.45355899999999999</v>
       </c>
@@ -60260,7 +60248,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.45485199999999998</v>
       </c>
@@ -60268,7 +60256,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.45616200000000001</v>
       </c>
@@ -60276,7 +60264,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.45749099999999998</v>
       </c>
@@ -60284,7 +60272,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.45883699999999999</v>
       </c>
@@ -60292,7 +60280,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173">
         <v>0.460202</v>
       </c>
@@ -60300,7 +60288,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.46298499999999998</v>
       </c>
@@ -60308,7 +60296,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.46440399999999998</v>
       </c>
@@ -60316,7 +60304,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.46584100000000001</v>
       </c>
@@ -60324,7 +60312,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.46729500000000002</v>
       </c>
@@ -60332,7 +60320,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.46876800000000002</v>
       </c>
@@ -60340,7 +60328,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.47025899999999998</v>
       </c>
@@ -60348,7 +60336,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.47176699999999999</v>
       </c>
@@ -60356,7 +60344,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.47329399999999999</v>
       </c>
@@ -60364,7 +60352,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.47483900000000001</v>
       </c>
@@ -60372,7 +60360,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.47640199999999999</v>
       </c>
@@ -60380,7 +60368,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.47798200000000002</v>
       </c>
@@ -60388,7 +60376,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.47958099999999998</v>
       </c>
@@ -60396,7 +60384,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.48119800000000001</v>
       </c>
@@ -60404,7 +60392,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.48283300000000001</v>
       </c>
@@ -60412,7 +60400,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.48448600000000003</v>
       </c>
@@ -60420,7 +60408,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.48615599999999998</v>
       </c>
@@ -60428,7 +60416,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.48784499999999997</v>
       </c>
@@ -60436,7 +60424,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.48955199999999999</v>
       </c>
@@ -60444,7 +60432,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.49127700000000002</v>
       </c>
@@ -60452,7 +60440,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193">
         <v>0.49302000000000001</v>
       </c>
@@ -60460,7 +60448,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.49478100000000003</v>
       </c>
@@ -60468,7 +60456,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.49655899999999997</v>
       </c>
@@ -60476,7 +60464,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.49835600000000002</v>
       </c>
@@ -60484,7 +60472,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197">
         <v>0.50017100000000003</v>
       </c>
@@ -60492,7 +60480,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.50200400000000001</v>
       </c>
@@ -60500,7 +60488,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.50385500000000005</v>
       </c>
@@ -60508,7 +60496,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.50572399999999995</v>
       </c>
@@ -60516,7 +60504,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.50761100000000003</v>
       </c>
@@ -60524,7 +60512,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202">
         <v>0.50951500000000005</v>
       </c>
@@ -60532,7 +60520,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203">
         <v>0.51143799999999995</v>
       </c>
@@ -60540,7 +60528,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204">
         <v>0.51337900000000003</v>
       </c>
@@ -60548,7 +60536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205">
         <v>0.51533799999999996</v>
       </c>
@@ -60556,7 +60544,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206">
         <v>0.51731499999999997</v>
       </c>
@@ -60564,7 +60552,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207">
         <v>0.51931000000000005</v>
       </c>
@@ -60572,7 +60560,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208">
         <v>0.52132299999999998</v>
       </c>
@@ -60580,7 +60568,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209">
         <v>0.52335399999999999</v>
       </c>
@@ -60588,7 +60576,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210">
         <v>0.52540299999999995</v>
       </c>
@@ -60596,7 +60584,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211">
         <v>0.52746899999999997</v>
       </c>
@@ -60604,7 +60592,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212">
         <v>0.52955399999999997</v>
       </c>
@@ -60612,7 +60600,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213">
         <v>0.53165700000000005</v>
       </c>
@@ -60620,7 +60608,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214">
         <v>0.53377799999999997</v>
       </c>
@@ -60628,7 +60616,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215">
         <v>0.53591699999999998</v>
       </c>
@@ -60636,7 +60624,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216">
         <v>0.53807400000000005</v>
       </c>
@@ -60644,7 +60632,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217">
         <v>0.54024899999999998</v>
       </c>
@@ -60652,7 +60640,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218">
         <v>0.54244199999999998</v>
       </c>
@@ -60660,7 +60648,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219">
         <v>0.54465300000000005</v>
       </c>
@@ -60668,7 +60656,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D220">
         <v>0.54688199999999998</v>
       </c>
@@ -60676,7 +60664,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D221">
         <v>0.54912899999999998</v>
       </c>
@@ -60684,7 +60672,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D222">
         <v>0.55139400000000005</v>
       </c>
@@ -60692,7 +60680,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D223">
         <v>0.55367699999999997</v>
       </c>
@@ -60700,7 +60688,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D224">
         <v>0.55597700000000005</v>
       </c>
@@ -60708,7 +60696,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D225">
         <v>0.55829600000000001</v>
       </c>
@@ -60716,7 +60704,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D226">
         <v>0.56063300000000005</v>
       </c>
@@ -60724,7 +60712,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D227">
         <v>0.56298800000000004</v>
       </c>
@@ -60732,7 +60720,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D228">
         <v>0.500413</v>
       </c>
@@ -60740,7 +60728,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D229">
         <v>0.50360700000000003</v>
       </c>
@@ -60748,7 +60736,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D230">
         <v>0.50680499999999995</v>
       </c>
@@ -60756,7 +60744,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D231">
         <v>0.51000699999999999</v>
       </c>
@@ -60764,7 +60752,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D232">
         <v>0.513212</v>
       </c>
@@ -60772,7 +60760,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D233">
         <v>0.51642200000000005</v>
       </c>
@@ -60780,7 +60768,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D234">
         <v>0.51963599999999999</v>
       </c>
@@ -60788,7 +60776,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D235">
         <v>0.52285400000000004</v>
       </c>
@@ -60796,7 +60784,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D236">
         <v>0.52607599999999999</v>
       </c>
@@ -60804,7 +60792,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D237">
         <v>0.52930200000000005</v>
       </c>
@@ -60812,7 +60800,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D238">
         <v>0.53253099999999998</v>
       </c>
@@ -60820,7 +60808,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D239">
         <v>0.53576500000000005</v>
       </c>
@@ -60828,7 +60816,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D240">
         <v>0.53900300000000001</v>
       </c>
@@ -60836,7 +60824,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D241">
         <v>0.54224499999999998</v>
       </c>
@@ -60844,7 +60832,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D242">
         <v>0.54549099999999995</v>
       </c>
@@ -60852,7 +60840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D243">
         <v>0.54874100000000003</v>
       </c>
@@ -60860,7 +60848,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D244">
         <v>0.55199500000000001</v>
       </c>
@@ -60868,7 +60856,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D245">
         <v>0.555253</v>
       </c>
@@ -60876,7 +60864,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D246">
         <v>0.55851499999999998</v>
       </c>
@@ -60884,7 +60872,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D247">
         <v>0.56177999999999995</v>
       </c>
@@ -60892,7 +60880,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D248">
         <v>0.56505000000000005</v>
       </c>
@@ -60900,7 +60888,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D249">
         <v>0.56832400000000005</v>
       </c>
@@ -60908,7 +60896,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D250">
         <v>0.57160200000000005</v>
       </c>
@@ -60916,7 +60904,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D251">
         <v>0.57488399999999995</v>
       </c>
@@ -60924,7 +60912,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D252">
         <v>0.60925099999999999</v>
       </c>
@@ -60932,7 +60920,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D253">
         <v>0.61000500000000002</v>
       </c>
@@ -60940,7 +60928,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D254">
         <v>0.61074700000000004</v>
       </c>
@@ -60948,7 +60936,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D255">
         <v>0.61147700000000005</v>
       </c>
@@ -60956,7 +60944,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D256">
         <v>0.61219500000000004</v>
       </c>
@@ -60964,7 +60952,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D257">
         <v>0.61290100000000003</v>
       </c>
@@ -60972,7 +60960,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D258">
         <v>0.613595</v>
       </c>
@@ -60980,7 +60968,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D259">
         <v>0.61427699999999996</v>
       </c>
@@ -60988,7 +60976,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D260">
         <v>0.61494700000000002</v>
       </c>
@@ -60996,7 +60984,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D261">
         <v>0.61560499999999996</v>
       </c>
@@ -61004,7 +60992,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D262">
         <v>0.61625099999999999</v>
       </c>
@@ -61012,7 +61000,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D263">
         <v>0.61688500000000002</v>
       </c>
@@ -61020,7 +61008,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D264">
         <v>0.61750700000000003</v>
       </c>
@@ -61028,7 +61016,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D265">
         <v>0.61811700000000003</v>
       </c>
@@ -61036,7 +61024,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D266">
         <v>0.61871500000000001</v>
       </c>
@@ -61044,7 +61032,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D267">
         <v>0.61930099999999999</v>
       </c>
@@ -61052,7 +61040,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D268">
         <v>0.61987499999999995</v>
       </c>
@@ -61060,7 +61048,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D269">
         <v>0.62043700000000002</v>
       </c>
@@ -61068,7 +61056,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D270">
         <v>0.62098699999999996</v>
       </c>
@@ -61076,7 +61064,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D271">
         <v>0.62152499999999999</v>
       </c>
@@ -61084,7 +61072,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D272">
         <v>0.62205100000000002</v>
       </c>
@@ -61092,7 +61080,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D273">
         <v>0.62256500000000004</v>
       </c>
@@ -61100,7 +61088,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D274">
         <v>0.62306700000000004</v>
       </c>
@@ -61108,7 +61096,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D275">
         <v>0.62355700000000003</v>
       </c>
@@ -61116,7 +61104,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D276">
         <v>0.62403500000000001</v>
       </c>
@@ -61124,7 +61112,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D277">
         <v>0.62450099999999997</v>
       </c>
@@ -61132,7 +61120,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D278">
         <v>0.62495500000000004</v>
       </c>
@@ -61140,7 +61128,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D279">
         <v>0.62539699999999998</v>
       </c>
@@ -61148,7 +61136,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D280">
         <v>0.62582700000000002</v>
       </c>
@@ -61156,7 +61144,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D281">
         <v>0.62624500000000005</v>
       </c>
@@ -61164,7 +61152,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D282">
         <v>0.62665099999999996</v>
       </c>
@@ -61172,7 +61160,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D283">
         <v>0.62704499999999996</v>
       </c>
@@ -61180,7 +61168,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D284">
         <v>0.62742699999999996</v>
       </c>
@@ -61188,7 +61176,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D285">
         <v>0.62779700000000005</v>
       </c>
@@ -61196,7 +61184,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D286">
         <v>0.62815500000000002</v>
       </c>
@@ -61204,7 +61192,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D287">
         <v>0.62850099999999998</v>
       </c>
@@ -61212,7 +61200,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D288">
         <v>0.62883500000000003</v>
       </c>
@@ -61220,7 +61208,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D289">
         <v>0.62915699999999997</v>
       </c>
@@ -61228,7 +61216,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D290">
         <v>0.629467</v>
       </c>
@@ -61236,7 +61224,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D291">
         <v>0.62976500000000002</v>
       </c>
@@ -61244,7 +61232,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D292">
         <v>0.63005100000000003</v>
       </c>
@@ -61259,14 +61247,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -61495,6 +61475,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -61505,23 +61493,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4939B2-3627-4E93-BC4B-BD461E5F2223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61540,6 +61511,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
   <ds:schemaRefs>

--- a/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\CaCl2 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CAF9DD84-1903-4FAC-8C5D-21930453C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94CE7F34-F6C2-43A3-9BE1-75DC001CDE3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B130AD-2912-42DE-961A-FA8A4F901D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="785" firstSheet="1" activeTab="5" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="785" firstSheet="1" activeTab="1" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="New experimental Values" sheetId="4" r:id="rId1"/>
@@ -671,22 +671,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Parity plot for CaCl2 n=3</a:t>
+              <a:t>Fig 6. Parity plot for CaCl</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t> n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28413680555555554"/>
+          <c:y val="0.92898148148148163"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -700,11 +716,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -715,7 +731,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16274814814814814"/>
+          <c:y val="6.2397685185185188E-2"/>
+          <c:w val="0.78470277777777775"/>
+          <c:h val="0.72922824074074077"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1417,11 +1443,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1446,11 +1472,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1477,11 +1503,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1507,11 +1533,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1536,11 +1562,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1567,11 +1593,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1624,7 +1650,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3676,7 +3707,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3687,11 +3718,27 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs Ø for CaCl2 n=3</a:t>
+              <a:t>Fig 5. Temperature vs Ø for CaCl</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t> n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23724675925925925"/>
+          <c:y val="0.90840277777777789"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3705,7 +3752,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -6112,7 +6159,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6141,7 +6188,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6173,7 +6220,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6203,7 +6250,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6232,7 +6279,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6263,7 +6310,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6295,10 +6342,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13912803851060468"/>
-          <c:y val="0.1773262213191093"/>
-          <c:w val="0.30016913705815801"/>
-          <c:h val="0.11494338755100868"/>
+          <c:x val="0.16852615740740737"/>
+          <c:y val="0.11559004629629631"/>
+          <c:w val="0.35308587962962962"/>
+          <c:h val="0.11788310185185187"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6316,7 +6363,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -6360,7 +6407,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1100">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -21066,13 +21113,13 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>41002</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>6715</xdr:rowOff>
+      <xdr:rowOff>6714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>465667</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>93802</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128094</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21102,15 +21149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21125,7 +21172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39486840" y="2186940"/>
+          <a:off x="39364920" y="1844040"/>
           <a:ext cx="1310640" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21189,15 +21236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21212,7 +21259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39639240" y="2247900"/>
+          <a:off x="39502080" y="1897380"/>
           <a:ext cx="114300" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -21252,15 +21299,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21275,7 +21322,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39616380" y="2461260"/>
+          <a:off x="39448740" y="2141220"/>
           <a:ext cx="266700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -21306,12 +21353,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11049</cdr:x>
-      <cdr:y>0.16176</cdr:y>
+      <cdr:x>0.16337</cdr:x>
+      <cdr:y>0.06018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.95774</cdr:x>
-      <cdr:y>0.83168</cdr:y>
+      <cdr:x>0.9483</cdr:x>
+      <cdr:y>0.78867</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -21326,8 +21373,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="597627" y="523058"/>
-          <a:ext cx="4582885" cy="2166257"/>
+          <a:off x="705758" y="259986"/>
+          <a:ext cx="3390900" cy="3147060"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -21751,10 +21798,10 @@
       <xdr:rowOff>166370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23000,24 +23047,24 @@
       <selection activeCell="AI11" sqref="AI11:AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -23078,7 +23125,7 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -23189,7 +23236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1E-3</v>
       </c>
@@ -23300,7 +23347,7 @@
         <v>0.95520000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.01</v>
       </c>
@@ -23411,7 +23458,7 @@
         <v>0.88929999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -23522,7 +23569,7 @@
         <v>0.85580000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
@@ -23633,7 +23680,7 @@
         <v>0.83379999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23744,7 +23791,7 @@
         <v>0.82430000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -23855,7 +23902,7 @@
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -23966,7 +24013,7 @@
         <v>0.8196</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.3</v>
       </c>
@@ -24077,7 +24124,7 @@
         <v>0.82930000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.4</v>
       </c>
@@ -24188,7 +24235,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -24299,7 +24346,7 @@
         <v>0.85929999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.6</v>
       </c>
@@ -24410,7 +24457,7 @@
         <v>0.87749999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.7</v>
       </c>
@@ -24521,7 +24568,7 @@
         <v>0.8972</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.8</v>
       </c>
@@ -24632,7 +24679,7 @@
         <v>0.91830000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.9</v>
       </c>
@@ -24743,7 +24790,7 @@
         <v>0.9405</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -24854,7 +24901,7 @@
         <v>0.96360000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1.2</v>
       </c>
@@ -24965,7 +25012,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1.4</v>
       </c>
@@ -25076,7 +25123,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1.6</v>
       </c>
@@ -25187,7 +25234,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1.8</v>
       </c>
@@ -25298,7 +25345,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -25409,7 +25456,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2.25</v>
       </c>
@@ -25520,7 +25567,7 @@
         <v>1.298</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2.5</v>
       </c>
@@ -25631,7 +25678,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2.75</v>
       </c>
@@ -25742,7 +25789,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -25853,7 +25900,7 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3.25</v>
       </c>
@@ -25964,7 +26011,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3.5</v>
       </c>
@@ -26075,7 +26122,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3.75</v>
       </c>
@@ -26186,7 +26233,7 @@
         <v>1.7270000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -26297,7 +26344,7 @@
         <v>1.794</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4.25</v>
       </c>
@@ -26408,7 +26455,7 @@
         <v>1.8580000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4.5</v>
       </c>
@@ -26519,7 +26566,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4.75</v>
       </c>
@@ -26630,7 +26677,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -26741,7 +26788,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>5.5</v>
       </c>
@@ -26852,7 +26899,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -26963,7 +27010,7 @@
         <v>2.194</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>6.5</v>
       </c>
@@ -27074,7 +27121,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -27185,7 +27232,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>7.5</v>
       </c>
@@ -27293,7 +27340,7 @@
         <v>2.2730000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -27401,7 +27448,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>8.5</v>
       </c>
@@ -27507,7 +27554,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -27622,45 +27669,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047C7D3F-5D75-4052-8CB1-7588824F9D31}">
   <dimension ref="A1:AW173"/>
   <sheetViews>
-    <sheetView topLeftCell="AR3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
+    <sheetView tabSelected="1" topLeftCell="AR6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG27" sqref="BG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" style="5"/>
-    <col min="12" max="13" width="8.90625" style="1"/>
-    <col min="14" max="14" width="7.08984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" style="1"/>
-    <col min="16" max="16" width="11.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.54296875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.90625" style="5"/>
-    <col min="21" max="21" width="9.08984375" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" customWidth="1"/>
-    <col min="24" max="24" width="8.90625" style="5"/>
-    <col min="27" max="27" width="8.90625" style="5"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="5"/>
+    <col min="12" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="7.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="11.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="5"/>
+    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="23" max="23" width="14.21875" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="5"/>
+    <col min="27" max="27" width="8.88671875" style="5"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" style="5" customWidth="1"/>
     <col min="33" max="34" width="12" customWidth="1"/>
     <col min="35" max="35" width="12" style="7" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.1796875" customWidth="1"/>
-    <col min="40" max="40" width="8.90625" style="5"/>
-    <col min="42" max="44" width="21.54296875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.453125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.21875" customWidth="1"/>
+    <col min="40" max="40" width="8.88671875" style="5"/>
+    <col min="42" max="44" width="21.5546875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:49" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
@@ -27679,7 +27726,7 @@
       <c r="AI1"/>
       <c r="AN1"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="J2"/>
       <c r="M2" s="4" t="s">
         <v>2</v>
@@ -27702,7 +27749,7 @@
       <c r="AI2" s="1"/>
       <c r="AN2"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="J3"/>
       <c r="M3" s="4" t="s">
@@ -27726,7 +27773,7 @@
       <c r="AI3" s="1"/>
       <c r="AN3"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="J4"/>
       <c r="T4"/>
       <c r="X4"/>
@@ -27743,7 +27790,7 @@
       <c r="AI4" s="1"/>
       <c r="AN4"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="J5"/>
       <c r="T5"/>
       <c r="X5"/>
@@ -27752,7 +27799,7 @@
       <c r="AI5"/>
       <c r="AN5"/>
     </row>
-    <row r="6" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -27868,7 +27915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -28012,7 +28059,7 @@
         <v>0.8639</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
@@ -28152,7 +28199,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -28298,7 +28345,7 @@
         <v>0.89829999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
@@ -28444,7 +28491,7 @@
         <v>0.91969999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.6</v>
       </c>
@@ -28590,7 +28637,7 @@
         <v>0.94289999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -28736,7 +28783,7 @@
         <v>0.96760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.8</v>
       </c>
@@ -28882,7 +28929,7 @@
         <v>0.99380000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.9</v>
       </c>
@@ -29028,7 +29075,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -29182,7 +29229,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.2</v>
       </c>
@@ -29336,7 +29383,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.4</v>
       </c>
@@ -29490,7 +29537,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1.6</v>
       </c>
@@ -29644,7 +29691,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1.8</v>
       </c>
@@ -29798,7 +29845,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -29952,7 +29999,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.25</v>
       </c>
@@ -30100,7 +30147,7 @@
         <v>1.4890000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2.5</v>
       </c>
@@ -30248,7 +30295,7 @@
         <v>1.591</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2.75</v>
       </c>
@@ -30396,7 +30443,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -30544,7 +30591,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3.25</v>
       </c>
@@ -30692,7 +30739,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3.5</v>
       </c>
@@ -30840,7 +30887,7 @@
         <v>2.0270000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.75</v>
       </c>
@@ -30988,7 +31035,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.3</v>
       </c>
@@ -31128,7 +31175,7 @@
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.4</v>
       </c>
@@ -31268,7 +31315,7 @@
         <v>0.89539999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -31408,7 +31455,7 @@
         <v>0.91669999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.6</v>
       </c>
@@ -31548,7 +31595,7 @@
         <v>0.93989999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.7</v>
       </c>
@@ -31688,7 +31735,7 @@
         <v>0.96460000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.8</v>
       </c>
@@ -31828,7 +31875,7 @@
         <v>0.99070000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.9</v>
       </c>
@@ -31968,7 +32015,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -32116,7 +32163,7 @@
         <v>1.046</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1.2</v>
       </c>
@@ -32264,7 +32311,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1.4</v>
       </c>
@@ -32412,7 +32459,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1.6</v>
       </c>
@@ -32560,7 +32607,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1.8</v>
       </c>
@@ -32708,7 +32755,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -32856,7 +32903,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2.25</v>
       </c>
@@ -33004,7 +33051,7 @@
         <v>1.4770000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2.5</v>
       </c>
@@ -33152,7 +33199,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2.75</v>
       </c>
@@ -33300,7 +33347,7 @@
         <v>1.677</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -33448,7 +33495,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3.25</v>
       </c>
@@ -33596,7 +33643,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3.5</v>
       </c>
@@ -33744,7 +33791,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3.75</v>
       </c>
@@ -33892,7 +33939,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.2</v>
       </c>
@@ -34032,7 +34079,7 @@
         <v>0.85970000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.3</v>
       </c>
@@ -34172,7 +34219,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.4</v>
       </c>
@@ -34312,7 +34359,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.5</v>
       </c>
@@ -34452,7 +34499,7 @@
         <v>0.91479999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.6</v>
       </c>
@@ -34592,7 +34639,7 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.7</v>
       </c>
@@ -34732,7 +34779,7 @@
         <v>0.96240000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.8</v>
       </c>
@@ -34872,7 +34919,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.9</v>
       </c>
@@ -35012,7 +35059,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -35160,7 +35207,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1.2</v>
       </c>
@@ -35308,7 +35355,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1.4</v>
       </c>
@@ -35456,7 +35503,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>1.6</v>
       </c>
@@ -35604,7 +35651,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1.8</v>
       </c>
@@ -35752,7 +35799,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -35900,7 +35947,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2.25</v>
       </c>
@@ -36048,7 +36095,7 @@
         <v>1.4690000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2.5</v>
       </c>
@@ -36188,7 +36235,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2.75</v>
       </c>
@@ -36336,7 +36383,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -36484,7 +36531,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3.25</v>
       </c>
@@ -36632,7 +36679,7 @@
         <v>1.871</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3.5</v>
       </c>
@@ -36780,7 +36827,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3.75</v>
       </c>
@@ -36928,7 +36975,7 @@
         <v>2.0790000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.2</v>
       </c>
@@ -37068,7 +37115,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.3</v>
       </c>
@@ -37208,7 +37255,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.4</v>
       </c>
@@ -37348,7 +37395,7 @@
         <v>0.89159999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.5</v>
       </c>
@@ -37488,7 +37535,7 @@
         <v>0.91259999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.6</v>
       </c>
@@ -37628,7 +37675,7 @@
         <v>0.93540000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.7</v>
       </c>
@@ -37768,7 +37815,7 @@
         <v>0.95979999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.8</v>
       </c>
@@ -37908,7 +37955,7 @@
         <v>0.98560000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.9</v>
       </c>
@@ -38048,7 +38095,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -38196,7 +38243,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1.2</v>
       </c>
@@ -38344,7 +38391,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>1.4</v>
       </c>
@@ -38492,7 +38539,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1.6</v>
       </c>
@@ -38640,7 +38687,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1.8</v>
       </c>
@@ -38788,7 +38835,7 @@
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -38936,7 +38983,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2.25</v>
       </c>
@@ -39084,7 +39131,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2.5</v>
       </c>
@@ -39232,7 +39279,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2.75</v>
       </c>
@@ -39380,7 +39427,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -39528,7 +39575,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>3.25</v>
       </c>
@@ -39676,7 +39723,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>3.5</v>
       </c>
@@ -39824,7 +39871,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>3.75</v>
       </c>
@@ -39972,7 +40019,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.2</v>
       </c>
@@ -40112,7 +40159,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.3</v>
       </c>
@@ -40252,7 +40299,7 @@
         <v>0.86870000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.4</v>
       </c>
@@ -40392,7 +40439,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.5</v>
       </c>
@@ -40532,7 +40579,7 @@
         <v>0.90739999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.6</v>
       </c>
@@ -40672,7 +40719,7 @@
         <v>0.92979999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.7</v>
       </c>
@@ -40812,7 +40859,7 @@
         <v>0.95369999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.8</v>
       </c>
@@ -40952,7 +40999,7 @@
         <v>0.97889999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.9</v>
       </c>
@@ -41092,7 +41139,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -41240,7 +41287,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1.2</v>
       </c>
@@ -41388,7 +41435,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1.4</v>
       </c>
@@ -41536,7 +41583,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1.6</v>
       </c>
@@ -41684,7 +41731,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1.8</v>
       </c>
@@ -41832,7 +41879,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -41980,7 +42027,7 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2.25</v>
       </c>
@@ -42128,7 +42175,7 @@
         <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2.5</v>
       </c>
@@ -42276,7 +42323,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2.75</v>
       </c>
@@ -42424,7 +42471,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -42572,7 +42619,7 @@
         <v>1.722</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>3.25</v>
       </c>
@@ -42720,7 +42767,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>3.5</v>
       </c>
@@ -42868,7 +42915,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>3.75</v>
       </c>
@@ -43016,7 +43063,7 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.2</v>
       </c>
@@ -43156,7 +43203,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.3</v>
       </c>
@@ -43296,7 +43343,7 @@
         <v>0.86370000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.4</v>
       </c>
@@ -43436,7 +43483,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.5</v>
       </c>
@@ -43576,7 +43623,7 @@
         <v>0.90129999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.6</v>
       </c>
@@ -43716,7 +43763,7 @@
         <v>0.92310000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.7</v>
       </c>
@@ -43856,7 +43903,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.8</v>
       </c>
@@ -43996,7 +44043,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.9</v>
       </c>
@@ -44144,7 +44191,7 @@
         <v>0.99680000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -44292,7 +44339,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>1.2</v>
       </c>
@@ -44440,7 +44487,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>1.4</v>
       </c>
@@ -44588,7 +44635,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1.6</v>
       </c>
@@ -44736,7 +44783,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1.8</v>
       </c>
@@ -44884,7 +44931,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -45032,7 +45079,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2.25</v>
       </c>
@@ -45180,7 +45227,7 @@
         <v>1.419</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2.5</v>
       </c>
@@ -45328,7 +45375,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2.75</v>
       </c>
@@ -45476,7 +45523,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -45624,7 +45671,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>3.25</v>
       </c>
@@ -45772,7 +45819,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>3.5</v>
       </c>
@@ -45920,7 +45967,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>3.75</v>
       </c>
@@ -46068,7 +46115,7 @@
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.2</v>
       </c>
@@ -46208,7 +46255,7 @@
         <v>0.8448</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.3</v>
       </c>
@@ -46348,7 +46395,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.4</v>
       </c>
@@ -46488,7 +46535,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.5</v>
       </c>
@@ -46628,7 +46675,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.6</v>
       </c>
@@ -46768,7 +46815,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.7</v>
       </c>
@@ -46908,7 +46955,7 @@
         <v>0.93810000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.8</v>
       </c>
@@ -47048,7 +47095,7 @@
         <v>0.96209999999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.9</v>
       </c>
@@ -47188,7 +47235,7 @@
         <v>0.98709999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -47336,7 +47383,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1.2</v>
       </c>
@@ -47484,7 +47531,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>1.4</v>
       </c>
@@ -47632,7 +47679,7 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1.6</v>
       </c>
@@ -47780,7 +47827,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1.8</v>
       </c>
@@ -47928,7 +47975,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -48076,7 +48123,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2.25</v>
       </c>
@@ -48224,7 +48271,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2.5</v>
       </c>
@@ -48372,7 +48419,7 @@
         <v>1.4810000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2.75</v>
       </c>
@@ -48520,7 +48567,7 @@
         <v>1.5680000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -48668,7 +48715,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>3.25</v>
       </c>
@@ -48816,7 +48863,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>3.5</v>
       </c>
@@ -48964,7 +49011,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>3.75</v>
       </c>
@@ -49112,7 +49159,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.2</v>
       </c>
@@ -49252,7 +49299,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.3</v>
       </c>
@@ -49392,7 +49439,7 @@
         <v>0.8518</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.4</v>
       </c>
@@ -49532,7 +49579,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.5</v>
       </c>
@@ -49672,7 +49719,7 @@
         <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.6</v>
       </c>
@@ -49812,7 +49859,7 @@
         <v>0.90710000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.7</v>
       </c>
@@ -49952,7 +49999,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.8</v>
       </c>
@@ -50092,7 +50139,7 @@
         <v>0.95220000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.9</v>
       </c>
@@ -50232,7 +50279,7 @@
         <v>0.97650000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -50380,7 +50427,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>1.2</v>
       </c>
@@ -50528,7 +50575,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>1.4</v>
       </c>
@@ -50676,7 +50723,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1.6</v>
       </c>
@@ -50824,7 +50871,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>1.8</v>
       </c>
@@ -50972,7 +51019,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -51120,7 +51167,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>2.25</v>
       </c>
@@ -51268,7 +51315,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>2.5</v>
       </c>
@@ -51416,7 +51463,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>2.75</v>
       </c>
@@ -51564,7 +51611,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>3</v>
       </c>
@@ -51712,7 +51759,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>3.25</v>
       </c>
@@ -51860,7 +51907,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>3.5</v>
       </c>
@@ -52008,7 +52055,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>3.75</v>
       </c>
@@ -52170,13 +52217,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.08984375" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -52184,7 +52231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -52193,7 +52240,7 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -52204,7 +52251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1.64413171449595E-2</v>
       </c>
@@ -52216,7 +52263,7 @@
         <v>8.8704358092670042E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.43253311258278199</v>
       </c>
@@ -52228,7 +52275,7 @@
         <v>2.2823699760963937E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1.0052198307578999</v>
       </c>
@@ -52240,7 +52287,7 @@
         <v>5.1487057077629544E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1.4732799852832901</v>
       </c>
@@ -52252,7 +52299,7 @@
         <v>7.3694219407179337E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1.99353844738778</v>
       </c>
@@ -52264,7 +52311,7 @@
         <v>9.7188616953497134E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2.4614836276674001</v>
       </c>
@@ -52276,7 +52323,7 @@
         <v>0.11732523240541651</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2.8251471670345798</v>
       </c>
@@ -52288,7 +52335,7 @@
         <v>0.13236466540735028</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3.13695732155997</v>
       </c>
@@ -52300,7 +52347,7 @@
         <v>0.14485746444575009</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3.5006208609271501</v>
       </c>
@@ -52312,7 +52359,7 @@
         <v>0.15898082121206311</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3.6038677336276601</v>
       </c>
@@ -52324,7 +52371,7 @@
         <v>0.16290592219806463</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3.96753127299485</v>
       </c>
@@ -52336,7 +52383,7 @@
         <v>0.17644412023370443</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3.96810614422369</v>
       </c>
@@ -52348,7 +52395,7 @@
         <v>0.17646517446428464</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>4.1250459896983003</v>
       </c>
@@ -52360,7 +52407,7 @@
         <v>0.18217299613766277</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4.3338392200147098</v>
       </c>
@@ -52372,7 +52419,7 @@
         <v>0.18964516789036034</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>4.3346440397350996</v>
       </c>
@@ -52384,7 +52431,7 @@
         <v>0.18967370615274448</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>4.5435522442972696</v>
       </c>
@@ -52396,7 +52443,7 @@
         <v>0.19701406222476264</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>4.7006070640176603</v>
       </c>
@@ -52408,7 +52455,7 @@
         <v>0.20244548173481314</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4.8054635761589397</v>
       </c>
@@ -52420,7 +52467,7 @@
         <v>0.20603100948424874</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>5.0146017292126501</v>
       </c>
@@ -52432,7 +52479,7 @@
         <v>0.21308698873861018</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>5.0676048565121397</v>
       </c>
@@ -52444,7 +52491,7 @@
         <v>0.21485535269763475</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5.3288263428991902</v>
       </c>
@@ -52456,7 +52503,7 @@
         <v>0.22345575047730468</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5.6420161883738</v>
       </c>
@@ -52468,7 +52515,7 @@
         <v>0.2335219918276184</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>5.9030077262693101</v>
       </c>
@@ -52480,7 +52527,7 @@
         <v>0.24171330108940928</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>6.2683958793230303</v>
       </c>
@@ -52492,7 +52539,7 @@
         <v>0.25289133527119789</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>6.4773040838852101</v>
       </c>
@@ -52504,7 +52551,7 @@
         <v>0.25913546382995689</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>7.0510255702722597</v>
       </c>
@@ -52516,7 +52563,7 @@
         <v>0.27575875212273737</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>7.2594738778513603</v>
       </c>
@@ -52528,7 +52575,7 @@
         <v>0.28161517647408635</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>7.52023546725533</v>
       </c>
@@ -52540,7 +52587,7 @@
         <v>0.28880934438583261</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>7.9369021339219996</v>
       </c>
@@ -52552,7 +52599,7 @@
         <v>0.30001043030815761</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>8.45819536423841</v>
       </c>
@@ -52564,7 +52611,7 @@
         <v>0.3135369044946853</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>8.77069536423841</v>
       </c>
@@ -52576,7 +52623,7 @@
         <v>0.32139787543606363</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>9.0836552612214891</v>
       </c>
@@ -52588,7 +52635,7 @@
         <v>0.3290920249146787</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>9.1878219278881499</v>
       </c>
@@ -52600,7 +52647,7 @@
         <v>0.33161441676718256</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>9.5528651582045594</v>
       </c>
@@ -52612,7 +52659,7 @@
         <v>0.34030617329796392</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>10.0741583885209</v>
       </c>
@@ -52624,7 +52671,7 @@
         <v>0.35233351607035707</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>10.491055003679101</v>
       </c>
@@ -52636,7 +52683,7 @@
         <v>0.36164113187157093</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>11.0123482339955</v>
       </c>
@@ -52648,7 +52695,7 @@
         <v>0.37290975325192577</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>11.533411515820401</v>
       </c>
@@ -52660,7 +52707,7 @@
         <v>0.38378272219593601</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>11.690121412803499</v>
       </c>
@@ -52672,7 +52719,7 @@
         <v>0.38697940189894225</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>11.950768027961701</v>
       </c>
@@ -52684,7 +52731,7 @@
         <v>0.39222342832777096</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>12.0558544885945</v>
       </c>
@@ -52697,7 +52744,7 @@
         <v>0.39431240293267006</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>12.1616307947019</v>
       </c>
@@ -52709,7 +52756,7 @@
         <v>0.39640063907581174</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>12.5795621780721</v>
       </c>
@@ -52721,7 +52768,7 @@
         <v>0.40451249389970351</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>12.945640176600399</v>
       </c>
@@ -52733,7 +52780,7 @@
         <v>0.41144084931813785</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>13.5203964311994</v>
       </c>
@@ -52745,7 +52792,7 @@
         <v>0.42199919855021301</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>13.9906410963944</v>
       </c>
@@ -52757,7 +52804,7 @@
         <v>0.4303599743001808</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>14.7215323767476</v>
       </c>
@@ -52769,7 +52816,7 @@
         <v>0.44288537412691403</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>15.138658940397301</v>
       </c>
@@ -52781,7 +52828,7 @@
         <v>0.44978991357420123</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>16.077308682855001</v>
       </c>
@@ -52793,7 +52840,7 @@
         <v>0.46471814618777785</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>16.599291758646</v>
       </c>
@@ -52805,7 +52852,7 @@
         <v>0.47267445286700427</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>17.433659860191302</v>
       </c>
@@ -52817,7 +52864,7 @@
         <v>0.48491247669474113</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>18.1631714495952</v>
       </c>
@@ -52829,7 +52876,7 @@
         <v>0.49515634272531867</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>19.1019361662987</v>
       </c>
@@ -52841,7 +52888,7 @@
         <v>0.50775399516922415</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>19.6228844738778</v>
       </c>
@@ -52853,7 +52900,7 @@
         <v>0.51447725920805065</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>20.0395511405445</v>
       </c>
@@ -52865,7 +52912,7 @@
         <v>0.5197239207703499</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>21.968014164827</v>
       </c>
@@ -52877,7 +52924,7 @@
         <v>0.54260053180260925</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>22.749379139072801</v>
       </c>
@@ -52889,7 +52936,7 @@
         <v>0.55126091781629694</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>22.957712472406101</v>
       </c>
@@ -52901,7 +52948,7 @@
         <v>0.55351491502276229</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>23.4790057027225</v>
       </c>
@@ -52914,7 +52961,7 @@
         <v>0.55905690009335263</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>24.208287343635</v>
       </c>
@@ -52926,7 +52973,7 @@
         <v>0.56658312867422123</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>25.042425496688701</v>
       </c>
@@ -52938,7 +52985,7 @@
         <v>0.57488252522595329</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>26.605960264900599</v>
       </c>
@@ -52950,7 +52997,7 @@
         <v>0.5896125779668151</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>27.336506622516499</v>
       </c>
@@ -52962,7 +53009,7 @@
         <v>0.59615072804863534</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>27.7014348785872</v>
       </c>
@@ -52974,7 +53021,7 @@
         <v>0.59933930786528788</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>27.9103430831493</v>
       </c>
@@ -52986,7 +53033,7 @@
         <v>0.60114209395447904</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>28.3283894407652</v>
       </c>
@@ -52998,7 +53045,7 @@
         <v>0.60470137037403593</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>29.1631024650478</v>
       </c>
@@ -53010,7 +53057,7 @@
         <v>0.6116214563070117</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>29.476177336276599</v>
       </c>
@@ -53022,7 +53069,7 @@
         <v>0.61415489381274313</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>29.6847406181015</v>
       </c>
@@ -53034,7 +53081,7 @@
         <v>0.61582434776801231</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>29.790516924208902</v>
       </c>
@@ -53046,7 +53093,7 @@
         <v>0.61666552956800236</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>28.279525386313399</v>
       </c>
@@ -53058,7 +53105,7 @@
         <v>0.60428862034965369</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>8.5599475717439297</v>
       </c>
@@ -53070,7 +53117,7 @@
         <v>0.31611641306455429</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>8.7688557763061095</v>
       </c>
@@ -53082,7 +53129,7 @@
         <v>0.32135212723524031</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>8.9771891096394398</v>
       </c>
@@ -53094,7 +53141,7 @@
         <v>0.32649420160570913</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>9.4466289551140505</v>
       </c>
@@ -53106,7 +53153,7 @@
         <v>0.3378000764709348</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>9.7594738778513594</v>
       </c>
@@ -53118,7 +53165,7 @@
         <v>0.34512612285390565</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>10.020580389992601</v>
       </c>
@@ -53130,7 +53177,7 @@
         <v>0.35111761664641056</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>10.1770603384841</v>
       </c>
@@ -53142,7 +53189,7 @@
         <v>0.35465603914801597</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>10.4377069536423</v>
       </c>
@@ -53154,7 +53201,7 @@
         <v>0.36046503932901586</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>10.959115158204501</v>
       </c>
@@ -53166,7 +53213,7 @@
         <v>0.37177730337487552</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>11.4800634657836</v>
       </c>
@@ -53178,7 +53225,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>11.689086644591599</v>
       </c>
@@ -53190,7 +53237,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>7.8307809050772601</v>
       </c>
@@ -53202,7 +53249,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>7.8310108535687997</v>
       </c>
@@ -53214,7 +53261,7 @@
         <v>0.29719737088983367</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>11.4800634657836</v>
       </c>
@@ -53226,7 +53273,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>11.689086644591599</v>
       </c>
@@ -53238,7 +53285,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>7.8307809050772601</v>
       </c>
@@ -53250,7 +53297,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>7.8310108535687997</v>
       </c>
@@ -53276,13 +53323,13 @@
       <selection activeCell="P4" sqref="P4:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -53290,7 +53337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -53316,7 +53363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -53360,7 +53407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -53404,7 +53451,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -53448,7 +53495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -53492,7 +53539,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -53536,7 +53583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -53580,7 +53627,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -53624,7 +53671,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -53668,7 +53715,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -53712,7 +53759,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -53756,7 +53803,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -53800,7 +53847,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -53844,7 +53891,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -53888,7 +53935,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -53932,7 +53979,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -53976,7 +54023,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -54020,7 +54067,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -54064,7 +54111,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -54108,7 +54155,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -54152,7 +54199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -54196,7 +54243,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -54240,7 +54287,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -54284,7 +54331,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -54328,7 +54375,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -54372,7 +54419,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -54416,7 +54463,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -54454,7 +54501,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -54492,7 +54539,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -54530,7 +54577,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -54568,7 +54615,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -54606,7 +54653,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -54638,7 +54685,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -54658,7 +54705,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -54690,7 +54737,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -54722,7 +54769,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -54754,7 +54801,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -54780,7 +54827,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -54812,7 +54859,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -54844,7 +54891,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -54876,7 +54923,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -54908,7 +54955,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -54940,7 +54987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -54972,7 +55019,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -54998,7 +55045,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -55024,7 +55071,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -55050,7 +55097,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -55076,7 +55123,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -55102,7 +55149,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -55122,7 +55169,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -55142,7 +55189,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -55156,7 +55203,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -55170,7 +55217,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -55184,7 +55231,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -55198,7 +55245,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -55212,7 +55259,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -55226,7 +55273,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -55240,7 +55287,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -55254,7 +55301,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -55268,7 +55315,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -55282,7 +55329,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -55296,7 +55343,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -55310,7 +55357,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -55324,7 +55371,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -55338,7 +55385,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -55352,7 +55399,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -55366,7 +55413,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -55380,7 +55427,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -55394,7 +55441,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -55408,7 +55455,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -55422,7 +55469,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -55436,7 +55483,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -55450,7 +55497,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -55464,7 +55511,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -55478,7 +55525,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -55492,7 +55539,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -55506,7 +55553,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -55514,7 +55561,7 @@
         <v>297.483443708609</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -55528,7 +55575,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -55542,7 +55589,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -55556,7 +55603,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -55570,7 +55617,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -55584,7 +55631,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -55598,7 +55645,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -55612,7 +55659,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -55626,7 +55673,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -55640,7 +55687,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -55654,7 +55701,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -55668,7 +55715,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -55682,7 +55729,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>0.48119800000000001</v>
       </c>
@@ -55690,7 +55737,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>0.48283300000000001</v>
       </c>
@@ -55698,7 +55745,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>0.48448600000000003</v>
       </c>
@@ -55706,7 +55753,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>0.48615599999999998</v>
       </c>
@@ -55714,7 +55761,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>0.48784499999999997</v>
       </c>
@@ -55722,7 +55769,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>0.48955199999999999</v>
       </c>
@@ -55730,7 +55777,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>0.49127700000000002</v>
       </c>
@@ -55738,7 +55785,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>0.49302000000000001</v>
       </c>
@@ -55746,7 +55793,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>0.49478100000000003</v>
       </c>
@@ -55754,7 +55801,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>0.49655899999999997</v>
       </c>
@@ -55762,7 +55809,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>0.49835600000000002</v>
       </c>
@@ -55770,7 +55817,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102">
         <v>0.50017100000000003</v>
       </c>
@@ -55778,7 +55825,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103">
         <v>0.50200400000000001</v>
       </c>
@@ -55786,7 +55833,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104">
         <v>0.50385500000000005</v>
       </c>
@@ -55794,7 +55841,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105">
         <v>0.50572399999999995</v>
       </c>
@@ -55802,7 +55849,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106">
         <v>0.50761100000000003</v>
       </c>
@@ -55810,7 +55857,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107">
         <v>0.50951500000000005</v>
       </c>
@@ -55818,7 +55865,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108">
         <v>0.51143799999999995</v>
       </c>
@@ -55826,7 +55873,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109">
         <v>0.51337900000000003</v>
       </c>
@@ -55834,7 +55881,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110">
         <v>0.51533799999999996</v>
       </c>
@@ -55842,7 +55889,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111">
         <v>0.51731499999999997</v>
       </c>
@@ -55850,7 +55897,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112">
         <v>0.51931000000000005</v>
       </c>
@@ -55858,7 +55905,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113">
         <v>0.52132299999999998</v>
       </c>
@@ -55866,7 +55913,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114">
         <v>0.52335399999999999</v>
       </c>
@@ -55874,7 +55921,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115">
         <v>0.52540299999999995</v>
       </c>
@@ -55882,7 +55929,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116">
         <v>0.52746899999999997</v>
       </c>
@@ -55890,7 +55937,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117">
         <v>0.52955399999999997</v>
       </c>
@@ -55898,7 +55945,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118">
         <v>0.53165700000000005</v>
       </c>
@@ -55906,7 +55953,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119">
         <v>0.53377799999999997</v>
       </c>
@@ -55914,7 +55961,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120">
         <v>0.53591699999999998</v>
       </c>
@@ -55922,7 +55969,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121">
         <v>0.53807400000000005</v>
       </c>
@@ -55930,7 +55977,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122">
         <v>0.54024899999999998</v>
       </c>
@@ -55938,7 +55985,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123">
         <v>0.54244199999999998</v>
       </c>
@@ -55946,7 +55993,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124">
         <v>0.54465300000000005</v>
       </c>
@@ -55954,7 +56001,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125">
         <v>0.54688199999999998</v>
       </c>
@@ -55962,7 +56009,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126">
         <v>0.54912899999999998</v>
       </c>
@@ -55970,7 +56017,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127">
         <v>0.55139400000000005</v>
       </c>
@@ -55978,7 +56025,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128">
         <v>0.55367699999999997</v>
       </c>
@@ -55986,7 +56033,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129">
         <v>0.55597700000000005</v>
       </c>
@@ -55994,7 +56041,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130">
         <v>0.55829600000000001</v>
       </c>
@@ -56002,7 +56049,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131">
         <v>0.56063300000000005</v>
       </c>
@@ -56010,7 +56057,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132">
         <v>0.56298800000000004</v>
       </c>
@@ -56032,9 +56079,9 @@
       <selection activeCell="A24" sqref="A24:B313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.122618</v>
       </c>
@@ -56042,7 +56089,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.118628</v>
       </c>
@@ -56050,7 +56097,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.114498</v>
       </c>
@@ -56058,7 +56105,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.11022800000000001</v>
       </c>
@@ -56066,7 +56113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.105818</v>
       </c>
@@ -56074,7 +56121,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.101268</v>
       </c>
@@ -56082,7 +56129,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9.6577800000000005E-2</v>
       </c>
@@ -56090,7 +56137,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9.1747800000000004E-2</v>
       </c>
@@ -56098,7 +56145,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.6777900000000005E-2</v>
       </c>
@@ -56106,7 +56153,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8.1667900000000002E-2</v>
       </c>
@@ -56114,7 +56161,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7.6417899999999997E-2</v>
       </c>
@@ -56122,7 +56169,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7.1027999999999994E-2</v>
       </c>
@@ -56130,7 +56177,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6.5498000000000001E-2</v>
       </c>
@@ -56138,7 +56185,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5.9827999999999999E-2</v>
       </c>
@@ -56146,7 +56193,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.4018099999999999E-2</v>
       </c>
@@ -56154,7 +56201,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4.8068100000000002E-2</v>
       </c>
@@ -56162,7 +56209,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4.1978099999999997E-2</v>
       </c>
@@ -56170,7 +56217,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.5748200000000001E-2</v>
       </c>
@@ -56178,7 +56225,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.93782E-2</v>
       </c>
@@ -56186,7 +56233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.2868200000000002E-2</v>
       </c>
@@ -56194,7 +56241,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.6218300000000001E-2</v>
       </c>
@@ -56202,7 +56249,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9.4282900000000006E-3</v>
       </c>
@@ -56210,7 +56257,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.4978700000000001E-3</v>
       </c>
@@ -56218,7 +56265,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.20586699999999999</v>
       </c>
@@ -56226,7 +56273,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.20577699999999999</v>
       </c>
@@ -56234,7 +56281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.20574700000000001</v>
       </c>
@@ -56242,7 +56289,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.20577699999999999</v>
       </c>
@@ -56250,7 +56297,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.20586699999999999</v>
       </c>
@@ -56258,7 +56305,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.20601700000000001</v>
       </c>
@@ -56266,7 +56313,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.20622699999999999</v>
       </c>
@@ -56274,7 +56321,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.20649700000000001</v>
       </c>
@@ -56282,7 +56329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.20682700000000001</v>
       </c>
@@ -56290,7 +56337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.20721700000000001</v>
       </c>
@@ -56298,7 +56345,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.20766699999999999</v>
       </c>
@@ -56306,7 +56353,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.208177</v>
       </c>
@@ -56314,7 +56361,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.20874699999999999</v>
       </c>
@@ -56322,7 +56369,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.20937700000000001</v>
       </c>
@@ -56330,7 +56377,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.210067</v>
       </c>
@@ -56338,7 +56385,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.210817</v>
       </c>
@@ -56346,7 +56393,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.21162700000000001</v>
       </c>
@@ -56354,7 +56401,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.21249699999999999</v>
       </c>
@@ -56362,7 +56409,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.21342700000000001</v>
       </c>
@@ -56370,7 +56417,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.214417</v>
       </c>
@@ -56378,7 +56425,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.21546699999999999</v>
       </c>
@@ -56386,7 +56433,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.21657699999999999</v>
       </c>
@@ -56394,7 +56441,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.217747</v>
       </c>
@@ -56402,7 +56449,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.218977</v>
       </c>
@@ -56410,7 +56457,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.22026699999999999</v>
       </c>
@@ -56418,7 +56465,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.22161700000000001</v>
       </c>
@@ -56426,7 +56473,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.223027</v>
       </c>
@@ -56434,7 +56481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.224497</v>
       </c>
@@ -56442,7 +56489,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.22602700000000001</v>
       </c>
@@ -56450,7 +56497,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.22761600000000001</v>
       </c>
@@ -56458,7 +56505,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.23097599999999999</v>
       </c>
@@ -56466,7 +56513,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.23274600000000001</v>
       </c>
@@ -56474,7 +56521,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.23457600000000001</v>
       </c>
@@ -56482,7 +56529,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.23841599999999999</v>
       </c>
@@ -56490,7 +56537,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.240426</v>
       </c>
@@ -56498,7 +56545,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.24249599999999999</v>
       </c>
@@ -56506,7 +56553,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.24462600000000001</v>
       </c>
@@ -56514,7 +56561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.24681600000000001</v>
       </c>
@@ -56522,7 +56569,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.24906600000000001</v>
       </c>
@@ -56530,7 +56577,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.25137599999999999</v>
       </c>
@@ -56538,7 +56585,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.25374600000000003</v>
       </c>
@@ -56546,7 +56593,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.25617600000000001</v>
       </c>
@@ -56554,7 +56601,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.25866600000000001</v>
       </c>
@@ -56562,7 +56609,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.261216</v>
       </c>
@@ -56570,7 +56617,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.263826</v>
       </c>
@@ -56578,7 +56625,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.26649600000000001</v>
       </c>
@@ -56586,7 +56633,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.25929600000000003</v>
       </c>
@@ -56594,7 +56641,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.26374999999999998</v>
       </c>
@@ -56602,7 +56649,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.26819199999999999</v>
       </c>
@@ -56610,7 +56657,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.27262199999999998</v>
       </c>
@@ -56618,7 +56665,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.27704000000000001</v>
       </c>
@@ -56626,7 +56673,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.281445</v>
       </c>
@@ -56634,7 +56681,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.28583900000000001</v>
       </c>
@@ -56642,7 +56689,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.29022100000000001</v>
       </c>
@@ -56650,7 +56697,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.29459099999999999</v>
       </c>
@@ -56658,7 +56705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.29894900000000002</v>
       </c>
@@ -56666,7 +56713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.30329499999999998</v>
       </c>
@@ -56674,7 +56721,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.30762899999999999</v>
       </c>
@@ -56682,7 +56729,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.31195000000000001</v>
       </c>
@@ -56690,7 +56737,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.31625999999999999</v>
       </c>
@@ -56698,7 +56745,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.32055800000000001</v>
       </c>
@@ -56706,7 +56753,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.32484400000000002</v>
       </c>
@@ -56714,7 +56761,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.32911699999999999</v>
       </c>
@@ -56722,7 +56769,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.33337899999999998</v>
       </c>
@@ -56730,7 +56777,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.33762900000000001</v>
       </c>
@@ -56738,7 +56785,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.341866</v>
       </c>
@@ -56746,7 +56793,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.34609200000000001</v>
       </c>
@@ -56754,7 +56801,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.35030600000000001</v>
       </c>
@@ -56762,7 +56809,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.35450700000000002</v>
       </c>
@@ -56770,7 +56817,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.35869600000000001</v>
       </c>
@@ -56778,7 +56825,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.36287399999999997</v>
       </c>
@@ -56786,7 +56833,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.367039</v>
       </c>
@@ -56794,7 +56841,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.37119200000000002</v>
       </c>
@@ -56802,7 +56849,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.37533300000000003</v>
       </c>
@@ -56810,7 +56857,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.37946200000000002</v>
       </c>
@@ -56818,7 +56865,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.407802</v>
       </c>
@@ -56826,7 +56873,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.40787000000000001</v>
       </c>
@@ -56834,7 +56881,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.40795700000000001</v>
       </c>
@@ -56842,7 +56889,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.40806100000000001</v>
       </c>
@@ -56850,7 +56897,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.40818399999999999</v>
       </c>
@@ -56858,7 +56905,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.40832400000000002</v>
       </c>
@@ -56866,7 +56913,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.40848200000000001</v>
       </c>
@@ -56874,7 +56921,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.40865800000000002</v>
       </c>
@@ -56882,7 +56929,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.40885199999999999</v>
       </c>
@@ -56890,7 +56937,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.40906300000000001</v>
       </c>
@@ -56898,7 +56945,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.40929300000000002</v>
       </c>
@@ -56906,7 +56953,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.40954000000000002</v>
       </c>
@@ -56914,7 +56961,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.40980499999999997</v>
       </c>
@@ -56922,7 +56969,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.41008800000000001</v>
       </c>
@@ -56930,7 +56977,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.41038799999999998</v>
       </c>
@@ -56938,7 +56985,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.41070600000000002</v>
       </c>
@@ -56946,7 +56993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.41104200000000002</v>
       </c>
@@ -56954,7 +57001,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.41139500000000001</v>
       </c>
@@ -56962,7 +57009,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.41176499999999999</v>
       </c>
@@ -56970,7 +57017,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.41215299999999999</v>
       </c>
@@ -56978,7 +57025,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.41255700000000001</v>
       </c>
@@ -56986,7 +57033,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.41297800000000001</v>
       </c>
@@ -56994,7 +57041,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.41341499999999998</v>
       </c>
@@ -57002,7 +57049,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.41386699999999998</v>
       </c>
@@ -57010,7 +57057,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.41433300000000001</v>
       </c>
@@ -57018,7 +57065,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.41481099999999999</v>
       </c>
@@ -57026,7 +57073,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.415296</v>
       </c>
@@ -57034,7 +57081,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.41577999999999998</v>
       </c>
@@ -57042,7 +57089,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.41623700000000002</v>
       </c>
@@ -57050,7 +57097,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.416578</v>
       </c>
@@ -57058,7 +57105,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.419819</v>
       </c>
@@ -57066,7 +57113,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.41950100000000001</v>
       </c>
@@ -57074,7 +57121,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.41993999999999998</v>
       </c>
@@ -57082,7 +57129,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0.42051300000000003</v>
       </c>
@@ -57090,7 +57137,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.42114299999999999</v>
       </c>
@@ -57098,7 +57145,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0.42181000000000002</v>
       </c>
@@ -57106,7 +57153,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.42250500000000002</v>
       </c>
@@ -57114,7 +57161,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.42322300000000002</v>
       </c>
@@ -57122,7 +57169,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.42396400000000001</v>
       </c>
@@ -57130,7 +57177,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.42472500000000002</v>
       </c>
@@ -57138,7 +57185,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.425506</v>
       </c>
@@ -57146,7 +57193,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.42630600000000002</v>
       </c>
@@ -57154,7 +57201,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.42712600000000001</v>
       </c>
@@ -57162,7 +57209,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0.42796400000000001</v>
       </c>
@@ -57170,7 +57217,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0.42882100000000001</v>
       </c>
@@ -57178,7 +57225,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.42969600000000002</v>
       </c>
@@ -57186,7 +57233,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0.43058999999999997</v>
       </c>
@@ -57194,7 +57241,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>0.431502</v>
       </c>
@@ -57202,7 +57249,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.43243300000000001</v>
       </c>
@@ -57210,7 +57257,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.43338199999999999</v>
       </c>
@@ -57218,7 +57265,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.43434899999999999</v>
       </c>
@@ -57226,7 +57273,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.435334</v>
       </c>
@@ -57234,7 +57281,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>0.436338</v>
       </c>
@@ -57242,7 +57289,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0.437359</v>
       </c>
@@ -57250,7 +57297,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0.43839899999999998</v>
       </c>
@@ -57258,7 +57305,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0.43945699999999999</v>
       </c>
@@ -57266,7 +57313,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0.44053199999999998</v>
       </c>
@@ -57274,7 +57321,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>0.44162600000000002</v>
       </c>
@@ -57282,7 +57329,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0.44273800000000002</v>
       </c>
@@ -57290,7 +57337,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0.44386900000000001</v>
       </c>
@@ -57298,7 +57345,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0.445017</v>
       </c>
@@ -57306,7 +57353,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0.446183</v>
       </c>
@@ -57314,7 +57361,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0.44736700000000001</v>
       </c>
@@ -57322,7 +57369,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0.44857000000000002</v>
       </c>
@@ -57330,7 +57377,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0.44979000000000002</v>
       </c>
@@ -57338,7 +57385,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.45102799999999998</v>
       </c>
@@ -57346,7 +57393,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0.45228499999999999</v>
       </c>
@@ -57354,7 +57401,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.45355899999999999</v>
       </c>
@@ -57362,7 +57409,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.45485199999999998</v>
       </c>
@@ -57370,7 +57417,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.45616200000000001</v>
       </c>
@@ -57378,7 +57425,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.45749099999999998</v>
       </c>
@@ -57386,7 +57433,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.45883699999999999</v>
       </c>
@@ -57394,7 +57441,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.460202</v>
       </c>
@@ -57402,7 +57449,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.46298499999999998</v>
       </c>
@@ -57410,7 +57457,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0.46440399999999998</v>
       </c>
@@ -57418,7 +57465,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0.46584100000000001</v>
       </c>
@@ -57426,7 +57473,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0.46729500000000002</v>
       </c>
@@ -57434,7 +57481,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0.46876800000000002</v>
       </c>
@@ -57442,7 +57489,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0.47025899999999998</v>
       </c>
@@ -57450,7 +57497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0.47176699999999999</v>
       </c>
@@ -57458,7 +57505,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0.47329399999999999</v>
       </c>
@@ -57466,7 +57513,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0.47483900000000001</v>
       </c>
@@ -57474,7 +57521,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0.47640199999999999</v>
       </c>
@@ -57482,7 +57529,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.47798200000000002</v>
       </c>
@@ -57490,7 +57537,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0.47958099999999998</v>
       </c>
@@ -57498,7 +57545,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0.48119800000000001</v>
       </c>
@@ -57506,7 +57553,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0.48283300000000001</v>
       </c>
@@ -57514,7 +57561,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0.48448600000000003</v>
       </c>
@@ -57522,7 +57569,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>0.48615599999999998</v>
       </c>
@@ -57530,7 +57577,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0.48784499999999997</v>
       </c>
@@ -57538,7 +57585,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0.48955199999999999</v>
       </c>
@@ -57546,7 +57593,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0.49127700000000002</v>
       </c>
@@ -57554,7 +57601,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0.49302000000000001</v>
       </c>
@@ -57562,7 +57609,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0.49478100000000003</v>
       </c>
@@ -57570,7 +57617,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0.49655899999999997</v>
       </c>
@@ -57578,7 +57625,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0.49835600000000002</v>
       </c>
@@ -57586,7 +57633,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0.50017100000000003</v>
       </c>
@@ -57594,7 +57641,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0.50200400000000001</v>
       </c>
@@ -57602,7 +57649,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0.50385500000000005</v>
       </c>
@@ -57610,7 +57657,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>0.50572399999999995</v>
       </c>
@@ -57618,7 +57665,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0.50761100000000003</v>
       </c>
@@ -57626,7 +57673,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>0.50951500000000005</v>
       </c>
@@ -57634,7 +57681,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.51143799999999995</v>
       </c>
@@ -57642,7 +57689,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.51337900000000003</v>
       </c>
@@ -57650,7 +57697,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>0.51533799999999996</v>
       </c>
@@ -57658,7 +57705,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0.51731499999999997</v>
       </c>
@@ -57666,7 +57713,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>0.51931000000000005</v>
       </c>
@@ -57674,7 +57721,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>0.52132299999999998</v>
       </c>
@@ -57682,7 +57729,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.52335399999999999</v>
       </c>
@@ -57690,7 +57737,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0.52540299999999995</v>
       </c>
@@ -57698,7 +57745,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.52746899999999997</v>
       </c>
@@ -57706,7 +57753,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0.52955399999999997</v>
       </c>
@@ -57714,7 +57761,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.53165700000000005</v>
       </c>
@@ -57722,7 +57769,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.53377799999999997</v>
       </c>
@@ -57730,7 +57777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0.53591699999999998</v>
       </c>
@@ -57738,7 +57785,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0.53807400000000005</v>
       </c>
@@ -57746,7 +57793,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.54024899999999998</v>
       </c>
@@ -57754,7 +57801,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0.54244199999999998</v>
       </c>
@@ -57762,7 +57809,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.54465300000000005</v>
       </c>
@@ -57770,7 +57817,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0.54688199999999998</v>
       </c>
@@ -57778,7 +57825,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0.54912899999999998</v>
       </c>
@@ -57786,7 +57833,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>0.55139400000000005</v>
       </c>
@@ -57794,7 +57841,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0.55367699999999997</v>
       </c>
@@ -57802,7 +57849,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0.55597700000000005</v>
       </c>
@@ -57810,7 +57857,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0.55829600000000001</v>
       </c>
@@ -57818,7 +57865,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0.56063300000000005</v>
       </c>
@@ -57826,7 +57873,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0.56298800000000004</v>
       </c>
@@ -57834,7 +57881,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>0.500413</v>
       </c>
@@ -57842,7 +57889,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>0.50360700000000003</v>
       </c>
@@ -57850,7 +57897,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>0.50680499999999995</v>
       </c>
@@ -57858,7 +57905,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>0.51000699999999999</v>
       </c>
@@ -57866,7 +57913,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>0.513212</v>
       </c>
@@ -57874,7 +57921,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>0.51642200000000005</v>
       </c>
@@ -57882,7 +57929,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>0.51963599999999999</v>
       </c>
@@ -57890,7 +57937,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>0.52285400000000004</v>
       </c>
@@ -57898,7 +57945,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>0.52607599999999999</v>
       </c>
@@ -57906,7 +57953,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>0.52930200000000005</v>
       </c>
@@ -57914,7 +57961,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>0.53253099999999998</v>
       </c>
@@ -57922,7 +57969,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>0.53576500000000005</v>
       </c>
@@ -57930,7 +57977,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>0.53900300000000001</v>
       </c>
@@ -57938,7 +57985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>0.54224499999999998</v>
       </c>
@@ -57946,7 +57993,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>0.54549099999999995</v>
       </c>
@@ -57954,7 +58001,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>0.54874100000000003</v>
       </c>
@@ -57962,7 +58009,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>0.55199500000000001</v>
       </c>
@@ -57970,7 +58017,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>0.555253</v>
       </c>
@@ -57978,7 +58025,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>0.55851499999999998</v>
       </c>
@@ -57986,7 +58033,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0.56177999999999995</v>
       </c>
@@ -57994,7 +58041,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>0.56505000000000005</v>
       </c>
@@ -58002,7 +58049,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>0.56832400000000005</v>
       </c>
@@ -58010,7 +58057,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>0.57160200000000005</v>
       </c>
@@ -58018,7 +58065,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>0.57488399999999995</v>
       </c>
@@ -58026,7 +58073,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>0.60925099999999999</v>
       </c>
@@ -58034,7 +58081,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0.61000500000000002</v>
       </c>
@@ -58042,7 +58089,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>0.61074700000000004</v>
       </c>
@@ -58050,7 +58097,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>0.61147700000000005</v>
       </c>
@@ -58058,7 +58105,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>0.61219500000000004</v>
       </c>
@@ -58066,7 +58113,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>0.61290100000000003</v>
       </c>
@@ -58074,7 +58121,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>0.613595</v>
       </c>
@@ -58082,7 +58129,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0.61427699999999996</v>
       </c>
@@ -58090,7 +58137,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>0.61494700000000002</v>
       </c>
@@ -58098,7 +58145,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0.61560499999999996</v>
       </c>
@@ -58106,7 +58153,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>0.61625099999999999</v>
       </c>
@@ -58114,7 +58161,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0.61688500000000002</v>
       </c>
@@ -58122,7 +58169,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>0.61750700000000003</v>
       </c>
@@ -58130,7 +58177,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0.61811700000000003</v>
       </c>
@@ -58138,7 +58185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0.61871500000000001</v>
       </c>
@@ -58146,7 +58193,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>0.61930099999999999</v>
       </c>
@@ -58154,7 +58201,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>0.61987499999999995</v>
       </c>
@@ -58162,7 +58209,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>0.62043700000000002</v>
       </c>
@@ -58170,7 +58217,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>0.62098699999999996</v>
       </c>
@@ -58178,7 +58225,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>0.62152499999999999</v>
       </c>
@@ -58186,7 +58233,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>0.62205100000000002</v>
       </c>
@@ -58194,7 +58241,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0.62256500000000004</v>
       </c>
@@ -58202,7 +58249,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0.62306700000000004</v>
       </c>
@@ -58210,7 +58257,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>0.62355700000000003</v>
       </c>
@@ -58218,7 +58265,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0.62403500000000001</v>
       </c>
@@ -58226,7 +58273,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>0.62450099999999997</v>
       </c>
@@ -58234,7 +58281,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>0.62495500000000004</v>
       </c>
@@ -58242,7 +58289,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>0.62539699999999998</v>
       </c>
@@ -58250,7 +58297,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>0.62582700000000002</v>
       </c>
@@ -58258,7 +58305,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>0.62624500000000005</v>
       </c>
@@ -58266,7 +58313,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>0.62665099999999996</v>
       </c>
@@ -58274,7 +58321,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>0.62704499999999996</v>
       </c>
@@ -58282,7 +58329,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>0.62742699999999996</v>
       </c>
@@ -58290,7 +58337,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>0.62779700000000005</v>
       </c>
@@ -58298,7 +58345,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>0.62815500000000002</v>
       </c>
@@ -58306,7 +58353,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0.62850099999999998</v>
       </c>
@@ -58314,7 +58361,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>0.62883500000000003</v>
       </c>
@@ -58322,7 +58369,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>0.62915699999999997</v>
       </c>
@@ -58330,7 +58377,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>0.629467</v>
       </c>
@@ -58338,7 +58385,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>0.62976500000000002</v>
       </c>
@@ -58346,7 +58393,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>0.63005100000000003</v>
       </c>
@@ -58364,13 +58411,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA1C9C-9B9C-4B22-9640-19860B1C7174}">
   <dimension ref="A1:E292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -58378,7 +58425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -58392,7 +58439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -58406,7 +58453,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -58420,7 +58467,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -58434,7 +58481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -58448,7 +58495,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -58462,7 +58509,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -58476,7 +58523,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -58490,7 +58537,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -58504,7 +58551,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -58518,7 +58565,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -58532,7 +58579,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -58546,7 +58593,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -58560,7 +58607,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -58574,7 +58621,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -58588,7 +58635,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -58602,7 +58649,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -58616,7 +58663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -58630,7 +58677,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -58644,7 +58691,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -58658,7 +58705,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -58672,7 +58719,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -58686,7 +58733,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -58700,7 +58747,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -58714,7 +58761,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -58728,7 +58775,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -58742,7 +58789,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -58756,7 +58803,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -58770,7 +58817,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -58784,7 +58831,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -58798,7 +58845,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -58812,7 +58859,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -58826,7 +58873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -58840,7 +58887,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -58854,7 +58901,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -58868,7 +58915,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -58882,7 +58929,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -58896,7 +58943,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -58910,7 +58957,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -58924,7 +58971,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -58938,7 +58985,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -58952,7 +58999,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -58966,7 +59013,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -58980,7 +59027,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -58994,7 +59041,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -59008,7 +59055,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -59022,7 +59069,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -59036,7 +59083,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -59050,7 +59097,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -59064,7 +59111,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -59078,7 +59125,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -59092,7 +59139,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -59106,7 +59153,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -59120,7 +59167,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -59134,7 +59181,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -59148,7 +59195,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -59162,7 +59209,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -59176,7 +59223,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -59190,7 +59237,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -59204,7 +59251,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -59218,7 +59265,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -59232,7 +59279,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -59246,7 +59293,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -59260,7 +59307,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -59274,7 +59321,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -59288,7 +59335,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -59302,7 +59349,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -59316,7 +59363,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -59330,7 +59377,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -59344,7 +59391,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -59358,7 +59405,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -59372,7 +59419,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -59386,7 +59433,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -59400,7 +59447,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -59414,7 +59461,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -59428,7 +59475,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -59442,7 +59489,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -59456,7 +59503,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -59470,7 +59517,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -59484,7 +59531,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -59498,7 +59545,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -59512,7 +59559,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -59526,7 +59573,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -59540,7 +59587,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -59554,7 +59601,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -59568,7 +59615,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -59582,7 +59629,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -59596,7 +59643,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -59610,7 +59657,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -59624,7 +59671,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>0.341866</v>
       </c>
@@ -59632,7 +59679,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>0.34609200000000001</v>
       </c>
@@ -59640,7 +59687,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>0.35030600000000001</v>
       </c>
@@ -59648,7 +59695,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>0.35450700000000002</v>
       </c>
@@ -59656,7 +59703,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>0.35869600000000001</v>
       </c>
@@ -59664,7 +59711,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>0.36287399999999997</v>
       </c>
@@ -59672,7 +59719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>0.367039</v>
       </c>
@@ -59680,7 +59727,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>0.37119200000000002</v>
       </c>
@@ -59688,7 +59735,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>0.37533300000000003</v>
       </c>
@@ -59696,7 +59743,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>0.37946200000000002</v>
       </c>
@@ -59704,7 +59751,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>0.407802</v>
       </c>
@@ -59712,7 +59759,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102">
         <v>0.40787000000000001</v>
       </c>
@@ -59720,7 +59767,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103">
         <v>0.40795700000000001</v>
       </c>
@@ -59728,7 +59775,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104">
         <v>0.40806100000000001</v>
       </c>
@@ -59736,7 +59783,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105">
         <v>0.40818399999999999</v>
       </c>
@@ -59744,7 +59791,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106">
         <v>0.40832400000000002</v>
       </c>
@@ -59752,7 +59799,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107">
         <v>0.40848200000000001</v>
       </c>
@@ -59760,7 +59807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108">
         <v>0.40865800000000002</v>
       </c>
@@ -59768,7 +59815,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109">
         <v>0.40885199999999999</v>
       </c>
@@ -59776,7 +59823,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110">
         <v>0.40906300000000001</v>
       </c>
@@ -59784,7 +59831,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111">
         <v>0.40929300000000002</v>
       </c>
@@ -59792,7 +59839,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112">
         <v>0.40954000000000002</v>
       </c>
@@ -59800,7 +59847,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113">
         <v>0.40980499999999997</v>
       </c>
@@ -59808,7 +59855,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114">
         <v>0.41008800000000001</v>
       </c>
@@ -59816,7 +59863,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115">
         <v>0.41038799999999998</v>
       </c>
@@ -59824,7 +59871,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116">
         <v>0.41070600000000002</v>
       </c>
@@ -59832,7 +59879,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117">
         <v>0.41104200000000002</v>
       </c>
@@ -59840,7 +59887,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118">
         <v>0.41139500000000001</v>
       </c>
@@ -59848,7 +59895,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119">
         <v>0.41176499999999999</v>
       </c>
@@ -59856,7 +59903,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120">
         <v>0.41215299999999999</v>
       </c>
@@ -59864,7 +59911,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121">
         <v>0.41255700000000001</v>
       </c>
@@ -59872,7 +59919,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122">
         <v>0.41297800000000001</v>
       </c>
@@ -59880,7 +59927,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123">
         <v>0.41341499999999998</v>
       </c>
@@ -59888,7 +59935,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124">
         <v>0.41386699999999998</v>
       </c>
@@ -59896,7 +59943,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125">
         <v>0.41433300000000001</v>
       </c>
@@ -59904,7 +59951,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126">
         <v>0.41481099999999999</v>
       </c>
@@ -59912,7 +59959,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127">
         <v>0.415296</v>
       </c>
@@ -59920,7 +59967,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128">
         <v>0.41577999999999998</v>
       </c>
@@ -59928,7 +59975,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129">
         <v>0.41623700000000002</v>
       </c>
@@ -59936,7 +59983,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130">
         <v>0.416578</v>
       </c>
@@ -59944,7 +59991,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131">
         <v>0.419819</v>
       </c>
@@ -59952,7 +59999,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132">
         <v>0.41950100000000001</v>
       </c>
@@ -59960,7 +60007,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133">
         <v>0.41993999999999998</v>
       </c>
@@ -59968,7 +60015,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134">
         <v>0.42051300000000003</v>
       </c>
@@ -59976,7 +60023,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135">
         <v>0.42114299999999999</v>
       </c>
@@ -59984,7 +60031,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136">
         <v>0.42181000000000002</v>
       </c>
@@ -59992,7 +60039,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137">
         <v>0.42250500000000002</v>
       </c>
@@ -60000,7 +60047,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138">
         <v>0.42322300000000002</v>
       </c>
@@ -60008,7 +60055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139">
         <v>0.42396400000000001</v>
       </c>
@@ -60016,7 +60063,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140">
         <v>0.42472500000000002</v>
       </c>
@@ -60024,7 +60071,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141">
         <v>0.425506</v>
       </c>
@@ -60032,7 +60079,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142">
         <v>0.42630600000000002</v>
       </c>
@@ -60040,7 +60087,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143">
         <v>0.42712600000000001</v>
       </c>
@@ -60048,7 +60095,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144">
         <v>0.42796400000000001</v>
       </c>
@@ -60056,7 +60103,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145">
         <v>0.42882100000000001</v>
       </c>
@@ -60064,7 +60111,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146">
         <v>0.42969600000000002</v>
       </c>
@@ -60072,7 +60119,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147">
         <v>0.43058999999999997</v>
       </c>
@@ -60080,7 +60127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148">
         <v>0.431502</v>
       </c>
@@ -60088,7 +60135,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149">
         <v>0.43243300000000001</v>
       </c>
@@ -60096,7 +60143,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150">
         <v>0.43338199999999999</v>
       </c>
@@ -60104,7 +60151,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151">
         <v>0.43434899999999999</v>
       </c>
@@ -60112,7 +60159,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152">
         <v>0.435334</v>
       </c>
@@ -60120,7 +60167,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153">
         <v>0.436338</v>
       </c>
@@ -60128,7 +60175,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154">
         <v>0.437359</v>
       </c>
@@ -60136,7 +60183,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155">
         <v>0.43839899999999998</v>
       </c>
@@ -60144,7 +60191,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156">
         <v>0.43945699999999999</v>
       </c>
@@ -60152,7 +60199,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157">
         <v>0.44053199999999998</v>
       </c>
@@ -60160,7 +60207,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158">
         <v>0.44162600000000002</v>
       </c>
@@ -60168,7 +60215,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159">
         <v>0.44273800000000002</v>
       </c>
@@ -60176,7 +60223,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160">
         <v>0.44386900000000001</v>
       </c>
@@ -60184,7 +60231,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161">
         <v>0.445017</v>
       </c>
@@ -60192,7 +60239,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162">
         <v>0.446183</v>
       </c>
@@ -60200,7 +60247,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163">
         <v>0.44736700000000001</v>
       </c>
@@ -60208,7 +60255,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164">
         <v>0.44857000000000002</v>
       </c>
@@ -60216,7 +60263,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165">
         <v>0.44979000000000002</v>
       </c>
@@ -60224,7 +60271,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166">
         <v>0.45102799999999998</v>
       </c>
@@ -60232,7 +60279,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167">
         <v>0.45228499999999999</v>
       </c>
@@ -60240,7 +60287,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168">
         <v>0.45355899999999999</v>
       </c>
@@ -60248,7 +60295,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169">
         <v>0.45485199999999998</v>
       </c>
@@ -60256,7 +60303,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170">
         <v>0.45616200000000001</v>
       </c>
@@ -60264,7 +60311,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171">
         <v>0.45749099999999998</v>
       </c>
@@ -60272,7 +60319,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172">
         <v>0.45883699999999999</v>
       </c>
@@ -60280,7 +60327,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173">
         <v>0.460202</v>
       </c>
@@ -60288,7 +60335,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174">
         <v>0.46298499999999998</v>
       </c>
@@ -60296,7 +60343,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175">
         <v>0.46440399999999998</v>
       </c>
@@ -60304,7 +60351,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176">
         <v>0.46584100000000001</v>
       </c>
@@ -60312,7 +60359,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177">
         <v>0.46729500000000002</v>
       </c>
@@ -60320,7 +60367,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178">
         <v>0.46876800000000002</v>
       </c>
@@ -60328,7 +60375,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179">
         <v>0.47025899999999998</v>
       </c>
@@ -60336,7 +60383,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180">
         <v>0.47176699999999999</v>
       </c>
@@ -60344,7 +60391,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181">
         <v>0.47329399999999999</v>
       </c>
@@ -60352,7 +60399,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182">
         <v>0.47483900000000001</v>
       </c>
@@ -60360,7 +60407,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183">
         <v>0.47640199999999999</v>
       </c>
@@ -60368,7 +60415,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184">
         <v>0.47798200000000002</v>
       </c>
@@ -60376,7 +60423,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185">
         <v>0.47958099999999998</v>
       </c>
@@ -60384,7 +60431,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186">
         <v>0.48119800000000001</v>
       </c>
@@ -60392,7 +60439,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187">
         <v>0.48283300000000001</v>
       </c>
@@ -60400,7 +60447,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188">
         <v>0.48448600000000003</v>
       </c>
@@ -60408,7 +60455,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189">
         <v>0.48615599999999998</v>
       </c>
@@ -60416,7 +60463,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190">
         <v>0.48784499999999997</v>
       </c>
@@ -60424,7 +60471,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191">
         <v>0.48955199999999999</v>
       </c>
@@ -60432,7 +60479,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192">
         <v>0.49127700000000002</v>
       </c>
@@ -60440,7 +60487,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193">
         <v>0.49302000000000001</v>
       </c>
@@ -60448,7 +60495,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194">
         <v>0.49478100000000003</v>
       </c>
@@ -60456,7 +60503,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195">
         <v>0.49655899999999997</v>
       </c>
@@ -60464,7 +60511,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196">
         <v>0.49835600000000002</v>
       </c>
@@ -60472,7 +60519,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197">
         <v>0.50017100000000003</v>
       </c>
@@ -60480,7 +60527,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198">
         <v>0.50200400000000001</v>
       </c>
@@ -60488,7 +60535,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199">
         <v>0.50385500000000005</v>
       </c>
@@ -60496,7 +60543,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200">
         <v>0.50572399999999995</v>
       </c>
@@ -60504,7 +60551,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201">
         <v>0.50761100000000003</v>
       </c>
@@ -60512,7 +60559,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202">
         <v>0.50951500000000005</v>
       </c>
@@ -60520,7 +60567,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203">
         <v>0.51143799999999995</v>
       </c>
@@ -60528,7 +60575,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204">
         <v>0.51337900000000003</v>
       </c>
@@ -60536,7 +60583,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205">
         <v>0.51533799999999996</v>
       </c>
@@ -60544,7 +60591,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206">
         <v>0.51731499999999997</v>
       </c>
@@ -60552,7 +60599,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207">
         <v>0.51931000000000005</v>
       </c>
@@ -60560,7 +60607,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208">
         <v>0.52132299999999998</v>
       </c>
@@ -60568,7 +60615,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209">
         <v>0.52335399999999999</v>
       </c>
@@ -60576,7 +60623,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210">
         <v>0.52540299999999995</v>
       </c>
@@ -60584,7 +60631,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211">
         <v>0.52746899999999997</v>
       </c>
@@ -60592,7 +60639,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212">
         <v>0.52955399999999997</v>
       </c>
@@ -60600,7 +60647,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213">
         <v>0.53165700000000005</v>
       </c>
@@ -60608,7 +60655,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214">
         <v>0.53377799999999997</v>
       </c>
@@ -60616,7 +60663,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215">
         <v>0.53591699999999998</v>
       </c>
@@ -60624,7 +60671,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216">
         <v>0.53807400000000005</v>
       </c>
@@ -60632,7 +60679,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217">
         <v>0.54024899999999998</v>
       </c>
@@ -60640,7 +60687,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218">
         <v>0.54244199999999998</v>
       </c>
@@ -60648,7 +60695,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219">
         <v>0.54465300000000005</v>
       </c>
@@ -60656,7 +60703,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D220">
         <v>0.54688199999999998</v>
       </c>
@@ -60664,7 +60711,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D221">
         <v>0.54912899999999998</v>
       </c>
@@ -60672,7 +60719,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D222">
         <v>0.55139400000000005</v>
       </c>
@@ -60680,7 +60727,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D223">
         <v>0.55367699999999997</v>
       </c>
@@ -60688,7 +60735,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D224">
         <v>0.55597700000000005</v>
       </c>
@@ -60696,7 +60743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D225">
         <v>0.55829600000000001</v>
       </c>
@@ -60704,7 +60751,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D226">
         <v>0.56063300000000005</v>
       </c>
@@ -60712,7 +60759,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D227">
         <v>0.56298800000000004</v>
       </c>
@@ -60720,7 +60767,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D228">
         <v>0.500413</v>
       </c>
@@ -60728,7 +60775,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D229">
         <v>0.50360700000000003</v>
       </c>
@@ -60736,7 +60783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D230">
         <v>0.50680499999999995</v>
       </c>
@@ -60744,7 +60791,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D231">
         <v>0.51000699999999999</v>
       </c>
@@ -60752,7 +60799,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D232">
         <v>0.513212</v>
       </c>
@@ -60760,7 +60807,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D233">
         <v>0.51642200000000005</v>
       </c>
@@ -60768,7 +60815,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D234">
         <v>0.51963599999999999</v>
       </c>
@@ -60776,7 +60823,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D235">
         <v>0.52285400000000004</v>
       </c>
@@ -60784,7 +60831,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D236">
         <v>0.52607599999999999</v>
       </c>
@@ -60792,7 +60839,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D237">
         <v>0.52930200000000005</v>
       </c>
@@ -60800,7 +60847,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D238">
         <v>0.53253099999999998</v>
       </c>
@@ -60808,7 +60855,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D239">
         <v>0.53576500000000005</v>
       </c>
@@ -60816,7 +60863,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D240">
         <v>0.53900300000000001</v>
       </c>
@@ -60824,7 +60871,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D241">
         <v>0.54224499999999998</v>
       </c>
@@ -60832,7 +60879,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D242">
         <v>0.54549099999999995</v>
       </c>
@@ -60840,7 +60887,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D243">
         <v>0.54874100000000003</v>
       </c>
@@ -60848,7 +60895,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D244">
         <v>0.55199500000000001</v>
       </c>
@@ -60856,7 +60903,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D245">
         <v>0.555253</v>
       </c>
@@ -60864,7 +60911,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D246">
         <v>0.55851499999999998</v>
       </c>
@@ -60872,7 +60919,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D247">
         <v>0.56177999999999995</v>
       </c>
@@ -60880,7 +60927,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D248">
         <v>0.56505000000000005</v>
       </c>
@@ -60888,7 +60935,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D249">
         <v>0.56832400000000005</v>
       </c>
@@ -60896,7 +60943,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D250">
         <v>0.57160200000000005</v>
       </c>
@@ -60904,7 +60951,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D251">
         <v>0.57488399999999995</v>
       </c>
@@ -60912,7 +60959,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D252">
         <v>0.60925099999999999</v>
       </c>
@@ -60920,7 +60967,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D253">
         <v>0.61000500000000002</v>
       </c>
@@ -60928,7 +60975,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D254">
         <v>0.61074700000000004</v>
       </c>
@@ -60936,7 +60983,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D255">
         <v>0.61147700000000005</v>
       </c>
@@ -60944,7 +60991,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D256">
         <v>0.61219500000000004</v>
       </c>
@@ -60952,7 +60999,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D257">
         <v>0.61290100000000003</v>
       </c>
@@ -60960,7 +61007,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D258">
         <v>0.613595</v>
       </c>
@@ -60968,7 +61015,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D259">
         <v>0.61427699999999996</v>
       </c>
@@ -60976,7 +61023,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D260">
         <v>0.61494700000000002</v>
       </c>
@@ -60984,7 +61031,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D261">
         <v>0.61560499999999996</v>
       </c>
@@ -60992,7 +61039,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D262">
         <v>0.61625099999999999</v>
       </c>
@@ -61000,7 +61047,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D263">
         <v>0.61688500000000002</v>
       </c>
@@ -61008,7 +61055,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D264">
         <v>0.61750700000000003</v>
       </c>
@@ -61016,7 +61063,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D265">
         <v>0.61811700000000003</v>
       </c>
@@ -61024,7 +61071,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D266">
         <v>0.61871500000000001</v>
       </c>
@@ -61032,7 +61079,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D267">
         <v>0.61930099999999999</v>
       </c>
@@ -61040,7 +61087,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D268">
         <v>0.61987499999999995</v>
       </c>
@@ -61048,7 +61095,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D269">
         <v>0.62043700000000002</v>
       </c>
@@ -61056,7 +61103,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D270">
         <v>0.62098699999999996</v>
       </c>
@@ -61064,7 +61111,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D271">
         <v>0.62152499999999999</v>
       </c>
@@ -61072,7 +61119,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D272">
         <v>0.62205100000000002</v>
       </c>
@@ -61080,7 +61127,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D273">
         <v>0.62256500000000004</v>
       </c>
@@ -61088,7 +61135,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D274">
         <v>0.62306700000000004</v>
       </c>
@@ -61096,7 +61143,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D275">
         <v>0.62355700000000003</v>
       </c>
@@ -61104,7 +61151,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D276">
         <v>0.62403500000000001</v>
       </c>
@@ -61112,7 +61159,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D277">
         <v>0.62450099999999997</v>
       </c>
@@ -61120,7 +61167,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D278">
         <v>0.62495500000000004</v>
       </c>
@@ -61128,7 +61175,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D279">
         <v>0.62539699999999998</v>
       </c>
@@ -61136,7 +61183,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D280">
         <v>0.62582700000000002</v>
       </c>
@@ -61144,7 +61191,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D281">
         <v>0.62624500000000005</v>
       </c>
@@ -61152,7 +61199,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D282">
         <v>0.62665099999999996</v>
       </c>
@@ -61160,7 +61207,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D283">
         <v>0.62704499999999996</v>
       </c>
@@ -61168,7 +61215,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D284">
         <v>0.62742699999999996</v>
       </c>
@@ -61176,7 +61223,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D285">
         <v>0.62779700000000005</v>
       </c>
@@ -61184,7 +61231,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D286">
         <v>0.62815500000000002</v>
       </c>
@@ -61192,7 +61239,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D287">
         <v>0.62850099999999998</v>
       </c>
@@ -61200,7 +61247,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D288">
         <v>0.62883500000000003</v>
       </c>
@@ -61208,7 +61255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D289">
         <v>0.62915699999999997</v>
       </c>
@@ -61216,7 +61263,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D290">
         <v>0.629467</v>
       </c>
@@ -61224,7 +61271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D291">
         <v>0.62976500000000002</v>
       </c>
@@ -61232,7 +61279,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D292">
         <v>0.63005100000000003</v>
       </c>
@@ -61247,6 +61294,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -61475,24 +61539,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4939B2-3627-4E93-BC4B-BD461E5F2223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61509,29 +61581,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\CaCl2 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B130AD-2912-42DE-961A-FA8A4F901D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="785" firstSheet="1" activeTab="1" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="785" firstSheet="1" activeTab="1" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="New experimental Values" sheetId="4" r:id="rId1"/>
@@ -23047,24 +23047,24 @@
       <selection activeCell="AI11" sqref="AI11:AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -23125,7 +23125,7 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1E-3</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>0.95520000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.01</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>0.88929999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>0.85580000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
@@ -23680,7 +23680,7 @@
         <v>0.83379999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>0.82430000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -24013,7 +24013,7 @@
         <v>0.8196</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.3</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>0.82930000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.4</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>0.85929999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.6</v>
       </c>
@@ -24457,7 +24457,7 @@
         <v>0.87749999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.7</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>0.8972</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.8</v>
       </c>
@@ -24679,7 +24679,7 @@
         <v>0.91830000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.9</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>0.9405</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>0.96360000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.2</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.4</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1.6</v>
       </c>
@@ -25234,7 +25234,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1.8</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2.25</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>1.298</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2.5</v>
       </c>
@@ -25678,7 +25678,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2.75</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -25900,7 +25900,7 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3.25</v>
       </c>
@@ -26011,7 +26011,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>3.5</v>
       </c>
@@ -26122,7 +26122,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>3.75</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>1.7270000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>1.794</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.25</v>
       </c>
@@ -26455,7 +26455,7 @@
         <v>1.8580000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4.5</v>
       </c>
@@ -26566,7 +26566,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4.75</v>
       </c>
@@ -26677,7 +26677,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>5.5</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -27010,7 +27010,7 @@
         <v>2.194</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6.5</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7.5</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>2.2730000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>8.5</v>
       </c>
@@ -27554,7 +27554,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -27669,45 +27669,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047C7D3F-5D75-4052-8CB1-7588824F9D31}">
   <dimension ref="A1:AW173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BG27" sqref="BG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="7.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="11.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="5"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="5"/>
-    <col min="27" max="27" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="5"/>
+    <col min="12" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="7.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" style="1"/>
+    <col min="16" max="16" width="11.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.90625" style="5"/>
+    <col min="21" max="21" width="9.08984375" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" customWidth="1"/>
+    <col min="24" max="24" width="8.90625" style="5"/>
+    <col min="27" max="27" width="8.90625" style="5"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" style="5" customWidth="1"/>
     <col min="33" max="34" width="12" customWidth="1"/>
     <col min="35" max="35" width="12" style="7" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.21875" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="5"/>
-    <col min="42" max="44" width="21.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.1796875" customWidth="1"/>
+    <col min="40" max="40" width="8.90625" style="5"/>
+    <col min="42" max="44" width="21.54296875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
@@ -27726,7 +27726,7 @@
       <c r="AI1"/>
       <c r="AN1"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="J2"/>
       <c r="M2" s="4" t="s">
         <v>2</v>
@@ -27749,7 +27749,7 @@
       <c r="AI2" s="1"/>
       <c r="AN2"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="H3" s="1"/>
       <c r="J3"/>
       <c r="M3" s="4" t="s">
@@ -27773,7 +27773,7 @@
       <c r="AI3" s="1"/>
       <c r="AN3"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="J4"/>
       <c r="T4"/>
       <c r="X4"/>
@@ -27790,7 +27790,7 @@
       <c r="AI4" s="1"/>
       <c r="AN4"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="T5"/>
       <c r="X5"/>
@@ -27799,7 +27799,7 @@
       <c r="AI5"/>
       <c r="AN5"/>
     </row>
-    <row r="6" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -27915,7 +27915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -28059,7 +28059,7 @@
         <v>0.8639</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -28345,7 +28345,7 @@
         <v>0.89829999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>0.91969999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.6</v>
       </c>
@@ -28637,7 +28637,7 @@
         <v>0.94289999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -28783,7 +28783,7 @@
         <v>0.96760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.8</v>
       </c>
@@ -28929,7 +28929,7 @@
         <v>0.99380000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.9</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.2</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.4</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.6</v>
       </c>
@@ -29691,7 +29691,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.8</v>
       </c>
@@ -29845,7 +29845,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -29999,7 +29999,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2.25</v>
       </c>
@@ -30147,7 +30147,7 @@
         <v>1.4890000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2.5</v>
       </c>
@@ -30295,7 +30295,7 @@
         <v>1.591</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2.75</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -30591,7 +30591,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3.25</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>3.5</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>2.0270000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>3.75</v>
       </c>
@@ -31035,7 +31035,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.3</v>
       </c>
@@ -31175,7 +31175,7 @@
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.4</v>
       </c>
@@ -31315,7 +31315,7 @@
         <v>0.89539999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -31455,7 +31455,7 @@
         <v>0.91669999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.6</v>
       </c>
@@ -31595,7 +31595,7 @@
         <v>0.93989999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.7</v>
       </c>
@@ -31735,7 +31735,7 @@
         <v>0.96460000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.8</v>
       </c>
@@ -31875,7 +31875,7 @@
         <v>0.99070000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.9</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -32163,7 +32163,7 @@
         <v>1.046</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1.2</v>
       </c>
@@ -32311,7 +32311,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1.4</v>
       </c>
@@ -32459,7 +32459,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1.6</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1.8</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -32903,7 +32903,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2.25</v>
       </c>
@@ -33051,7 +33051,7 @@
         <v>1.4770000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2.5</v>
       </c>
@@ -33199,7 +33199,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2.75</v>
       </c>
@@ -33347,7 +33347,7 @@
         <v>1.677</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -33495,7 +33495,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>3.25</v>
       </c>
@@ -33643,7 +33643,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>3.5</v>
       </c>
@@ -33791,7 +33791,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>3.75</v>
       </c>
@@ -33939,7 +33939,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.2</v>
       </c>
@@ -34079,7 +34079,7 @@
         <v>0.85970000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.3</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.4</v>
       </c>
@@ -34359,7 +34359,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.5</v>
       </c>
@@ -34499,7 +34499,7 @@
         <v>0.91479999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.6</v>
       </c>
@@ -34639,7 +34639,7 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0.7</v>
       </c>
@@ -34779,7 +34779,7 @@
         <v>0.96240000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.8</v>
       </c>
@@ -34919,7 +34919,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.9</v>
       </c>
@@ -35059,7 +35059,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -35207,7 +35207,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1.2</v>
       </c>
@@ -35355,7 +35355,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1.4</v>
       </c>
@@ -35503,7 +35503,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1.6</v>
       </c>
@@ -35651,7 +35651,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.8</v>
       </c>
@@ -35799,7 +35799,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -35947,7 +35947,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2.25</v>
       </c>
@@ -36095,7 +36095,7 @@
         <v>1.4690000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2.5</v>
       </c>
@@ -36235,7 +36235,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2.75</v>
       </c>
@@ -36383,7 +36383,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -36531,7 +36531,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>3.25</v>
       </c>
@@ -36679,7 +36679,7 @@
         <v>1.871</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>3.5</v>
       </c>
@@ -36827,7 +36827,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>3.75</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>2.0790000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>0.2</v>
       </c>
@@ -37115,7 +37115,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.3</v>
       </c>
@@ -37255,7 +37255,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.4</v>
       </c>
@@ -37395,7 +37395,7 @@
         <v>0.89159999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>0.5</v>
       </c>
@@ -37535,7 +37535,7 @@
         <v>0.91259999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>0.6</v>
       </c>
@@ -37675,7 +37675,7 @@
         <v>0.93540000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>0.7</v>
       </c>
@@ -37815,7 +37815,7 @@
         <v>0.95979999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>0.8</v>
       </c>
@@ -37955,7 +37955,7 @@
         <v>0.98560000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>0.9</v>
       </c>
@@ -38095,7 +38095,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -38243,7 +38243,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1.2</v>
       </c>
@@ -38391,7 +38391,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1.4</v>
       </c>
@@ -38539,7 +38539,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>1.6</v>
       </c>
@@ -38687,7 +38687,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1.8</v>
       </c>
@@ -38835,7 +38835,7 @@
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -38983,7 +38983,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2.25</v>
       </c>
@@ -39131,7 +39131,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2.5</v>
       </c>
@@ -39279,7 +39279,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2.75</v>
       </c>
@@ -39427,7 +39427,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -39575,7 +39575,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>3.25</v>
       </c>
@@ -39723,7 +39723,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3.5</v>
       </c>
@@ -39871,7 +39871,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>3.75</v>
       </c>
@@ -40019,7 +40019,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>0.2</v>
       </c>
@@ -40159,7 +40159,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>0.3</v>
       </c>
@@ -40299,7 +40299,7 @@
         <v>0.86870000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>0.4</v>
       </c>
@@ -40439,7 +40439,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>0.5</v>
       </c>
@@ -40579,7 +40579,7 @@
         <v>0.90739999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>0.6</v>
       </c>
@@ -40719,7 +40719,7 @@
         <v>0.92979999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>0.7</v>
       </c>
@@ -40859,7 +40859,7 @@
         <v>0.95369999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>0.8</v>
       </c>
@@ -40999,7 +40999,7 @@
         <v>0.97889999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>0.9</v>
       </c>
@@ -41139,7 +41139,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -41287,7 +41287,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1.2</v>
       </c>
@@ -41435,7 +41435,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1.4</v>
       </c>
@@ -41583,7 +41583,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1.6</v>
       </c>
@@ -41731,7 +41731,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1.8</v>
       </c>
@@ -41879,7 +41879,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -42027,7 +42027,7 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2.25</v>
       </c>
@@ -42175,7 +42175,7 @@
         <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2.5</v>
       </c>
@@ -42323,7 +42323,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2.75</v>
       </c>
@@ -42471,7 +42471,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -42619,7 +42619,7 @@
         <v>1.722</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>3.25</v>
       </c>
@@ -42767,7 +42767,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3.5</v>
       </c>
@@ -42915,7 +42915,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3.75</v>
       </c>
@@ -43063,7 +43063,7 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>0.2</v>
       </c>
@@ -43203,7 +43203,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>0.3</v>
       </c>
@@ -43343,7 +43343,7 @@
         <v>0.86370000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>0.4</v>
       </c>
@@ -43483,7 +43483,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>0.5</v>
       </c>
@@ -43623,7 +43623,7 @@
         <v>0.90129999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>0.6</v>
       </c>
@@ -43763,7 +43763,7 @@
         <v>0.92310000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>0.7</v>
       </c>
@@ -43903,7 +43903,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>0.8</v>
       </c>
@@ -44043,7 +44043,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>0.9</v>
       </c>
@@ -44191,7 +44191,7 @@
         <v>0.99680000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -44339,7 +44339,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>1.2</v>
       </c>
@@ -44487,7 +44487,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>1.4</v>
       </c>
@@ -44635,7 +44635,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>1.6</v>
       </c>
@@ -44783,7 +44783,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>1.8</v>
       </c>
@@ -44931,7 +44931,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -45079,7 +45079,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2.25</v>
       </c>
@@ -45227,7 +45227,7 @@
         <v>1.419</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2.5</v>
       </c>
@@ -45375,7 +45375,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2.75</v>
       </c>
@@ -45523,7 +45523,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -45671,7 +45671,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>3.25</v>
       </c>
@@ -45819,7 +45819,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>3.5</v>
       </c>
@@ -45967,7 +45967,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>3.75</v>
       </c>
@@ -46115,7 +46115,7 @@
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>0.2</v>
       </c>
@@ -46255,7 +46255,7 @@
         <v>0.8448</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>0.3</v>
       </c>
@@ -46395,7 +46395,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>0.4</v>
       </c>
@@ -46535,7 +46535,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>0.5</v>
       </c>
@@ -46675,7 +46675,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>0.6</v>
       </c>
@@ -46815,7 +46815,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>0.7</v>
       </c>
@@ -46955,7 +46955,7 @@
         <v>0.93810000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>0.8</v>
       </c>
@@ -47095,7 +47095,7 @@
         <v>0.96209999999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>0.9</v>
       </c>
@@ -47235,7 +47235,7 @@
         <v>0.98709999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -47383,7 +47383,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>1.2</v>
       </c>
@@ -47531,7 +47531,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>1.4</v>
       </c>
@@ -47679,7 +47679,7 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>1.6</v>
       </c>
@@ -47827,7 +47827,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>1.8</v>
       </c>
@@ -47975,7 +47975,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -48123,7 +48123,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>2.25</v>
       </c>
@@ -48271,7 +48271,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>2.5</v>
       </c>
@@ -48419,7 +48419,7 @@
         <v>1.4810000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>2.75</v>
       </c>
@@ -48567,7 +48567,7 @@
         <v>1.5680000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -48715,7 +48715,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>3.25</v>
       </c>
@@ -48863,7 +48863,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>3.5</v>
       </c>
@@ -49011,7 +49011,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>3.75</v>
       </c>
@@ -49159,7 +49159,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>0.2</v>
       </c>
@@ -49299,7 +49299,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>0.3</v>
       </c>
@@ -49439,7 +49439,7 @@
         <v>0.8518</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>0.4</v>
       </c>
@@ -49579,7 +49579,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>0.5</v>
       </c>
@@ -49719,7 +49719,7 @@
         <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>0.6</v>
       </c>
@@ -49859,7 +49859,7 @@
         <v>0.90710000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>0.7</v>
       </c>
@@ -49999,7 +49999,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>0.8</v>
       </c>
@@ -50139,7 +50139,7 @@
         <v>0.95220000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>0.9</v>
       </c>
@@ -50279,7 +50279,7 @@
         <v>0.97650000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -50427,7 +50427,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>1.2</v>
       </c>
@@ -50575,7 +50575,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>1.4</v>
       </c>
@@ -50723,7 +50723,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>1.6</v>
       </c>
@@ -50871,7 +50871,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>1.8</v>
       </c>
@@ -51019,7 +51019,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -51167,7 +51167,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>2.25</v>
       </c>
@@ -51315,7 +51315,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>2.5</v>
       </c>
@@ -51463,7 +51463,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>2.75</v>
       </c>
@@ -51611,7 +51611,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>3</v>
       </c>
@@ -51759,7 +51759,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>3.25</v>
       </c>
@@ -51907,7 +51907,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>3.5</v>
       </c>
@@ -52055,7 +52055,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>3.75</v>
       </c>
@@ -52217,13 +52217,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -52231,7 +52231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -52240,7 +52240,7 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -52251,7 +52251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1.64413171449595E-2</v>
       </c>
@@ -52263,7 +52263,7 @@
         <v>8.8704358092670042E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.43253311258278199</v>
       </c>
@@ -52275,7 +52275,7 @@
         <v>2.2823699760963937E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1.0052198307578999</v>
       </c>
@@ -52287,7 +52287,7 @@
         <v>5.1487057077629544E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1.4732799852832901</v>
       </c>
@@ -52299,7 +52299,7 @@
         <v>7.3694219407179337E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1.99353844738778</v>
       </c>
@@ -52311,7 +52311,7 @@
         <v>9.7188616953497134E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2.4614836276674001</v>
       </c>
@@ -52323,7 +52323,7 @@
         <v>0.11732523240541651</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2.8251471670345798</v>
       </c>
@@ -52335,7 +52335,7 @@
         <v>0.13236466540735028</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>3.13695732155997</v>
       </c>
@@ -52347,7 +52347,7 @@
         <v>0.14485746444575009</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>3.5006208609271501</v>
       </c>
@@ -52359,7 +52359,7 @@
         <v>0.15898082121206311</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>3.6038677336276601</v>
       </c>
@@ -52371,7 +52371,7 @@
         <v>0.16290592219806463</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>3.96753127299485</v>
       </c>
@@ -52383,7 +52383,7 @@
         <v>0.17644412023370443</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>3.96810614422369</v>
       </c>
@@ -52395,7 +52395,7 @@
         <v>0.17646517446428464</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>4.1250459896983003</v>
       </c>
@@ -52407,7 +52407,7 @@
         <v>0.18217299613766277</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>4.3338392200147098</v>
       </c>
@@ -52419,7 +52419,7 @@
         <v>0.18964516789036034</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>4.3346440397350996</v>
       </c>
@@ -52431,7 +52431,7 @@
         <v>0.18967370615274448</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>4.5435522442972696</v>
       </c>
@@ -52443,7 +52443,7 @@
         <v>0.19701406222476264</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>4.7006070640176603</v>
       </c>
@@ -52455,7 +52455,7 @@
         <v>0.20244548173481314</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>4.8054635761589397</v>
       </c>
@@ -52467,7 +52467,7 @@
         <v>0.20603100948424874</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>5.0146017292126501</v>
       </c>
@@ -52479,7 +52479,7 @@
         <v>0.21308698873861018</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5.0676048565121397</v>
       </c>
@@ -52491,7 +52491,7 @@
         <v>0.21485535269763475</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>5.3288263428991902</v>
       </c>
@@ -52503,7 +52503,7 @@
         <v>0.22345575047730468</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>5.6420161883738</v>
       </c>
@@ -52515,7 +52515,7 @@
         <v>0.2335219918276184</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>5.9030077262693101</v>
       </c>
@@ -52527,7 +52527,7 @@
         <v>0.24171330108940928</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>6.2683958793230303</v>
       </c>
@@ -52539,7 +52539,7 @@
         <v>0.25289133527119789</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>6.4773040838852101</v>
       </c>
@@ -52551,7 +52551,7 @@
         <v>0.25913546382995689</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>7.0510255702722597</v>
       </c>
@@ -52563,7 +52563,7 @@
         <v>0.27575875212273737</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>7.2594738778513603</v>
       </c>
@@ -52575,7 +52575,7 @@
         <v>0.28161517647408635</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>7.52023546725533</v>
       </c>
@@ -52587,7 +52587,7 @@
         <v>0.28880934438583261</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>7.9369021339219996</v>
       </c>
@@ -52599,7 +52599,7 @@
         <v>0.30001043030815761</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>8.45819536423841</v>
       </c>
@@ -52611,7 +52611,7 @@
         <v>0.3135369044946853</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>8.77069536423841</v>
       </c>
@@ -52623,7 +52623,7 @@
         <v>0.32139787543606363</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>9.0836552612214891</v>
       </c>
@@ -52635,7 +52635,7 @@
         <v>0.3290920249146787</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>9.1878219278881499</v>
       </c>
@@ -52647,7 +52647,7 @@
         <v>0.33161441676718256</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>9.5528651582045594</v>
       </c>
@@ -52659,7 +52659,7 @@
         <v>0.34030617329796392</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>10.0741583885209</v>
       </c>
@@ -52671,7 +52671,7 @@
         <v>0.35233351607035707</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>10.491055003679101</v>
       </c>
@@ -52683,7 +52683,7 @@
         <v>0.36164113187157093</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>11.0123482339955</v>
       </c>
@@ -52695,7 +52695,7 @@
         <v>0.37290975325192577</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>11.533411515820401</v>
       </c>
@@ -52707,7 +52707,7 @@
         <v>0.38378272219593601</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>11.690121412803499</v>
       </c>
@@ -52719,7 +52719,7 @@
         <v>0.38697940189894225</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>11.950768027961701</v>
       </c>
@@ -52731,7 +52731,7 @@
         <v>0.39222342832777096</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>12.0558544885945</v>
       </c>
@@ -52744,7 +52744,7 @@
         <v>0.39431240293267006</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>12.1616307947019</v>
       </c>
@@ -52756,7 +52756,7 @@
         <v>0.39640063907581174</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>12.5795621780721</v>
       </c>
@@ -52768,7 +52768,7 @@
         <v>0.40451249389970351</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>12.945640176600399</v>
       </c>
@@ -52780,7 +52780,7 @@
         <v>0.41144084931813785</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>13.5203964311994</v>
       </c>
@@ -52792,7 +52792,7 @@
         <v>0.42199919855021301</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>13.9906410963944</v>
       </c>
@@ -52804,7 +52804,7 @@
         <v>0.4303599743001808</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>14.7215323767476</v>
       </c>
@@ -52816,7 +52816,7 @@
         <v>0.44288537412691403</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>15.138658940397301</v>
       </c>
@@ -52828,7 +52828,7 @@
         <v>0.44978991357420123</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>16.077308682855001</v>
       </c>
@@ -52840,7 +52840,7 @@
         <v>0.46471814618777785</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>16.599291758646</v>
       </c>
@@ -52852,7 +52852,7 @@
         <v>0.47267445286700427</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>17.433659860191302</v>
       </c>
@@ -52864,7 +52864,7 @@
         <v>0.48491247669474113</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>18.1631714495952</v>
       </c>
@@ -52876,7 +52876,7 @@
         <v>0.49515634272531867</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>19.1019361662987</v>
       </c>
@@ -52888,7 +52888,7 @@
         <v>0.50775399516922415</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>19.6228844738778</v>
       </c>
@@ -52900,7 +52900,7 @@
         <v>0.51447725920805065</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>20.0395511405445</v>
       </c>
@@ -52912,7 +52912,7 @@
         <v>0.5197239207703499</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>21.968014164827</v>
       </c>
@@ -52924,7 +52924,7 @@
         <v>0.54260053180260925</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>22.749379139072801</v>
       </c>
@@ -52936,7 +52936,7 @@
         <v>0.55126091781629694</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>22.957712472406101</v>
       </c>
@@ -52948,7 +52948,7 @@
         <v>0.55351491502276229</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>23.4790057027225</v>
       </c>
@@ -52961,7 +52961,7 @@
         <v>0.55905690009335263</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>24.208287343635</v>
       </c>
@@ -52973,7 +52973,7 @@
         <v>0.56658312867422123</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>25.042425496688701</v>
       </c>
@@ -52985,7 +52985,7 @@
         <v>0.57488252522595329</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>26.605960264900599</v>
       </c>
@@ -52997,7 +52997,7 @@
         <v>0.5896125779668151</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>27.336506622516499</v>
       </c>
@@ -53009,7 +53009,7 @@
         <v>0.59615072804863534</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>27.7014348785872</v>
       </c>
@@ -53021,7 +53021,7 @@
         <v>0.59933930786528788</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>27.9103430831493</v>
       </c>
@@ -53033,7 +53033,7 @@
         <v>0.60114209395447904</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>28.3283894407652</v>
       </c>
@@ -53045,7 +53045,7 @@
         <v>0.60470137037403593</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>29.1631024650478</v>
       </c>
@@ -53057,7 +53057,7 @@
         <v>0.6116214563070117</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>29.476177336276599</v>
       </c>
@@ -53069,7 +53069,7 @@
         <v>0.61415489381274313</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>29.6847406181015</v>
       </c>
@@ -53081,7 +53081,7 @@
         <v>0.61582434776801231</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>29.790516924208902</v>
       </c>
@@ -53093,7 +53093,7 @@
         <v>0.61666552956800236</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>28.279525386313399</v>
       </c>
@@ -53105,7 +53105,7 @@
         <v>0.60428862034965369</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>8.5599475717439297</v>
       </c>
@@ -53117,7 +53117,7 @@
         <v>0.31611641306455429</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>8.7688557763061095</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>0.32135212723524031</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>8.9771891096394398</v>
       </c>
@@ -53141,7 +53141,7 @@
         <v>0.32649420160570913</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>9.4466289551140505</v>
       </c>
@@ -53153,7 +53153,7 @@
         <v>0.3378000764709348</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>9.7594738778513594</v>
       </c>
@@ -53165,7 +53165,7 @@
         <v>0.34512612285390565</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>10.020580389992601</v>
       </c>
@@ -53177,7 +53177,7 @@
         <v>0.35111761664641056</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>10.1770603384841</v>
       </c>
@@ -53189,7 +53189,7 @@
         <v>0.35465603914801597</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>10.4377069536423</v>
       </c>
@@ -53201,7 +53201,7 @@
         <v>0.36046503932901586</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>10.959115158204501</v>
       </c>
@@ -53213,7 +53213,7 @@
         <v>0.37177730337487552</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>11.4800634657836</v>
       </c>
@@ -53225,7 +53225,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>11.689086644591599</v>
       </c>
@@ -53237,7 +53237,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>7.8307809050772601</v>
       </c>
@@ -53249,7 +53249,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>7.8310108535687997</v>
       </c>
@@ -53261,7 +53261,7 @@
         <v>0.29719737088983367</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>11.4800634657836</v>
       </c>
@@ -53273,7 +53273,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>11.689086644591599</v>
       </c>
@@ -53285,7 +53285,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>7.8307809050772601</v>
       </c>
@@ -53297,7 +53297,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>7.8310108535687997</v>
       </c>
@@ -53319,17 +53319,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95629340-61D3-4716-B0EA-CDFB81940B7F}">
   <dimension ref="A1:T132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P4" sqref="P4:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -53337,7 +53337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -53363,7 +53363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -53407,7 +53407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -53451,7 +53451,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -53495,7 +53495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -53539,7 +53539,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -53583,7 +53583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -53627,7 +53627,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -53671,7 +53671,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -53715,7 +53715,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -53759,7 +53759,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -53803,7 +53803,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -53847,7 +53847,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -53891,7 +53891,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -53935,7 +53935,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -53979,7 +53979,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -54023,7 +54023,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -54067,7 +54067,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -54111,7 +54111,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -54155,7 +54155,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -54199,7 +54199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -54243,7 +54243,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -54287,7 +54287,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -54331,7 +54331,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -54375,7 +54375,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -54419,7 +54419,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -54463,7 +54463,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -54501,7 +54501,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -54539,7 +54539,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -54577,7 +54577,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -54615,7 +54615,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -54653,7 +54653,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -54685,7 +54685,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -54705,7 +54705,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -54737,7 +54737,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -54769,7 +54769,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -54801,7 +54801,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -54827,7 +54827,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -54891,7 +54891,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -54923,7 +54923,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -54955,7 +54955,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -54987,7 +54987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -55019,7 +55019,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -55045,7 +55045,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -55071,7 +55071,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -55097,7 +55097,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -55123,7 +55123,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -55149,7 +55149,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -55169,7 +55169,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -55189,7 +55189,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -55203,7 +55203,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -55217,7 +55217,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -55231,7 +55231,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -55245,7 +55245,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -55259,7 +55259,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -55273,7 +55273,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -55287,7 +55287,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -55301,7 +55301,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -55315,7 +55315,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -55329,7 +55329,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -55343,7 +55343,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -55357,7 +55357,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -55371,7 +55371,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -55385,7 +55385,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -55399,7 +55399,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -55413,7 +55413,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -55427,7 +55427,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -55441,7 +55441,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -55455,7 +55455,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -55469,7 +55469,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -55483,7 +55483,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -55497,7 +55497,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -55511,7 +55511,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -55525,7 +55525,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -55539,7 +55539,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -55553,7 +55553,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -55561,7 +55561,7 @@
         <v>297.483443708609</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -55575,7 +55575,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -55589,7 +55589,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -55603,7 +55603,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -55617,7 +55617,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -55631,7 +55631,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -55645,7 +55645,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -55659,7 +55659,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -55673,7 +55673,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -55687,7 +55687,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -55701,7 +55701,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -55715,7 +55715,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -55729,7 +55729,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.48119800000000001</v>
       </c>
@@ -55737,7 +55737,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.48283300000000001</v>
       </c>
@@ -55745,7 +55745,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.48448600000000003</v>
       </c>
@@ -55753,7 +55753,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.48615599999999998</v>
       </c>
@@ -55761,7 +55761,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.48784499999999997</v>
       </c>
@@ -55769,7 +55769,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.48955199999999999</v>
       </c>
@@ -55777,7 +55777,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.49127700000000002</v>
       </c>
@@ -55785,7 +55785,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.49302000000000001</v>
       </c>
@@ -55793,7 +55793,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.49478100000000003</v>
       </c>
@@ -55801,7 +55801,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.49655899999999997</v>
       </c>
@@ -55809,7 +55809,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.49835600000000002</v>
       </c>
@@ -55817,7 +55817,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.50017100000000003</v>
       </c>
@@ -55825,7 +55825,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.50200400000000001</v>
       </c>
@@ -55833,7 +55833,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.50385500000000005</v>
       </c>
@@ -55841,7 +55841,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.50572399999999995</v>
       </c>
@@ -55849,7 +55849,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.50761100000000003</v>
       </c>
@@ -55857,7 +55857,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.50951500000000005</v>
       </c>
@@ -55865,7 +55865,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.51143799999999995</v>
       </c>
@@ -55873,7 +55873,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.51337900000000003</v>
       </c>
@@ -55881,7 +55881,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.51533799999999996</v>
       </c>
@@ -55889,7 +55889,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.51731499999999997</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.51931000000000005</v>
       </c>
@@ -55905,7 +55905,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.52132299999999998</v>
       </c>
@@ -55913,7 +55913,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.52335399999999999</v>
       </c>
@@ -55921,7 +55921,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.52540299999999995</v>
       </c>
@@ -55929,7 +55929,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.52746899999999997</v>
       </c>
@@ -55937,7 +55937,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.52955399999999997</v>
       </c>
@@ -55945,7 +55945,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.53165700000000005</v>
       </c>
@@ -55953,7 +55953,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.53377799999999997</v>
       </c>
@@ -55961,7 +55961,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.53591699999999998</v>
       </c>
@@ -55969,7 +55969,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.53807400000000005</v>
       </c>
@@ -55977,7 +55977,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.54024899999999998</v>
       </c>
@@ -55985,7 +55985,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.54244199999999998</v>
       </c>
@@ -55993,7 +55993,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.54465300000000005</v>
       </c>
@@ -56001,7 +56001,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.54688199999999998</v>
       </c>
@@ -56009,7 +56009,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.54912899999999998</v>
       </c>
@@ -56017,7 +56017,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.55139400000000005</v>
       </c>
@@ -56025,7 +56025,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.55367699999999997</v>
       </c>
@@ -56033,7 +56033,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.55597700000000005</v>
       </c>
@@ -56041,7 +56041,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.55829600000000001</v>
       </c>
@@ -56049,7 +56049,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.56063300000000005</v>
       </c>
@@ -56057,7 +56057,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.56298800000000004</v>
       </c>
@@ -56079,9 +56079,9 @@
       <selection activeCell="A24" sqref="A24:B313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.122618</v>
       </c>
@@ -56089,7 +56089,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.118628</v>
       </c>
@@ -56097,7 +56097,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.114498</v>
       </c>
@@ -56105,7 +56105,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.11022800000000001</v>
       </c>
@@ -56113,7 +56113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.105818</v>
       </c>
@@ -56121,7 +56121,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.101268</v>
       </c>
@@ -56129,7 +56129,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9.6577800000000005E-2</v>
       </c>
@@ -56137,7 +56137,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9.1747800000000004E-2</v>
       </c>
@@ -56145,7 +56145,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8.6777900000000005E-2</v>
       </c>
@@ -56153,7 +56153,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8.1667900000000002E-2</v>
       </c>
@@ -56161,7 +56161,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7.6417899999999997E-2</v>
       </c>
@@ -56169,7 +56169,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7.1027999999999994E-2</v>
       </c>
@@ -56177,7 +56177,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6.5498000000000001E-2</v>
       </c>
@@ -56185,7 +56185,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5.9827999999999999E-2</v>
       </c>
@@ -56193,7 +56193,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5.4018099999999999E-2</v>
       </c>
@@ -56201,7 +56201,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.8068100000000002E-2</v>
       </c>
@@ -56209,7 +56209,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4.1978099999999997E-2</v>
       </c>
@@ -56217,7 +56217,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3.5748200000000001E-2</v>
       </c>
@@ -56225,7 +56225,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2.93782E-2</v>
       </c>
@@ -56233,7 +56233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.2868200000000002E-2</v>
       </c>
@@ -56241,7 +56241,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.6218300000000001E-2</v>
       </c>
@@ -56249,7 +56249,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>9.4282900000000006E-3</v>
       </c>
@@ -56257,7 +56257,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.4978700000000001E-3</v>
       </c>
@@ -56265,7 +56265,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.20586699999999999</v>
       </c>
@@ -56273,7 +56273,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.20577699999999999</v>
       </c>
@@ -56281,7 +56281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.20574700000000001</v>
       </c>
@@ -56289,7 +56289,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.20577699999999999</v>
       </c>
@@ -56297,7 +56297,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.20586699999999999</v>
       </c>
@@ -56305,7 +56305,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.20601700000000001</v>
       </c>
@@ -56313,7 +56313,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.20622699999999999</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.20649700000000001</v>
       </c>
@@ -56329,7 +56329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.20682700000000001</v>
       </c>
@@ -56337,7 +56337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.20721700000000001</v>
       </c>
@@ -56345,7 +56345,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.20766699999999999</v>
       </c>
@@ -56353,7 +56353,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.208177</v>
       </c>
@@ -56361,7 +56361,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.20874699999999999</v>
       </c>
@@ -56369,7 +56369,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.20937700000000001</v>
       </c>
@@ -56377,7 +56377,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.210067</v>
       </c>
@@ -56385,7 +56385,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.210817</v>
       </c>
@@ -56393,7 +56393,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.21162700000000001</v>
       </c>
@@ -56401,7 +56401,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.21249699999999999</v>
       </c>
@@ -56409,7 +56409,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.21342700000000001</v>
       </c>
@@ -56417,7 +56417,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.214417</v>
       </c>
@@ -56425,7 +56425,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.21546699999999999</v>
       </c>
@@ -56433,7 +56433,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.21657699999999999</v>
       </c>
@@ -56441,7 +56441,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.217747</v>
       </c>
@@ -56449,7 +56449,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.218977</v>
       </c>
@@ -56457,7 +56457,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.22026699999999999</v>
       </c>
@@ -56465,7 +56465,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.22161700000000001</v>
       </c>
@@ -56473,7 +56473,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.223027</v>
       </c>
@@ -56481,7 +56481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.224497</v>
       </c>
@@ -56489,7 +56489,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.22602700000000001</v>
       </c>
@@ -56497,7 +56497,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.22761600000000001</v>
       </c>
@@ -56505,7 +56505,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.23097599999999999</v>
       </c>
@@ -56513,7 +56513,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.23274600000000001</v>
       </c>
@@ -56521,7 +56521,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.23457600000000001</v>
       </c>
@@ -56529,7 +56529,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.23841599999999999</v>
       </c>
@@ -56537,7 +56537,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.240426</v>
       </c>
@@ -56545,7 +56545,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.24249599999999999</v>
       </c>
@@ -56553,7 +56553,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.24462600000000001</v>
       </c>
@@ -56561,7 +56561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.24681600000000001</v>
       </c>
@@ -56569,7 +56569,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.24906600000000001</v>
       </c>
@@ -56577,7 +56577,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.25137599999999999</v>
       </c>
@@ -56585,7 +56585,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.25374600000000003</v>
       </c>
@@ -56593,7 +56593,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.25617600000000001</v>
       </c>
@@ -56601,7 +56601,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.25866600000000001</v>
       </c>
@@ -56609,7 +56609,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.261216</v>
       </c>
@@ -56617,7 +56617,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.263826</v>
       </c>
@@ -56625,7 +56625,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.26649600000000001</v>
       </c>
@@ -56633,7 +56633,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.25929600000000003</v>
       </c>
@@ -56641,7 +56641,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.26374999999999998</v>
       </c>
@@ -56649,7 +56649,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.26819199999999999</v>
       </c>
@@ -56657,7 +56657,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.27262199999999998</v>
       </c>
@@ -56665,7 +56665,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.27704000000000001</v>
       </c>
@@ -56673,7 +56673,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.281445</v>
       </c>
@@ -56681,7 +56681,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.28583900000000001</v>
       </c>
@@ -56689,7 +56689,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.29022100000000001</v>
       </c>
@@ -56697,7 +56697,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.29459099999999999</v>
       </c>
@@ -56705,7 +56705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.29894900000000002</v>
       </c>
@@ -56713,7 +56713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.30329499999999998</v>
       </c>
@@ -56721,7 +56721,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.30762899999999999</v>
       </c>
@@ -56729,7 +56729,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.31195000000000001</v>
       </c>
@@ -56737,7 +56737,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.31625999999999999</v>
       </c>
@@ -56745,7 +56745,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.32055800000000001</v>
       </c>
@@ -56753,7 +56753,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.32484400000000002</v>
       </c>
@@ -56761,7 +56761,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.32911699999999999</v>
       </c>
@@ -56769,7 +56769,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.33337899999999998</v>
       </c>
@@ -56777,7 +56777,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.33762900000000001</v>
       </c>
@@ -56785,7 +56785,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.341866</v>
       </c>
@@ -56793,7 +56793,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.34609200000000001</v>
       </c>
@@ -56801,7 +56801,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.35030600000000001</v>
       </c>
@@ -56809,7 +56809,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.35450700000000002</v>
       </c>
@@ -56817,7 +56817,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.35869600000000001</v>
       </c>
@@ -56825,7 +56825,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.36287399999999997</v>
       </c>
@@ -56833,7 +56833,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.367039</v>
       </c>
@@ -56841,7 +56841,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.37119200000000002</v>
       </c>
@@ -56849,7 +56849,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.37533300000000003</v>
       </c>
@@ -56857,7 +56857,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.37946200000000002</v>
       </c>
@@ -56865,7 +56865,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.407802</v>
       </c>
@@ -56873,7 +56873,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.40787000000000001</v>
       </c>
@@ -56881,7 +56881,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.40795700000000001</v>
       </c>
@@ -56889,7 +56889,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.40806100000000001</v>
       </c>
@@ -56897,7 +56897,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.40818399999999999</v>
       </c>
@@ -56905,7 +56905,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.40832400000000002</v>
       </c>
@@ -56913,7 +56913,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.40848200000000001</v>
       </c>
@@ -56921,7 +56921,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.40865800000000002</v>
       </c>
@@ -56929,7 +56929,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.40885199999999999</v>
       </c>
@@ -56937,7 +56937,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.40906300000000001</v>
       </c>
@@ -56945,7 +56945,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.40929300000000002</v>
       </c>
@@ -56953,7 +56953,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.40954000000000002</v>
       </c>
@@ -56961,7 +56961,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.40980499999999997</v>
       </c>
@@ -56969,7 +56969,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.41008800000000001</v>
       </c>
@@ -56977,7 +56977,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.41038799999999998</v>
       </c>
@@ -56985,7 +56985,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.41070600000000002</v>
       </c>
@@ -56993,7 +56993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.41104200000000002</v>
       </c>
@@ -57001,7 +57001,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.41139500000000001</v>
       </c>
@@ -57009,7 +57009,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.41176499999999999</v>
       </c>
@@ -57017,7 +57017,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.41215299999999999</v>
       </c>
@@ -57025,7 +57025,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.41255700000000001</v>
       </c>
@@ -57033,7 +57033,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.41297800000000001</v>
       </c>
@@ -57041,7 +57041,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.41341499999999998</v>
       </c>
@@ -57049,7 +57049,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.41386699999999998</v>
       </c>
@@ -57057,7 +57057,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.41433300000000001</v>
       </c>
@@ -57065,7 +57065,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.41481099999999999</v>
       </c>
@@ -57073,7 +57073,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.415296</v>
       </c>
@@ -57081,7 +57081,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.41577999999999998</v>
       </c>
@@ -57089,7 +57089,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.41623700000000002</v>
       </c>
@@ -57097,7 +57097,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.416578</v>
       </c>
@@ -57105,7 +57105,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.419819</v>
       </c>
@@ -57113,7 +57113,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.41950100000000001</v>
       </c>
@@ -57121,7 +57121,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.41993999999999998</v>
       </c>
@@ -57129,7 +57129,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.42051300000000003</v>
       </c>
@@ -57137,7 +57137,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.42114299999999999</v>
       </c>
@@ -57145,7 +57145,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.42181000000000002</v>
       </c>
@@ -57153,7 +57153,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.42250500000000002</v>
       </c>
@@ -57161,7 +57161,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.42322300000000002</v>
       </c>
@@ -57169,7 +57169,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.42396400000000001</v>
       </c>
@@ -57177,7 +57177,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.42472500000000002</v>
       </c>
@@ -57185,7 +57185,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.425506</v>
       </c>
@@ -57193,7 +57193,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.42630600000000002</v>
       </c>
@@ -57201,7 +57201,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.42712600000000001</v>
       </c>
@@ -57209,7 +57209,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.42796400000000001</v>
       </c>
@@ -57217,7 +57217,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.42882100000000001</v>
       </c>
@@ -57225,7 +57225,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.42969600000000002</v>
       </c>
@@ -57233,7 +57233,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.43058999999999997</v>
       </c>
@@ -57241,7 +57241,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.431502</v>
       </c>
@@ -57249,7 +57249,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.43243300000000001</v>
       </c>
@@ -57257,7 +57257,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.43338199999999999</v>
       </c>
@@ -57265,7 +57265,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.43434899999999999</v>
       </c>
@@ -57273,7 +57273,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.435334</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.436338</v>
       </c>
@@ -57289,7 +57289,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.437359</v>
       </c>
@@ -57297,7 +57297,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.43839899999999998</v>
       </c>
@@ -57305,7 +57305,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.43945699999999999</v>
       </c>
@@ -57313,7 +57313,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.44053199999999998</v>
       </c>
@@ -57321,7 +57321,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.44162600000000002</v>
       </c>
@@ -57329,7 +57329,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.44273800000000002</v>
       </c>
@@ -57337,7 +57337,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.44386900000000001</v>
       </c>
@@ -57345,7 +57345,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.445017</v>
       </c>
@@ -57353,7 +57353,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.446183</v>
       </c>
@@ -57361,7 +57361,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.44736700000000001</v>
       </c>
@@ -57369,7 +57369,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.44857000000000002</v>
       </c>
@@ -57377,7 +57377,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.44979000000000002</v>
       </c>
@@ -57385,7 +57385,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.45102799999999998</v>
       </c>
@@ -57393,7 +57393,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.45228499999999999</v>
       </c>
@@ -57401,7 +57401,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.45355899999999999</v>
       </c>
@@ -57409,7 +57409,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.45485199999999998</v>
       </c>
@@ -57417,7 +57417,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.45616200000000001</v>
       </c>
@@ -57425,7 +57425,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.45749099999999998</v>
       </c>
@@ -57433,7 +57433,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.45883699999999999</v>
       </c>
@@ -57441,7 +57441,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.460202</v>
       </c>
@@ -57449,7 +57449,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.46298499999999998</v>
       </c>
@@ -57457,7 +57457,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.46440399999999998</v>
       </c>
@@ -57465,7 +57465,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.46584100000000001</v>
       </c>
@@ -57473,7 +57473,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.46729500000000002</v>
       </c>
@@ -57481,7 +57481,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.46876800000000002</v>
       </c>
@@ -57489,7 +57489,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.47025899999999998</v>
       </c>
@@ -57497,7 +57497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.47176699999999999</v>
       </c>
@@ -57505,7 +57505,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.47329399999999999</v>
       </c>
@@ -57513,7 +57513,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.47483900000000001</v>
       </c>
@@ -57521,7 +57521,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.47640199999999999</v>
       </c>
@@ -57529,7 +57529,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.47798200000000002</v>
       </c>
@@ -57537,7 +57537,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.47958099999999998</v>
       </c>
@@ -57545,7 +57545,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0.48119800000000001</v>
       </c>
@@ -57553,7 +57553,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0.48283300000000001</v>
       </c>
@@ -57561,7 +57561,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0.48448600000000003</v>
       </c>
@@ -57569,7 +57569,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0.48615599999999998</v>
       </c>
@@ -57577,7 +57577,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0.48784499999999997</v>
       </c>
@@ -57585,7 +57585,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0.48955199999999999</v>
       </c>
@@ -57593,7 +57593,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0.49127700000000002</v>
       </c>
@@ -57601,7 +57601,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0.49302000000000001</v>
       </c>
@@ -57609,7 +57609,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0.49478100000000003</v>
       </c>
@@ -57617,7 +57617,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0.49655899999999997</v>
       </c>
@@ -57625,7 +57625,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0.49835600000000002</v>
       </c>
@@ -57633,7 +57633,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0.50017100000000003</v>
       </c>
@@ -57641,7 +57641,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0.50200400000000001</v>
       </c>
@@ -57649,7 +57649,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>0.50385500000000005</v>
       </c>
@@ -57657,7 +57657,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0.50572399999999995</v>
       </c>
@@ -57665,7 +57665,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0.50761100000000003</v>
       </c>
@@ -57673,7 +57673,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.50951500000000005</v>
       </c>
@@ -57681,7 +57681,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0.51143799999999995</v>
       </c>
@@ -57689,7 +57689,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0.51337900000000003</v>
       </c>
@@ -57697,7 +57697,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0.51533799999999996</v>
       </c>
@@ -57705,7 +57705,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0.51731499999999997</v>
       </c>
@@ -57713,7 +57713,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0.51931000000000005</v>
       </c>
@@ -57721,7 +57721,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0.52132299999999998</v>
       </c>
@@ -57729,7 +57729,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0.52335399999999999</v>
       </c>
@@ -57737,7 +57737,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0.52540299999999995</v>
       </c>
@@ -57745,7 +57745,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0.52746899999999997</v>
       </c>
@@ -57753,7 +57753,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0.52955399999999997</v>
       </c>
@@ -57761,7 +57761,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0.53165700000000005</v>
       </c>
@@ -57769,7 +57769,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0.53377799999999997</v>
       </c>
@@ -57777,7 +57777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0.53591699999999998</v>
       </c>
@@ -57785,7 +57785,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0.53807400000000005</v>
       </c>
@@ -57793,7 +57793,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0.54024899999999998</v>
       </c>
@@ -57801,7 +57801,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0.54244199999999998</v>
       </c>
@@ -57809,7 +57809,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0.54465300000000005</v>
       </c>
@@ -57817,7 +57817,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0.54688199999999998</v>
       </c>
@@ -57825,7 +57825,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0.54912899999999998</v>
       </c>
@@ -57833,7 +57833,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>0.55139400000000005</v>
       </c>
@@ -57841,7 +57841,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0.55367699999999997</v>
       </c>
@@ -57849,7 +57849,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0.55597700000000005</v>
       </c>
@@ -57857,7 +57857,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0.55829600000000001</v>
       </c>
@@ -57865,7 +57865,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>0.56063300000000005</v>
       </c>
@@ -57873,7 +57873,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0.56298800000000004</v>
       </c>
@@ -57881,7 +57881,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0.500413</v>
       </c>
@@ -57889,7 +57889,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>0.50360700000000003</v>
       </c>
@@ -57897,7 +57897,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0.50680499999999995</v>
       </c>
@@ -57905,7 +57905,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>0.51000699999999999</v>
       </c>
@@ -57913,7 +57913,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0.513212</v>
       </c>
@@ -57921,7 +57921,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0.51642200000000005</v>
       </c>
@@ -57929,7 +57929,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0.51963599999999999</v>
       </c>
@@ -57937,7 +57937,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>0.52285400000000004</v>
       </c>
@@ -57945,7 +57945,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>0.52607599999999999</v>
       </c>
@@ -57953,7 +57953,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>0.52930200000000005</v>
       </c>
@@ -57961,7 +57961,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>0.53253099999999998</v>
       </c>
@@ -57969,7 +57969,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>0.53576500000000005</v>
       </c>
@@ -57977,7 +57977,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>0.53900300000000001</v>
       </c>
@@ -57985,7 +57985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>0.54224499999999998</v>
       </c>
@@ -57993,7 +57993,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>0.54549099999999995</v>
       </c>
@@ -58001,7 +58001,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>0.54874100000000003</v>
       </c>
@@ -58009,7 +58009,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>0.55199500000000001</v>
       </c>
@@ -58017,7 +58017,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>0.555253</v>
       </c>
@@ -58025,7 +58025,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>0.55851499999999998</v>
       </c>
@@ -58033,7 +58033,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>0.56177999999999995</v>
       </c>
@@ -58041,7 +58041,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>0.56505000000000005</v>
       </c>
@@ -58049,7 +58049,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>0.56832400000000005</v>
       </c>
@@ -58057,7 +58057,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>0.57160200000000005</v>
       </c>
@@ -58065,7 +58065,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.57488399999999995</v>
       </c>
@@ -58073,7 +58073,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>0.60925099999999999</v>
       </c>
@@ -58081,7 +58081,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>0.61000500000000002</v>
       </c>
@@ -58089,7 +58089,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>0.61074700000000004</v>
       </c>
@@ -58097,7 +58097,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>0.61147700000000005</v>
       </c>
@@ -58105,7 +58105,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>0.61219500000000004</v>
       </c>
@@ -58113,7 +58113,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0.61290100000000003</v>
       </c>
@@ -58121,7 +58121,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0.613595</v>
       </c>
@@ -58129,7 +58129,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>0.61427699999999996</v>
       </c>
@@ -58137,7 +58137,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>0.61494700000000002</v>
       </c>
@@ -58145,7 +58145,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0.61560499999999996</v>
       </c>
@@ -58153,7 +58153,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>0.61625099999999999</v>
       </c>
@@ -58161,7 +58161,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0.61688500000000002</v>
       </c>
@@ -58169,7 +58169,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0.61750700000000003</v>
       </c>
@@ -58177,7 +58177,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0.61811700000000003</v>
       </c>
@@ -58185,7 +58185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>0.61871500000000001</v>
       </c>
@@ -58193,7 +58193,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>0.61930099999999999</v>
       </c>
@@ -58201,7 +58201,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>0.61987499999999995</v>
       </c>
@@ -58209,7 +58209,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0.62043700000000002</v>
       </c>
@@ -58217,7 +58217,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0.62098699999999996</v>
       </c>
@@ -58225,7 +58225,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>0.62152499999999999</v>
       </c>
@@ -58233,7 +58233,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>0.62205100000000002</v>
       </c>
@@ -58241,7 +58241,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>0.62256500000000004</v>
       </c>
@@ -58249,7 +58249,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>0.62306700000000004</v>
       </c>
@@ -58257,7 +58257,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>0.62355700000000003</v>
       </c>
@@ -58265,7 +58265,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>0.62403500000000001</v>
       </c>
@@ -58273,7 +58273,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>0.62450099999999997</v>
       </c>
@@ -58281,7 +58281,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0.62495500000000004</v>
       </c>
@@ -58289,7 +58289,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0.62539699999999998</v>
       </c>
@@ -58297,7 +58297,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0.62582700000000002</v>
       </c>
@@ -58305,7 +58305,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0.62624500000000005</v>
       </c>
@@ -58313,7 +58313,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0.62665099999999996</v>
       </c>
@@ -58321,7 +58321,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0.62704499999999996</v>
       </c>
@@ -58329,7 +58329,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0.62742699999999996</v>
       </c>
@@ -58337,7 +58337,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0.62779700000000005</v>
       </c>
@@ -58345,7 +58345,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0.62815500000000002</v>
       </c>
@@ -58353,7 +58353,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0.62850099999999998</v>
       </c>
@@ -58361,7 +58361,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>0.62883500000000003</v>
       </c>
@@ -58369,7 +58369,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>0.62915699999999997</v>
       </c>
@@ -58377,7 +58377,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>0.629467</v>
       </c>
@@ -58385,7 +58385,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>0.62976500000000002</v>
       </c>
@@ -58393,7 +58393,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>0.63005100000000003</v>
       </c>
@@ -58415,9 +58415,9 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -58425,7 +58425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -58439,7 +58439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -58453,7 +58453,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -58467,7 +58467,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -58481,7 +58481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -58495,7 +58495,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -58509,7 +58509,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -58523,7 +58523,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -58537,7 +58537,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -58551,7 +58551,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -58565,7 +58565,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -58579,7 +58579,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -58593,7 +58593,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -58607,7 +58607,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -58621,7 +58621,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -58635,7 +58635,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -58649,7 +58649,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -58663,7 +58663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -58677,7 +58677,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -58691,7 +58691,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -58705,7 +58705,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -58719,7 +58719,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -58733,7 +58733,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -58747,7 +58747,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -58761,7 +58761,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -58775,7 +58775,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -58789,7 +58789,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -58803,7 +58803,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -58817,7 +58817,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -58831,7 +58831,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -58845,7 +58845,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -58859,7 +58859,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -58873,7 +58873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -58887,7 +58887,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -58901,7 +58901,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -58915,7 +58915,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -58929,7 +58929,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -58943,7 +58943,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -58957,7 +58957,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -58971,7 +58971,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -58985,7 +58985,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -58999,7 +58999,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -59013,7 +59013,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -59027,7 +59027,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -59041,7 +59041,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -59055,7 +59055,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -59069,7 +59069,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -59083,7 +59083,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -59097,7 +59097,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -59111,7 +59111,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -59125,7 +59125,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -59139,7 +59139,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -59153,7 +59153,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -59167,7 +59167,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -59181,7 +59181,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -59195,7 +59195,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -59209,7 +59209,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -59223,7 +59223,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -59237,7 +59237,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -59251,7 +59251,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -59265,7 +59265,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -59279,7 +59279,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -59293,7 +59293,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -59307,7 +59307,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -59321,7 +59321,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -59335,7 +59335,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -59349,7 +59349,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -59363,7 +59363,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -59377,7 +59377,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -59391,7 +59391,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -59405,7 +59405,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -59419,7 +59419,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -59433,7 +59433,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -59447,7 +59447,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -59461,7 +59461,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -59475,7 +59475,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -59489,7 +59489,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -59503,7 +59503,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -59517,7 +59517,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -59531,7 +59531,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -59545,7 +59545,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -59559,7 +59559,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -59573,7 +59573,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -59587,7 +59587,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -59601,7 +59601,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -59615,7 +59615,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -59629,7 +59629,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -59643,7 +59643,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -59657,7 +59657,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -59671,7 +59671,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.341866</v>
       </c>
@@ -59679,7 +59679,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.34609200000000001</v>
       </c>
@@ -59687,7 +59687,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.35030600000000001</v>
       </c>
@@ -59695,7 +59695,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.35450700000000002</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.35869600000000001</v>
       </c>
@@ -59711,7 +59711,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.36287399999999997</v>
       </c>
@@ -59719,7 +59719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.367039</v>
       </c>
@@ -59727,7 +59727,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.37119200000000002</v>
       </c>
@@ -59735,7 +59735,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.37533300000000003</v>
       </c>
@@ -59743,7 +59743,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.37946200000000002</v>
       </c>
@@ -59751,7 +59751,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.407802</v>
       </c>
@@ -59759,7 +59759,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.40787000000000001</v>
       </c>
@@ -59767,7 +59767,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.40795700000000001</v>
       </c>
@@ -59775,7 +59775,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.40806100000000001</v>
       </c>
@@ -59783,7 +59783,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.40818399999999999</v>
       </c>
@@ -59791,7 +59791,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.40832400000000002</v>
       </c>
@@ -59799,7 +59799,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.40848200000000001</v>
       </c>
@@ -59807,7 +59807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.40865800000000002</v>
       </c>
@@ -59815,7 +59815,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.40885199999999999</v>
       </c>
@@ -59823,7 +59823,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.40906300000000001</v>
       </c>
@@ -59831,7 +59831,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.40929300000000002</v>
       </c>
@@ -59839,7 +59839,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.40954000000000002</v>
       </c>
@@ -59847,7 +59847,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.40980499999999997</v>
       </c>
@@ -59855,7 +59855,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.41008800000000001</v>
       </c>
@@ -59863,7 +59863,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.41038799999999998</v>
       </c>
@@ -59871,7 +59871,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.41070600000000002</v>
       </c>
@@ -59879,7 +59879,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.41104200000000002</v>
       </c>
@@ -59887,7 +59887,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.41139500000000001</v>
       </c>
@@ -59895,7 +59895,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.41176499999999999</v>
       </c>
@@ -59903,7 +59903,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.41215299999999999</v>
       </c>
@@ -59911,7 +59911,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.41255700000000001</v>
       </c>
@@ -59919,7 +59919,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.41297800000000001</v>
       </c>
@@ -59927,7 +59927,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.41341499999999998</v>
       </c>
@@ -59935,7 +59935,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.41386699999999998</v>
       </c>
@@ -59943,7 +59943,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.41433300000000001</v>
       </c>
@@ -59951,7 +59951,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.41481099999999999</v>
       </c>
@@ -59959,7 +59959,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.415296</v>
       </c>
@@ -59967,7 +59967,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.41577999999999998</v>
       </c>
@@ -59975,7 +59975,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.41623700000000002</v>
       </c>
@@ -59983,7 +59983,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.416578</v>
       </c>
@@ -59991,7 +59991,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.419819</v>
       </c>
@@ -59999,7 +59999,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.41950100000000001</v>
       </c>
@@ -60007,7 +60007,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.41993999999999998</v>
       </c>
@@ -60015,7 +60015,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.42051300000000003</v>
       </c>
@@ -60023,7 +60023,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.42114299999999999</v>
       </c>
@@ -60031,7 +60031,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.42181000000000002</v>
       </c>
@@ -60039,7 +60039,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.42250500000000002</v>
       </c>
@@ -60047,7 +60047,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.42322300000000002</v>
       </c>
@@ -60055,7 +60055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.42396400000000001</v>
       </c>
@@ -60063,7 +60063,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.42472500000000002</v>
       </c>
@@ -60071,7 +60071,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.425506</v>
       </c>
@@ -60079,7 +60079,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.42630600000000002</v>
       </c>
@@ -60087,7 +60087,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.42712600000000001</v>
       </c>
@@ -60095,7 +60095,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.42796400000000001</v>
       </c>
@@ -60103,7 +60103,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.42882100000000001</v>
       </c>
@@ -60111,7 +60111,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.42969600000000002</v>
       </c>
@@ -60119,7 +60119,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.43058999999999997</v>
       </c>
@@ -60127,7 +60127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.431502</v>
       </c>
@@ -60135,7 +60135,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.43243300000000001</v>
       </c>
@@ -60143,7 +60143,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.43338199999999999</v>
       </c>
@@ -60151,7 +60151,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.43434899999999999</v>
       </c>
@@ -60159,7 +60159,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.435334</v>
       </c>
@@ -60167,7 +60167,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.436338</v>
       </c>
@@ -60175,7 +60175,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.437359</v>
       </c>
@@ -60183,7 +60183,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.43839899999999998</v>
       </c>
@@ -60191,7 +60191,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.43945699999999999</v>
       </c>
@@ -60199,7 +60199,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.44053199999999998</v>
       </c>
@@ -60207,7 +60207,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.44162600000000002</v>
       </c>
@@ -60215,7 +60215,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.44273800000000002</v>
       </c>
@@ -60223,7 +60223,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.44386900000000001</v>
       </c>
@@ -60231,7 +60231,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.445017</v>
       </c>
@@ -60239,7 +60239,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.446183</v>
       </c>
@@ -60247,7 +60247,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.44736700000000001</v>
       </c>
@@ -60255,7 +60255,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.44857000000000002</v>
       </c>
@@ -60263,7 +60263,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.44979000000000002</v>
       </c>
@@ -60271,7 +60271,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.45102799999999998</v>
       </c>
@@ -60279,7 +60279,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.45228499999999999</v>
       </c>
@@ -60287,7 +60287,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.45355899999999999</v>
       </c>
@@ -60295,7 +60295,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.45485199999999998</v>
       </c>
@@ -60303,7 +60303,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.45616200000000001</v>
       </c>
@@ -60311,7 +60311,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.45749099999999998</v>
       </c>
@@ -60319,7 +60319,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.45883699999999999</v>
       </c>
@@ -60327,7 +60327,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173">
         <v>0.460202</v>
       </c>
@@ -60335,7 +60335,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.46298499999999998</v>
       </c>
@@ -60343,7 +60343,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.46440399999999998</v>
       </c>
@@ -60351,7 +60351,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.46584100000000001</v>
       </c>
@@ -60359,7 +60359,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.46729500000000002</v>
       </c>
@@ -60367,7 +60367,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.46876800000000002</v>
       </c>
@@ -60375,7 +60375,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.47025899999999998</v>
       </c>
@@ -60383,7 +60383,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.47176699999999999</v>
       </c>
@@ -60391,7 +60391,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.47329399999999999</v>
       </c>
@@ -60399,7 +60399,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.47483900000000001</v>
       </c>
@@ -60407,7 +60407,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.47640199999999999</v>
       </c>
@@ -60415,7 +60415,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.47798200000000002</v>
       </c>
@@ -60423,7 +60423,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.47958099999999998</v>
       </c>
@@ -60431,7 +60431,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.48119800000000001</v>
       </c>
@@ -60439,7 +60439,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.48283300000000001</v>
       </c>
@@ -60447,7 +60447,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.48448600000000003</v>
       </c>
@@ -60455,7 +60455,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.48615599999999998</v>
       </c>
@@ -60463,7 +60463,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.48784499999999997</v>
       </c>
@@ -60471,7 +60471,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.48955199999999999</v>
       </c>
@@ -60479,7 +60479,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.49127700000000002</v>
       </c>
@@ -60487,7 +60487,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193">
         <v>0.49302000000000001</v>
       </c>
@@ -60495,7 +60495,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.49478100000000003</v>
       </c>
@@ -60503,7 +60503,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.49655899999999997</v>
       </c>
@@ -60511,7 +60511,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.49835600000000002</v>
       </c>
@@ -60519,7 +60519,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197">
         <v>0.50017100000000003</v>
       </c>
@@ -60527,7 +60527,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.50200400000000001</v>
       </c>
@@ -60535,7 +60535,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.50385500000000005</v>
       </c>
@@ -60543,7 +60543,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.50572399999999995</v>
       </c>
@@ -60551,7 +60551,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.50761100000000003</v>
       </c>
@@ -60559,7 +60559,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202">
         <v>0.50951500000000005</v>
       </c>
@@ -60567,7 +60567,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203">
         <v>0.51143799999999995</v>
       </c>
@@ -60575,7 +60575,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204">
         <v>0.51337900000000003</v>
       </c>
@@ -60583,7 +60583,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205">
         <v>0.51533799999999996</v>
       </c>
@@ -60591,7 +60591,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206">
         <v>0.51731499999999997</v>
       </c>
@@ -60599,7 +60599,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207">
         <v>0.51931000000000005</v>
       </c>
@@ -60607,7 +60607,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208">
         <v>0.52132299999999998</v>
       </c>
@@ -60615,7 +60615,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209">
         <v>0.52335399999999999</v>
       </c>
@@ -60623,7 +60623,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210">
         <v>0.52540299999999995</v>
       </c>
@@ -60631,7 +60631,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211">
         <v>0.52746899999999997</v>
       </c>
@@ -60639,7 +60639,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212">
         <v>0.52955399999999997</v>
       </c>
@@ -60647,7 +60647,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213">
         <v>0.53165700000000005</v>
       </c>
@@ -60655,7 +60655,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214">
         <v>0.53377799999999997</v>
       </c>
@@ -60663,7 +60663,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215">
         <v>0.53591699999999998</v>
       </c>
@@ -60671,7 +60671,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216">
         <v>0.53807400000000005</v>
       </c>
@@ -60679,7 +60679,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217">
         <v>0.54024899999999998</v>
       </c>
@@ -60687,7 +60687,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218">
         <v>0.54244199999999998</v>
       </c>
@@ -60695,7 +60695,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219">
         <v>0.54465300000000005</v>
       </c>
@@ -60703,7 +60703,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D220">
         <v>0.54688199999999998</v>
       </c>
@@ -60711,7 +60711,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D221">
         <v>0.54912899999999998</v>
       </c>
@@ -60719,7 +60719,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D222">
         <v>0.55139400000000005</v>
       </c>
@@ -60727,7 +60727,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D223">
         <v>0.55367699999999997</v>
       </c>
@@ -60735,7 +60735,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D224">
         <v>0.55597700000000005</v>
       </c>
@@ -60743,7 +60743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D225">
         <v>0.55829600000000001</v>
       </c>
@@ -60751,7 +60751,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D226">
         <v>0.56063300000000005</v>
       </c>
@@ -60759,7 +60759,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D227">
         <v>0.56298800000000004</v>
       </c>
@@ -60767,7 +60767,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D228">
         <v>0.500413</v>
       </c>
@@ -60775,7 +60775,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D229">
         <v>0.50360700000000003</v>
       </c>
@@ -60783,7 +60783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D230">
         <v>0.50680499999999995</v>
       </c>
@@ -60791,7 +60791,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D231">
         <v>0.51000699999999999</v>
       </c>
@@ -60799,7 +60799,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D232">
         <v>0.513212</v>
       </c>
@@ -60807,7 +60807,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D233">
         <v>0.51642200000000005</v>
       </c>
@@ -60815,7 +60815,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D234">
         <v>0.51963599999999999</v>
       </c>
@@ -60823,7 +60823,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D235">
         <v>0.52285400000000004</v>
       </c>
@@ -60831,7 +60831,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D236">
         <v>0.52607599999999999</v>
       </c>
@@ -60839,7 +60839,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D237">
         <v>0.52930200000000005</v>
       </c>
@@ -60847,7 +60847,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D238">
         <v>0.53253099999999998</v>
       </c>
@@ -60855,7 +60855,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D239">
         <v>0.53576500000000005</v>
       </c>
@@ -60863,7 +60863,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D240">
         <v>0.53900300000000001</v>
       </c>
@@ -60871,7 +60871,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D241">
         <v>0.54224499999999998</v>
       </c>
@@ -60879,7 +60879,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D242">
         <v>0.54549099999999995</v>
       </c>
@@ -60887,7 +60887,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D243">
         <v>0.54874100000000003</v>
       </c>
@@ -60895,7 +60895,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D244">
         <v>0.55199500000000001</v>
       </c>
@@ -60903,7 +60903,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D245">
         <v>0.555253</v>
       </c>
@@ -60911,7 +60911,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D246">
         <v>0.55851499999999998</v>
       </c>
@@ -60919,7 +60919,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D247">
         <v>0.56177999999999995</v>
       </c>
@@ -60927,7 +60927,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D248">
         <v>0.56505000000000005</v>
       </c>
@@ -60935,7 +60935,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D249">
         <v>0.56832400000000005</v>
       </c>
@@ -60943,7 +60943,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D250">
         <v>0.57160200000000005</v>
       </c>
@@ -60951,7 +60951,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D251">
         <v>0.57488399999999995</v>
       </c>
@@ -60959,7 +60959,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D252">
         <v>0.60925099999999999</v>
       </c>
@@ -60967,7 +60967,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D253">
         <v>0.61000500000000002</v>
       </c>
@@ -60975,7 +60975,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D254">
         <v>0.61074700000000004</v>
       </c>
@@ -60983,7 +60983,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D255">
         <v>0.61147700000000005</v>
       </c>
@@ -60991,7 +60991,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D256">
         <v>0.61219500000000004</v>
       </c>
@@ -60999,7 +60999,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D257">
         <v>0.61290100000000003</v>
       </c>
@@ -61007,7 +61007,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D258">
         <v>0.613595</v>
       </c>
@@ -61015,7 +61015,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D259">
         <v>0.61427699999999996</v>
       </c>
@@ -61023,7 +61023,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D260">
         <v>0.61494700000000002</v>
       </c>
@@ -61031,7 +61031,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D261">
         <v>0.61560499999999996</v>
       </c>
@@ -61039,7 +61039,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D262">
         <v>0.61625099999999999</v>
       </c>
@@ -61047,7 +61047,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D263">
         <v>0.61688500000000002</v>
       </c>
@@ -61055,7 +61055,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D264">
         <v>0.61750700000000003</v>
       </c>
@@ -61063,7 +61063,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D265">
         <v>0.61811700000000003</v>
       </c>
@@ -61071,7 +61071,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D266">
         <v>0.61871500000000001</v>
       </c>
@@ -61079,7 +61079,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D267">
         <v>0.61930099999999999</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D268">
         <v>0.61987499999999995</v>
       </c>
@@ -61095,7 +61095,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D269">
         <v>0.62043700000000002</v>
       </c>
@@ -61103,7 +61103,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D270">
         <v>0.62098699999999996</v>
       </c>
@@ -61111,7 +61111,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D271">
         <v>0.62152499999999999</v>
       </c>
@@ -61119,7 +61119,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D272">
         <v>0.62205100000000002</v>
       </c>
@@ -61127,7 +61127,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D273">
         <v>0.62256500000000004</v>
       </c>
@@ -61135,7 +61135,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D274">
         <v>0.62306700000000004</v>
       </c>
@@ -61143,7 +61143,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D275">
         <v>0.62355700000000003</v>
       </c>
@@ -61151,7 +61151,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D276">
         <v>0.62403500000000001</v>
       </c>
@@ -61159,7 +61159,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D277">
         <v>0.62450099999999997</v>
       </c>
@@ -61167,7 +61167,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D278">
         <v>0.62495500000000004</v>
       </c>
@@ -61175,7 +61175,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D279">
         <v>0.62539699999999998</v>
       </c>
@@ -61183,7 +61183,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D280">
         <v>0.62582700000000002</v>
       </c>
@@ -61191,7 +61191,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D281">
         <v>0.62624500000000005</v>
       </c>
@@ -61199,7 +61199,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D282">
         <v>0.62665099999999996</v>
       </c>
@@ -61207,7 +61207,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D283">
         <v>0.62704499999999996</v>
       </c>
@@ -61215,7 +61215,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D284">
         <v>0.62742699999999996</v>
       </c>
@@ -61223,7 +61223,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D285">
         <v>0.62779700000000005</v>
       </c>
@@ -61231,7 +61231,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D286">
         <v>0.62815500000000002</v>
       </c>
@@ -61239,7 +61239,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D287">
         <v>0.62850099999999998</v>
       </c>
@@ -61247,7 +61247,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D288">
         <v>0.62883500000000003</v>
       </c>
@@ -61255,7 +61255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D289">
         <v>0.62915699999999997</v>
       </c>
@@ -61263,7 +61263,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D290">
         <v>0.629467</v>
       </c>
@@ -61271,7 +61271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D291">
         <v>0.62976500000000002</v>
       </c>
@@ -61279,7 +61279,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D292">
         <v>0.63005100000000003</v>
       </c>
@@ -61302,15 +61302,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -61539,6 +61530,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
   <ds:schemaRefs>
@@ -61557,14 +61557,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4939B2-3627-4E93-BC4B-BD461E5F2223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61581,4 +61573,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\CaCl2 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B871A7F-930E-4571-A43E-6D2BDA52CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA14284-E657-43FE-BA41-A870F5162EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="785" firstSheet="1" activeTab="5" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
   </bookViews>
@@ -59021,7 +59021,7 @@
   <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="S11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62047,6 +62047,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -62275,24 +62292,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4939B2-3627-4E93-BC4B-BD461E5F2223}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -62309,29 +62334,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/Test_excelsheet for CaCl2 n=3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\CaCl2 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/CaCl2 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA14284-E657-43FE-BA41-A870F5162EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EEA14284-E657-43FE-BA41-A870F5162EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A858D09-1BA0-4053-86B6-28EB88CB568D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="785" firstSheet="1" activeTab="5" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="785" firstSheet="1" activeTab="1" xr2:uid="{BAD50EE4-2460-4F4B-AA15-854EB6936CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="New experimental Values" sheetId="4" r:id="rId1"/>
@@ -664,72 +664,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Fig 6. Parity plot for CaCl</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> n=3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28413680555555554"/>
-          <c:y val="0.92898148148148163"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -23263,24 +23198,24 @@
       <selection activeCell="AI11" sqref="AI11:AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -23341,7 +23276,7 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -23452,7 +23387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1E-3</v>
       </c>
@@ -23563,7 +23498,7 @@
         <v>0.95520000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.01</v>
       </c>
@@ -23674,7 +23609,7 @@
         <v>0.88929999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -23785,7 +23720,7 @@
         <v>0.85580000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
@@ -23896,7 +23831,7 @@
         <v>0.83379999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -24007,7 +23942,7 @@
         <v>0.82430000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -24118,7 +24053,7 @@
         <v>0.81989999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -24229,7 +24164,7 @@
         <v>0.8196</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.3</v>
       </c>
@@ -24340,7 +24275,7 @@
         <v>0.82930000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.4</v>
       </c>
@@ -24451,7 +24386,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -24562,7 +24497,7 @@
         <v>0.85929999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.6</v>
       </c>
@@ -24673,7 +24608,7 @@
         <v>0.87749999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.7</v>
       </c>
@@ -24784,7 +24719,7 @@
         <v>0.8972</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.8</v>
       </c>
@@ -24895,7 +24830,7 @@
         <v>0.91830000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.9</v>
       </c>
@@ -25006,7 +24941,7 @@
         <v>0.9405</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -25117,7 +25052,7 @@
         <v>0.96360000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.2</v>
       </c>
@@ -25228,7 +25163,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.4</v>
       </c>
@@ -25339,7 +25274,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1.6</v>
       </c>
@@ -25450,7 +25385,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1.8</v>
       </c>
@@ -25561,7 +25496,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -25672,7 +25607,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2.25</v>
       </c>
@@ -25783,7 +25718,7 @@
         <v>1.298</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2.5</v>
       </c>
@@ -25894,7 +25829,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2.75</v>
       </c>
@@ -26005,7 +25940,7 @@
         <v>1.4430000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -26116,7 +26051,7 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3.25</v>
       </c>
@@ -26227,7 +26162,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>3.5</v>
       </c>
@@ -26338,7 +26273,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>3.75</v>
       </c>
@@ -26449,7 +26384,7 @@
         <v>1.7270000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -26560,7 +26495,7 @@
         <v>1.794</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.25</v>
       </c>
@@ -26671,7 +26606,7 @@
         <v>1.8580000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4.5</v>
       </c>
@@ -26782,7 +26717,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4.75</v>
       </c>
@@ -26893,7 +26828,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -27004,7 +26939,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>5.5</v>
       </c>
@@ -27115,7 +27050,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -27226,7 +27161,7 @@
         <v>2.194</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6.5</v>
       </c>
@@ -27337,7 +27272,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7</v>
       </c>
@@ -27448,7 +27383,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7.5</v>
       </c>
@@ -27556,7 +27491,7 @@
         <v>2.2730000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -27664,7 +27599,7 @@
         <v>2.2610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>8.5</v>
       </c>
@@ -27770,7 +27705,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -27885,45 +27820,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047C7D3F-5D75-4052-8CB1-7588824F9D31}">
   <dimension ref="A1:AZ173"/>
   <sheetViews>
-    <sheetView topLeftCell="AR6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BL14" sqref="BL14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="7.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="11.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="5"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="5"/>
-    <col min="27" max="27" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="5"/>
+    <col min="12" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="7.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" style="1"/>
+    <col min="16" max="16" width="11.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.90625" style="5"/>
+    <col min="21" max="21" width="9.08984375" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" customWidth="1"/>
+    <col min="24" max="24" width="8.90625" style="5"/>
+    <col min="27" max="27" width="8.90625" style="5"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" style="5" customWidth="1"/>
     <col min="33" max="34" width="12" customWidth="1"/>
     <col min="35" max="35" width="12" style="7" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.21875" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="5"/>
-    <col min="42" max="44" width="21.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.1796875" customWidth="1"/>
+    <col min="40" max="40" width="8.90625" style="5"/>
+    <col min="42" max="44" width="21.54296875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
@@ -27942,7 +27877,7 @@
       <c r="AI1"/>
       <c r="AN1"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="J2"/>
       <c r="M2" s="4" t="s">
         <v>2</v>
@@ -27965,7 +27900,7 @@
       <c r="AI2" s="1"/>
       <c r="AN2"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="H3" s="1"/>
       <c r="J3"/>
       <c r="M3" s="4" t="s">
@@ -27989,7 +27924,7 @@
       <c r="AI3" s="1"/>
       <c r="AN3"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="J4"/>
       <c r="T4"/>
       <c r="X4"/>
@@ -28006,7 +27941,7 @@
       <c r="AI4" s="1"/>
       <c r="AN4"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="J5"/>
       <c r="T5"/>
       <c r="X5"/>
@@ -28015,7 +27950,7 @@
       <c r="AI5"/>
       <c r="AN5"/>
     </row>
-    <row r="6" spans="1:52" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -28131,7 +28066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -28275,7 +28210,7 @@
         <v>0.8639</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
@@ -28421,7 +28356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -28575,7 +28510,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
@@ -28729,7 +28664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.6</v>
       </c>
@@ -28883,7 +28818,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -29037,7 +28972,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.8</v>
       </c>
@@ -29191,7 +29126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.9</v>
       </c>
@@ -29345,7 +29280,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -29507,7 +29442,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.2</v>
       </c>
@@ -29669,7 +29604,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.4</v>
       </c>
@@ -29831,7 +29766,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.6</v>
       </c>
@@ -29993,7 +29928,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.8</v>
       </c>
@@ -30155,7 +30090,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -30317,7 +30252,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2.25</v>
       </c>
@@ -30473,7 +30408,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2.5</v>
       </c>
@@ -30629,7 +30564,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2.75</v>
       </c>
@@ -30785,7 +30720,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -30941,7 +30876,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3.25</v>
       </c>
@@ -31097,7 +31032,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>3.5</v>
       </c>
@@ -31253,7 +31188,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>3.75</v>
       </c>
@@ -31409,7 +31344,7 @@
         <v>1.9000000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.3</v>
       </c>
@@ -31557,7 +31492,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.4</v>
       </c>
@@ -31705,7 +31640,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -31853,7 +31788,7 @@
         <v>2.2000000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.6</v>
       </c>
@@ -32001,7 +31936,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.7</v>
       </c>
@@ -32149,7 +32084,7 @@
         <v>2.4000000000000008</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.8</v>
       </c>
@@ -32297,7 +32232,7 @@
         <v>2.5000000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.9</v>
       </c>
@@ -32445,7 +32380,7 @@
         <v>2.600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -32601,7 +32536,7 @@
         <v>2.7000000000000011</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1.2</v>
       </c>
@@ -32757,7 +32692,7 @@
         <v>2.8000000000000012</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1.4</v>
       </c>
@@ -32913,7 +32848,7 @@
         <v>2.9000000000000012</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1.6</v>
       </c>
@@ -33069,7 +33004,7 @@
         <v>3.0000000000000013</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1.8</v>
       </c>
@@ -33217,7 +33152,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -33365,7 +33300,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2.25</v>
       </c>
@@ -33513,7 +33448,7 @@
         <v>1.4770000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2.5</v>
       </c>
@@ -33661,7 +33596,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2.75</v>
       </c>
@@ -33809,7 +33744,7 @@
         <v>1.677</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -33957,7 +33892,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>3.25</v>
       </c>
@@ -34105,7 +34040,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>3.5</v>
       </c>
@@ -34253,7 +34188,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>3.75</v>
       </c>
@@ -34401,7 +34336,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.2</v>
       </c>
@@ -34541,7 +34476,7 @@
         <v>0.85970000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.3</v>
       </c>
@@ -34681,7 +34616,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.4</v>
       </c>
@@ -34821,7 +34756,7 @@
         <v>0.89359999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.5</v>
       </c>
@@ -34961,7 +34896,7 @@
         <v>0.91479999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.6</v>
       </c>
@@ -35101,7 +35036,7 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0.7</v>
       </c>
@@ -35241,7 +35176,7 @@
         <v>0.96240000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.8</v>
       </c>
@@ -35381,7 +35316,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.9</v>
       </c>
@@ -35521,7 +35456,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -35669,7 +35604,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1.2</v>
       </c>
@@ -35817,7 +35752,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1.4</v>
       </c>
@@ -35965,7 +35900,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1.6</v>
       </c>
@@ -36113,7 +36048,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.8</v>
       </c>
@@ -36261,7 +36196,7 @@
         <v>1.3029999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -36409,7 +36344,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2.25</v>
       </c>
@@ -36557,7 +36492,7 @@
         <v>1.4690000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2.5</v>
       </c>
@@ -36697,7 +36632,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2.75</v>
       </c>
@@ -36845,7 +36780,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -36993,7 +36928,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>3.25</v>
       </c>
@@ -37141,7 +37076,7 @@
         <v>1.871</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>3.5</v>
       </c>
@@ -37289,7 +37224,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>3.75</v>
       </c>
@@ -37437,7 +37372,7 @@
         <v>2.0790000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>0.2</v>
       </c>
@@ -37577,7 +37512,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.3</v>
       </c>
@@ -37717,7 +37652,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.4</v>
       </c>
@@ -37857,7 +37792,7 @@
         <v>0.89159999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>0.5</v>
       </c>
@@ -37997,7 +37932,7 @@
         <v>0.91259999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>0.6</v>
       </c>
@@ -38137,7 +38072,7 @@
         <v>0.93540000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>0.7</v>
       </c>
@@ -38277,7 +38212,7 @@
         <v>0.95979999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>0.8</v>
       </c>
@@ -38417,7 +38352,7 @@
         <v>0.98560000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>0.9</v>
       </c>
@@ -38557,7 +38492,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -38705,7 +38640,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1.2</v>
       </c>
@@ -38853,7 +38788,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1.4</v>
       </c>
@@ -39001,7 +38936,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>1.6</v>
       </c>
@@ -39149,7 +39084,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1.8</v>
       </c>
@@ -39297,7 +39232,7 @@
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -39445,7 +39380,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2.25</v>
       </c>
@@ -39593,7 +39528,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2.5</v>
       </c>
@@ -39741,7 +39676,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2.75</v>
       </c>
@@ -39889,7 +39824,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -40037,7 +39972,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>3.25</v>
       </c>
@@ -40185,7 +40120,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3.5</v>
       </c>
@@ -40333,7 +40268,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>3.75</v>
       </c>
@@ -40481,7 +40416,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>0.2</v>
       </c>
@@ -40621,7 +40556,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>0.3</v>
       </c>
@@ -40761,7 +40696,7 @@
         <v>0.86870000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>0.4</v>
       </c>
@@ -40901,7 +40836,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>0.5</v>
       </c>
@@ -41041,7 +40976,7 @@
         <v>0.90739999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>0.6</v>
       </c>
@@ -41181,7 +41116,7 @@
         <v>0.92979999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>0.7</v>
       </c>
@@ -41321,7 +41256,7 @@
         <v>0.95369999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>0.8</v>
       </c>
@@ -41461,7 +41396,7 @@
         <v>0.97889999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>0.9</v>
       </c>
@@ -41601,7 +41536,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -41749,7 +41684,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1.2</v>
       </c>
@@ -41897,7 +41832,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1.4</v>
       </c>
@@ -42045,7 +41980,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1.6</v>
       </c>
@@ -42193,7 +42128,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1.8</v>
       </c>
@@ -42341,7 +42276,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -42489,7 +42424,7 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2.25</v>
       </c>
@@ -42637,7 +42572,7 @@
         <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2.5</v>
       </c>
@@ -42785,7 +42720,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2.75</v>
       </c>
@@ -42933,7 +42868,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -43081,7 +43016,7 @@
         <v>1.722</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>3.25</v>
       </c>
@@ -43229,7 +43164,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3.5</v>
       </c>
@@ -43377,7 +43312,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3.75</v>
       </c>
@@ -43525,7 +43460,7 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>0.2</v>
       </c>
@@ -43665,7 +43600,7 @@
         <v>0.8498</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>0.3</v>
       </c>
@@ -43805,7 +43740,7 @@
         <v>0.86370000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>0.4</v>
       </c>
@@ -43945,7 +43880,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>0.5</v>
       </c>
@@ -44085,7 +44020,7 @@
         <v>0.90129999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>0.6</v>
       </c>
@@ -44225,7 +44160,7 @@
         <v>0.92310000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>0.7</v>
       </c>
@@ -44365,7 +44300,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>0.8</v>
       </c>
@@ -44505,7 +44440,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>0.9</v>
       </c>
@@ -44653,7 +44588,7 @@
         <v>0.99680000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -44801,7 +44736,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>1.2</v>
       </c>
@@ -44949,7 +44884,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>1.4</v>
       </c>
@@ -45097,7 +45032,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>1.6</v>
       </c>
@@ -45245,7 +45180,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>1.8</v>
       </c>
@@ -45393,7 +45328,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -45541,7 +45476,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2.25</v>
       </c>
@@ -45689,7 +45624,7 @@
         <v>1.419</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2.5</v>
       </c>
@@ -45837,7 +45772,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2.75</v>
       </c>
@@ -45985,7 +45920,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -46133,7 +46068,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>3.25</v>
       </c>
@@ -46281,7 +46216,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>3.5</v>
       </c>
@@ -46429,7 +46364,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>3.75</v>
       </c>
@@ -46577,7 +46512,7 @@
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>0.2</v>
       </c>
@@ -46717,7 +46652,7 @@
         <v>0.8448</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>0.3</v>
       </c>
@@ -46857,7 +46792,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>0.4</v>
       </c>
@@ -46997,7 +46932,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>0.5</v>
       </c>
@@ -47137,7 +47072,7 @@
         <v>0.89439999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>0.6</v>
       </c>
@@ -47277,7 +47212,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>0.7</v>
       </c>
@@ -47417,7 +47352,7 @@
         <v>0.93810000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>0.8</v>
       </c>
@@ -47557,7 +47492,7 @@
         <v>0.96209999999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>0.9</v>
       </c>
@@ -47697,7 +47632,7 @@
         <v>0.98709999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -47845,7 +47780,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>1.2</v>
       </c>
@@ -47993,7 +47928,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>1.4</v>
       </c>
@@ -48141,7 +48076,7 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>1.6</v>
       </c>
@@ -48289,7 +48224,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>1.8</v>
       </c>
@@ -48437,7 +48372,7 @@
         <v>1.248</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -48585,7 +48520,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>2.25</v>
       </c>
@@ -48733,7 +48668,7 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>2.5</v>
       </c>
@@ -48881,7 +48816,7 @@
         <v>1.4810000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>2.75</v>
       </c>
@@ -49029,7 +48964,7 @@
         <v>1.5680000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -49177,7 +49112,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>3.25</v>
       </c>
@@ -49325,7 +49260,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>3.5</v>
       </c>
@@ -49473,7 +49408,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>3.75</v>
       </c>
@@ -49621,7 +49556,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>0.2</v>
       </c>
@@ -49761,7 +49696,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>0.3</v>
       </c>
@@ -49901,7 +49836,7 @@
         <v>0.8518</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>0.4</v>
       </c>
@@ -50041,7 +49976,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>0.5</v>
       </c>
@@ -50181,7 +50116,7 @@
         <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>0.6</v>
       </c>
@@ -50321,7 +50256,7 @@
         <v>0.90710000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>0.7</v>
       </c>
@@ -50461,7 +50396,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>0.8</v>
       </c>
@@ -50601,7 +50536,7 @@
         <v>0.95220000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>0.9</v>
       </c>
@@ -50741,7 +50676,7 @@
         <v>0.97650000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -50889,7 +50824,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>1.2</v>
       </c>
@@ -51037,7 +50972,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>1.4</v>
       </c>
@@ -51185,7 +51120,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>1.6</v>
       </c>
@@ -51333,7 +51268,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>1.8</v>
       </c>
@@ -51481,7 +51416,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -51629,7 +51564,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>2.25</v>
       </c>
@@ -51777,7 +51712,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>2.5</v>
       </c>
@@ -51925,7 +51860,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>2.75</v>
       </c>
@@ -52073,7 +52008,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>3</v>
       </c>
@@ -52221,7 +52156,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>3.25</v>
       </c>
@@ -52369,7 +52304,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>3.5</v>
       </c>
@@ -52517,7 +52452,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>3.75</v>
       </c>
@@ -52679,13 +52614,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -52693,7 +52628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -52702,7 +52637,7 @@
         <v>55.555555555555557</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -52713,7 +52648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1.64413171449595E-2</v>
       </c>
@@ -52725,7 +52660,7 @@
         <v>8.8704358092670042E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.43253311258278199</v>
       </c>
@@ -52737,7 +52672,7 @@
         <v>2.2823699760963937E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1.0052198307578999</v>
       </c>
@@ -52749,7 +52684,7 @@
         <v>5.1487057077629544E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1.4732799852832901</v>
       </c>
@@ -52761,7 +52696,7 @@
         <v>7.3694219407179337E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1.99353844738778</v>
       </c>
@@ -52773,7 +52708,7 @@
         <v>9.7188616953497134E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2.4614836276674001</v>
       </c>
@@ -52785,7 +52720,7 @@
         <v>0.11732523240541651</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2.8251471670345798</v>
       </c>
@@ -52797,7 +52732,7 @@
         <v>0.13236466540735028</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>3.13695732155997</v>
       </c>
@@ -52809,7 +52744,7 @@
         <v>0.14485746444575009</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>3.5006208609271501</v>
       </c>
@@ -52821,7 +52756,7 @@
         <v>0.15898082121206311</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>3.6038677336276601</v>
       </c>
@@ -52833,7 +52768,7 @@
         <v>0.16290592219806463</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>3.96753127299485</v>
       </c>
@@ -52845,7 +52780,7 @@
         <v>0.17644412023370443</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>3.96810614422369</v>
       </c>
@@ -52857,7 +52792,7 @@
         <v>0.17646517446428464</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>4.1250459896983003</v>
       </c>
@@ -52869,7 +52804,7 @@
         <v>0.18217299613766277</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>4.3338392200147098</v>
       </c>
@@ -52881,7 +52816,7 @@
         <v>0.18964516789036034</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>4.3346440397350996</v>
       </c>
@@ -52893,7 +52828,7 @@
         <v>0.18967370615274448</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>4.5435522442972696</v>
       </c>
@@ -52905,7 +52840,7 @@
         <v>0.19701406222476264</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>4.7006070640176603</v>
       </c>
@@ -52917,7 +52852,7 @@
         <v>0.20244548173481314</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>4.8054635761589397</v>
       </c>
@@ -52929,7 +52864,7 @@
         <v>0.20603100948424874</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>5.0146017292126501</v>
       </c>
@@ -52941,7 +52876,7 @@
         <v>0.21308698873861018</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5.0676048565121397</v>
       </c>
@@ -52953,7 +52888,7 @@
         <v>0.21485535269763475</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>5.3288263428991902</v>
       </c>
@@ -52965,7 +52900,7 @@
         <v>0.22345575047730468</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>5.6420161883738</v>
       </c>
@@ -52977,7 +52912,7 @@
         <v>0.2335219918276184</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>5.9030077262693101</v>
       </c>
@@ -52989,7 +52924,7 @@
         <v>0.24171330108940928</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>6.2683958793230303</v>
       </c>
@@ -53001,7 +52936,7 @@
         <v>0.25289133527119789</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>6.4773040838852101</v>
       </c>
@@ -53013,7 +52948,7 @@
         <v>0.25913546382995689</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>7.0510255702722597</v>
       </c>
@@ -53025,7 +52960,7 @@
         <v>0.27575875212273737</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>7.2594738778513603</v>
       </c>
@@ -53037,7 +52972,7 @@
         <v>0.28161517647408635</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>7.52023546725533</v>
       </c>
@@ -53049,7 +52984,7 @@
         <v>0.28880934438583261</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>7.9369021339219996</v>
       </c>
@@ -53061,7 +52996,7 @@
         <v>0.30001043030815761</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>8.45819536423841</v>
       </c>
@@ -53073,7 +53008,7 @@
         <v>0.3135369044946853</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>8.77069536423841</v>
       </c>
@@ -53085,7 +53020,7 @@
         <v>0.32139787543606363</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>9.0836552612214891</v>
       </c>
@@ -53097,7 +53032,7 @@
         <v>0.3290920249146787</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>9.1878219278881499</v>
       </c>
@@ -53109,7 +53044,7 @@
         <v>0.33161441676718256</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>9.5528651582045594</v>
       </c>
@@ -53121,7 +53056,7 @@
         <v>0.34030617329796392</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>10.0741583885209</v>
       </c>
@@ -53133,7 +53068,7 @@
         <v>0.35233351607035707</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>10.491055003679101</v>
       </c>
@@ -53145,7 +53080,7 @@
         <v>0.36164113187157093</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>11.0123482339955</v>
       </c>
@@ -53157,7 +53092,7 @@
         <v>0.37290975325192577</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>11.533411515820401</v>
       </c>
@@ -53169,7 +53104,7 @@
         <v>0.38378272219593601</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>11.690121412803499</v>
       </c>
@@ -53181,7 +53116,7 @@
         <v>0.38697940189894225</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>11.950768027961701</v>
       </c>
@@ -53193,7 +53128,7 @@
         <v>0.39222342832777096</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>12.0558544885945</v>
       </c>
@@ -53206,7 +53141,7 @@
         <v>0.39431240293267006</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>12.1616307947019</v>
       </c>
@@ -53218,7 +53153,7 @@
         <v>0.39640063907581174</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>12.5795621780721</v>
       </c>
@@ -53230,7 +53165,7 @@
         <v>0.40451249389970351</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>12.945640176600399</v>
       </c>
@@ -53242,7 +53177,7 @@
         <v>0.41144084931813785</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>13.5203964311994</v>
       </c>
@@ -53254,7 +53189,7 @@
         <v>0.42199919855021301</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>13.9906410963944</v>
       </c>
@@ -53266,7 +53201,7 @@
         <v>0.4303599743001808</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>14.7215323767476</v>
       </c>
@@ -53278,7 +53213,7 @@
         <v>0.44288537412691403</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>15.138658940397301</v>
       </c>
@@ -53290,7 +53225,7 @@
         <v>0.44978991357420123</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>16.077308682855001</v>
       </c>
@@ -53302,7 +53237,7 @@
         <v>0.46471814618777785</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>16.599291758646</v>
       </c>
@@ -53314,7 +53249,7 @@
         <v>0.47267445286700427</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>17.433659860191302</v>
       </c>
@@ -53326,7 +53261,7 @@
         <v>0.48491247669474113</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>18.1631714495952</v>
       </c>
@@ -53338,7 +53273,7 @@
         <v>0.49515634272531867</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>19.1019361662987</v>
       </c>
@@ -53350,7 +53285,7 @@
         <v>0.50775399516922415</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>19.6228844738778</v>
       </c>
@@ -53362,7 +53297,7 @@
         <v>0.51447725920805065</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>20.0395511405445</v>
       </c>
@@ -53374,7 +53309,7 @@
         <v>0.5197239207703499</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>21.968014164827</v>
       </c>
@@ -53386,7 +53321,7 @@
         <v>0.54260053180260925</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>22.749379139072801</v>
       </c>
@@ -53398,7 +53333,7 @@
         <v>0.55126091781629694</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>22.957712472406101</v>
       </c>
@@ -53410,7 +53345,7 @@
         <v>0.55351491502276229</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>23.4790057027225</v>
       </c>
@@ -53423,7 +53358,7 @@
         <v>0.55905690009335263</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>24.208287343635</v>
       </c>
@@ -53435,7 +53370,7 @@
         <v>0.56658312867422123</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>25.042425496688701</v>
       </c>
@@ -53447,7 +53382,7 @@
         <v>0.57488252522595329</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>26.605960264900599</v>
       </c>
@@ -53459,7 +53394,7 @@
         <v>0.5896125779668151</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>27.336506622516499</v>
       </c>
@@ -53471,7 +53406,7 @@
         <v>0.59615072804863534</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>27.7014348785872</v>
       </c>
@@ -53483,7 +53418,7 @@
         <v>0.59933930786528788</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>27.9103430831493</v>
       </c>
@@ -53495,7 +53430,7 @@
         <v>0.60114209395447904</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>28.3283894407652</v>
       </c>
@@ -53507,7 +53442,7 @@
         <v>0.60470137037403593</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>29.1631024650478</v>
       </c>
@@ -53519,7 +53454,7 @@
         <v>0.6116214563070117</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>29.476177336276599</v>
       </c>
@@ -53531,7 +53466,7 @@
         <v>0.61415489381274313</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>29.6847406181015</v>
       </c>
@@ -53543,7 +53478,7 @@
         <v>0.61582434776801231</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>29.790516924208902</v>
       </c>
@@ -53555,7 +53490,7 @@
         <v>0.61666552956800236</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>28.279525386313399</v>
       </c>
@@ -53567,7 +53502,7 @@
         <v>0.60428862034965369</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>8.5599475717439297</v>
       </c>
@@ -53579,7 +53514,7 @@
         <v>0.31611641306455429</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>8.7688557763061095</v>
       </c>
@@ -53591,7 +53526,7 @@
         <v>0.32135212723524031</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>8.9771891096394398</v>
       </c>
@@ -53603,7 +53538,7 @@
         <v>0.32649420160570913</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>9.4466289551140505</v>
       </c>
@@ -53615,7 +53550,7 @@
         <v>0.3378000764709348</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>9.7594738778513594</v>
       </c>
@@ -53627,7 +53562,7 @@
         <v>0.34512612285390565</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>10.020580389992601</v>
       </c>
@@ -53639,7 +53574,7 @@
         <v>0.35111761664641056</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>10.1770603384841</v>
       </c>
@@ -53651,7 +53586,7 @@
         <v>0.35465603914801597</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>10.4377069536423</v>
       </c>
@@ -53663,7 +53598,7 @@
         <v>0.36046503932901586</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>10.959115158204501</v>
       </c>
@@ -53675,7 +53610,7 @@
         <v>0.37177730337487552</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>11.4800634657836</v>
       </c>
@@ -53687,7 +53622,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>11.689086644591599</v>
       </c>
@@ -53699,7 +53634,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>7.8307809050772601</v>
       </c>
@@ -53711,7 +53646,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>7.8310108535687997</v>
       </c>
@@ -53723,7 +53658,7 @@
         <v>0.29719737088983367</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>11.4800634657836</v>
       </c>
@@ -53735,7 +53670,7 @@
         <v>0.38268687072578866</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>11.689086644591599</v>
       </c>
@@ -53747,7 +53682,7 @@
         <v>0.38695840274244747</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>7.8307809050772601</v>
       </c>
@@ -53759,7 +53694,7 @@
         <v>0.29719123758048771</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>7.8310108535687997</v>
       </c>
@@ -53785,13 +53720,13 @@
       <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -53799,7 +53734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -53825,7 +53760,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -53869,7 +53804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -53913,7 +53848,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -53957,7 +53892,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -54001,7 +53936,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -54045,7 +53980,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -54089,7 +54024,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -54133,7 +54068,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -54177,7 +54112,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -54221,7 +54156,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -54265,7 +54200,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -54309,7 +54244,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -54353,7 +54288,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -54397,7 +54332,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -54441,7 +54376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -54485,7 +54420,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -54529,7 +54464,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -54573,7 +54508,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -54617,7 +54552,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -54661,7 +54596,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -54705,7 +54640,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -54749,7 +54684,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -54793,7 +54728,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -54837,7 +54772,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -54881,7 +54816,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -54925,7 +54860,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -54963,7 +54898,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -55001,7 +54936,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -55039,7 +54974,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -55077,7 +55012,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -55115,7 +55050,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -55147,7 +55082,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -55167,7 +55102,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -55199,7 +55134,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -55231,7 +55166,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -55263,7 +55198,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -55289,7 +55224,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -55321,7 +55256,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -55353,7 +55288,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -55385,7 +55320,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -55417,7 +55352,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -55449,7 +55384,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -55481,7 +55416,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -55507,7 +55442,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -55533,7 +55468,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -55559,7 +55494,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -55585,7 +55520,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -55611,7 +55546,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -55631,7 +55566,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -55651,7 +55586,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -55665,7 +55600,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -55679,7 +55614,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -55693,7 +55628,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -55707,7 +55642,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -55721,7 +55656,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -55735,7 +55670,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -55749,7 +55684,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -55763,7 +55698,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -55777,7 +55712,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -55791,7 +55726,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -55805,7 +55740,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -55819,7 +55754,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -55833,7 +55768,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -55847,7 +55782,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -55861,7 +55796,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -55875,7 +55810,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -55889,7 +55824,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -55903,7 +55838,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -55917,7 +55852,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -55931,7 +55866,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -55945,7 +55880,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -55959,7 +55894,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -55973,7 +55908,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -55987,7 +55922,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -56001,7 +55936,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -56015,7 +55950,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -56023,7 +55958,7 @@
         <v>297.483443708609</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -56037,7 +55972,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -56051,7 +55986,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -56065,7 +56000,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -56079,7 +56014,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -56093,7 +56028,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -56107,7 +56042,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -56121,7 +56056,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -56135,7 +56070,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -56149,7 +56084,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -56163,7 +56098,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -56177,7 +56112,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -56191,7 +56126,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.48119800000000001</v>
       </c>
@@ -56199,7 +56134,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.48283300000000001</v>
       </c>
@@ -56207,7 +56142,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.48448600000000003</v>
       </c>
@@ -56215,7 +56150,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.48615599999999998</v>
       </c>
@@ -56223,7 +56158,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.48784499999999997</v>
       </c>
@@ -56231,7 +56166,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.48955199999999999</v>
       </c>
@@ -56239,7 +56174,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.49127700000000002</v>
       </c>
@@ -56247,7 +56182,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.49302000000000001</v>
       </c>
@@ -56255,7 +56190,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.49478100000000003</v>
       </c>
@@ -56263,7 +56198,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.49655899999999997</v>
       </c>
@@ -56271,7 +56206,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.49835600000000002</v>
       </c>
@@ -56279,7 +56214,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.50017100000000003</v>
       </c>
@@ -56287,7 +56222,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.50200400000000001</v>
       </c>
@@ -56295,7 +56230,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.50385500000000005</v>
       </c>
@@ -56303,7 +56238,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.50572399999999995</v>
       </c>
@@ -56311,7 +56246,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.50761100000000003</v>
       </c>
@@ -56319,7 +56254,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.50951500000000005</v>
       </c>
@@ -56327,7 +56262,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.51143799999999995</v>
       </c>
@@ -56335,7 +56270,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.51337900000000003</v>
       </c>
@@ -56343,7 +56278,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.51533799999999996</v>
       </c>
@@ -56351,7 +56286,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.51731499999999997</v>
       </c>
@@ -56359,7 +56294,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.51931000000000005</v>
       </c>
@@ -56367,7 +56302,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.52132299999999998</v>
       </c>
@@ -56375,7 +56310,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.52335399999999999</v>
       </c>
@@ -56383,7 +56318,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.52540299999999995</v>
       </c>
@@ -56391,7 +56326,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.52746899999999997</v>
       </c>
@@ -56399,7 +56334,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.52955399999999997</v>
       </c>
@@ -56407,7 +56342,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.53165700000000005</v>
       </c>
@@ -56415,7 +56350,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.53377799999999997</v>
       </c>
@@ -56423,7 +56358,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.53591699999999998</v>
       </c>
@@ -56431,7 +56366,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.53807400000000005</v>
       </c>
@@ -56439,7 +56374,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.54024899999999998</v>
       </c>
@@ -56447,7 +56382,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.54244199999999998</v>
       </c>
@@ -56455,7 +56390,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.54465300000000005</v>
       </c>
@@ -56463,7 +56398,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.54688199999999998</v>
       </c>
@@ -56471,7 +56406,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.54912899999999998</v>
       </c>
@@ -56479,7 +56414,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.55139400000000005</v>
       </c>
@@ -56487,7 +56422,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.55367699999999997</v>
       </c>
@@ -56495,7 +56430,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.55597700000000005</v>
       </c>
@@ -56503,7 +56438,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.55829600000000001</v>
       </c>
@@ -56511,7 +56446,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.56063300000000005</v>
       </c>
@@ -56519,7 +56454,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.56298800000000004</v>
       </c>
@@ -56541,9 +56476,9 @@
       <selection sqref="A1:B308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2.4978700000000001E-3</v>
       </c>
@@ -56551,7 +56486,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9.4282900000000006E-3</v>
       </c>
@@ -56559,7 +56494,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.6218300000000001E-2</v>
       </c>
@@ -56567,7 +56502,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2868200000000002E-2</v>
       </c>
@@ -56575,7 +56510,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.93782E-2</v>
       </c>
@@ -56583,7 +56518,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.5748200000000001E-2</v>
       </c>
@@ -56591,7 +56526,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4.1978099999999997E-2</v>
       </c>
@@ -56599,7 +56534,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4.8068100000000002E-2</v>
       </c>
@@ -56607,7 +56542,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5.4018099999999999E-2</v>
       </c>
@@ -56615,7 +56550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5.9827999999999999E-2</v>
       </c>
@@ -56623,7 +56558,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6.5498000000000001E-2</v>
       </c>
@@ -56631,7 +56566,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7.1027999999999994E-2</v>
       </c>
@@ -56639,7 +56574,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7.6417899999999997E-2</v>
       </c>
@@ -56647,7 +56582,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8.1667900000000002E-2</v>
       </c>
@@ -56655,7 +56590,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8.6777900000000005E-2</v>
       </c>
@@ -56663,7 +56598,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9.1747800000000004E-2</v>
       </c>
@@ -56671,7 +56606,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9.6577800000000005E-2</v>
       </c>
@@ -56679,7 +56614,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.101268</v>
       </c>
@@ -56687,7 +56622,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.105818</v>
       </c>
@@ -56695,7 +56630,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.11022800000000001</v>
       </c>
@@ -56703,7 +56638,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.114498</v>
       </c>
@@ -56711,7 +56646,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.118628</v>
       </c>
@@ -56719,7 +56654,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.122618</v>
       </c>
@@ -56727,7 +56662,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.126468</v>
       </c>
@@ -56735,7 +56670,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.13017799999999999</v>
       </c>
@@ -56743,7 +56678,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.13374800000000001</v>
       </c>
@@ -56751,7 +56686,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.13717799999999999</v>
       </c>
@@ -56759,7 +56694,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.14046700000000001</v>
       </c>
@@ -56767,7 +56702,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14361699999999999</v>
       </c>
@@ -56775,7 +56710,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14662700000000001</v>
       </c>
@@ -56783,7 +56718,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14949699999999999</v>
       </c>
@@ -56791,7 +56726,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.152227</v>
       </c>
@@ -56799,7 +56734,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.15481700000000001</v>
       </c>
@@ -56807,7 +56742,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.15726699999999999</v>
       </c>
@@ -56815,7 +56750,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.159577</v>
       </c>
@@ -56823,7 +56758,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.161747</v>
       </c>
@@ -56831,7 +56766,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.16377700000000001</v>
       </c>
@@ -56839,7 +56774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.16566700000000001</v>
       </c>
@@ -56847,7 +56782,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.16741700000000001</v>
       </c>
@@ -56855,7 +56790,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.16902700000000001</v>
       </c>
@@ -56863,7 +56798,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.17049700000000001</v>
       </c>
@@ -56871,7 +56806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.17182700000000001</v>
       </c>
@@ -56879,7 +56814,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.173017</v>
       </c>
@@ -56887,7 +56822,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.174067</v>
       </c>
@@ -56895,7 +56830,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.17497699999999999</v>
       </c>
@@ -56903,7 +56838,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.17574699999999999</v>
       </c>
@@ -56911,7 +56846,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.20601700000000001</v>
       </c>
@@ -56919,7 +56854,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.20622699999999999</v>
       </c>
@@ -56927,7 +56862,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.20649700000000001</v>
       </c>
@@ -56935,7 +56870,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.20682700000000001</v>
       </c>
@@ -56943,7 +56878,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.20721700000000001</v>
       </c>
@@ -56951,7 +56886,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.20766699999999999</v>
       </c>
@@ -56959,7 +56894,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.208177</v>
       </c>
@@ -56967,7 +56902,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.20874699999999999</v>
       </c>
@@ -56975,7 +56910,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.20937700000000001</v>
       </c>
@@ -56983,7 +56918,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.210067</v>
       </c>
@@ -56991,7 +56926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.210817</v>
       </c>
@@ -56999,7 +56934,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.21162700000000001</v>
       </c>
@@ -57007,7 +56942,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.21249699999999999</v>
       </c>
@@ -57015,7 +56950,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.21342700000000001</v>
       </c>
@@ -57023,7 +56958,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.214417</v>
       </c>
@@ -57031,7 +56966,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.21546699999999999</v>
       </c>
@@ -57039,7 +56974,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.21657699999999999</v>
       </c>
@@ -57047,7 +56982,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.217747</v>
       </c>
@@ -57055,7 +56990,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.218977</v>
       </c>
@@ -57063,7 +56998,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.22026699999999999</v>
       </c>
@@ -57071,7 +57006,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.22161700000000001</v>
       </c>
@@ -57079,7 +57014,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.223027</v>
       </c>
@@ -57087,7 +57022,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.224497</v>
       </c>
@@ -57095,7 +57030,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.22602700000000001</v>
       </c>
@@ -57103,7 +57038,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.22761600000000001</v>
       </c>
@@ -57111,7 +57046,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.23097599999999999</v>
       </c>
@@ -57119,7 +57054,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.23274600000000001</v>
       </c>
@@ -57127,7 +57062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.23457600000000001</v>
       </c>
@@ -57135,7 +57070,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.23841599999999999</v>
       </c>
@@ -57143,7 +57078,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.240426</v>
       </c>
@@ -57151,7 +57086,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.24249599999999999</v>
       </c>
@@ -57159,7 +57094,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.24462600000000001</v>
       </c>
@@ -57167,7 +57102,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.24681600000000001</v>
       </c>
@@ -57175,7 +57110,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.24906600000000001</v>
       </c>
@@ -57183,7 +57118,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.25137599999999999</v>
       </c>
@@ -57191,7 +57126,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.25374600000000003</v>
       </c>
@@ -57199,7 +57134,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.25617600000000001</v>
       </c>
@@ -57207,7 +57142,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.25866600000000001</v>
       </c>
@@ -57215,7 +57150,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.261216</v>
       </c>
@@ -57223,7 +57158,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.263826</v>
       </c>
@@ -57231,7 +57166,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.26649600000000001</v>
       </c>
@@ -57239,7 +57174,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.25929600000000003</v>
       </c>
@@ -57247,7 +57182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.26374999999999998</v>
       </c>
@@ -57255,7 +57190,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.26819199999999999</v>
       </c>
@@ -57263,7 +57198,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.27262199999999998</v>
       </c>
@@ -57271,7 +57206,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.27704000000000001</v>
       </c>
@@ -57279,7 +57214,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.281445</v>
       </c>
@@ -57287,7 +57222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.28583900000000001</v>
       </c>
@@ -57295,7 +57230,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.29022100000000001</v>
       </c>
@@ -57303,7 +57238,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.29459099999999999</v>
       </c>
@@ -57311,7 +57246,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.29894900000000002</v>
       </c>
@@ -57319,7 +57254,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.30329499999999998</v>
       </c>
@@ -57327,7 +57262,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.30762899999999999</v>
       </c>
@@ -57335,7 +57270,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.31195000000000001</v>
       </c>
@@ -57343,7 +57278,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.31625999999999999</v>
       </c>
@@ -57351,7 +57286,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.32055800000000001</v>
       </c>
@@ -57359,7 +57294,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.32484400000000002</v>
       </c>
@@ -57367,7 +57302,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.32911699999999999</v>
       </c>
@@ -57375,7 +57310,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.33337899999999998</v>
       </c>
@@ -57383,7 +57318,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.33762900000000001</v>
       </c>
@@ -57391,7 +57326,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.341866</v>
       </c>
@@ -57399,7 +57334,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.34609200000000001</v>
       </c>
@@ -57407,7 +57342,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.35030600000000001</v>
       </c>
@@ -57415,7 +57350,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.35450700000000002</v>
       </c>
@@ -57423,7 +57358,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.35869600000000001</v>
       </c>
@@ -57431,7 +57366,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.36287399999999997</v>
       </c>
@@ -57439,7 +57374,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.367039</v>
       </c>
@@ -57447,7 +57382,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.37119200000000002</v>
       </c>
@@ -57455,7 +57390,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.37533300000000003</v>
       </c>
@@ -57463,7 +57398,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.37946200000000002</v>
       </c>
@@ -57471,7 +57406,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.407802</v>
       </c>
@@ -57479,7 +57414,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.40787000000000001</v>
       </c>
@@ -57487,7 +57422,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.40795700000000001</v>
       </c>
@@ -57495,7 +57430,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.40806100000000001</v>
       </c>
@@ -57503,7 +57438,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.40818399999999999</v>
       </c>
@@ -57511,7 +57446,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.40832400000000002</v>
       </c>
@@ -57519,7 +57454,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.40848200000000001</v>
       </c>
@@ -57527,7 +57462,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.40865800000000002</v>
       </c>
@@ -57535,7 +57470,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.40885199999999999</v>
       </c>
@@ -57543,7 +57478,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.40906300000000001</v>
       </c>
@@ -57551,7 +57486,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.40929300000000002</v>
       </c>
@@ -57559,7 +57494,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.40954000000000002</v>
       </c>
@@ -57567,7 +57502,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.40980499999999997</v>
       </c>
@@ -57575,7 +57510,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.41008800000000001</v>
       </c>
@@ -57583,7 +57518,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.41038799999999998</v>
       </c>
@@ -57591,7 +57526,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.41070600000000002</v>
       </c>
@@ -57599,7 +57534,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.41104200000000002</v>
       </c>
@@ -57607,7 +57542,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.41139500000000001</v>
       </c>
@@ -57615,7 +57550,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.41176499999999999</v>
       </c>
@@ -57623,7 +57558,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.41215299999999999</v>
       </c>
@@ -57631,7 +57566,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.41255700000000001</v>
       </c>
@@ -57639,7 +57574,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.41297800000000001</v>
       </c>
@@ -57647,7 +57582,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.41341499999999998</v>
       </c>
@@ -57655,7 +57590,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.41386699999999998</v>
       </c>
@@ -57663,7 +57598,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.41433300000000001</v>
       </c>
@@ -57671,7 +57606,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.41481099999999999</v>
       </c>
@@ -57679,7 +57614,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.415296</v>
       </c>
@@ -57687,7 +57622,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.41577999999999998</v>
       </c>
@@ -57695,7 +57630,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.41623700000000002</v>
       </c>
@@ -57703,7 +57638,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.416578</v>
       </c>
@@ -57711,7 +57646,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.419819</v>
       </c>
@@ -57719,7 +57654,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.41950100000000001</v>
       </c>
@@ -57727,7 +57662,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.41993999999999998</v>
       </c>
@@ -57735,7 +57670,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.42051300000000003</v>
       </c>
@@ -57743,7 +57678,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.42114299999999999</v>
       </c>
@@ -57751,7 +57686,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.42181000000000002</v>
       </c>
@@ -57759,7 +57694,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.42250500000000002</v>
       </c>
@@ -57767,7 +57702,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.42322300000000002</v>
       </c>
@@ -57775,7 +57710,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.42396400000000001</v>
       </c>
@@ -57783,7 +57718,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.42472500000000002</v>
       </c>
@@ -57791,7 +57726,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.425506</v>
       </c>
@@ -57799,7 +57734,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.42630600000000002</v>
       </c>
@@ -57807,7 +57742,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.42712600000000001</v>
       </c>
@@ -57815,7 +57750,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.42796400000000001</v>
       </c>
@@ -57823,7 +57758,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.42882100000000001</v>
       </c>
@@ -57831,7 +57766,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.42969600000000002</v>
       </c>
@@ -57839,7 +57774,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.43058999999999997</v>
       </c>
@@ -57847,7 +57782,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.431502</v>
       </c>
@@ -57855,7 +57790,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.43243300000000001</v>
       </c>
@@ -57863,7 +57798,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.43338199999999999</v>
       </c>
@@ -57871,7 +57806,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.43434899999999999</v>
       </c>
@@ -57879,7 +57814,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.435334</v>
       </c>
@@ -57887,7 +57822,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.436338</v>
       </c>
@@ -57895,7 +57830,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.437359</v>
       </c>
@@ -57903,7 +57838,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.43839899999999998</v>
       </c>
@@ -57911,7 +57846,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.43945699999999999</v>
       </c>
@@ -57919,7 +57854,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.44053199999999998</v>
       </c>
@@ -57927,7 +57862,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.44162600000000002</v>
       </c>
@@ -57935,7 +57870,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.44273800000000002</v>
       </c>
@@ -57943,7 +57878,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.44386900000000001</v>
       </c>
@@ -57951,7 +57886,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.445017</v>
       </c>
@@ -57959,7 +57894,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.446183</v>
       </c>
@@ -57967,7 +57902,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.44736700000000001</v>
       </c>
@@ -57975,7 +57910,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.44857000000000002</v>
       </c>
@@ -57983,7 +57918,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.44979000000000002</v>
       </c>
@@ -57991,7 +57926,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.45102799999999998</v>
       </c>
@@ -57999,7 +57934,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.45228499999999999</v>
       </c>
@@ -58007,7 +57942,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.45355899999999999</v>
       </c>
@@ -58015,7 +57950,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.45485199999999998</v>
       </c>
@@ -58023,7 +57958,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.45616200000000001</v>
       </c>
@@ -58031,7 +57966,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.45749099999999998</v>
       </c>
@@ -58039,7 +57974,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.45883699999999999</v>
       </c>
@@ -58047,7 +57982,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.460202</v>
       </c>
@@ -58055,7 +57990,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.46298499999999998</v>
       </c>
@@ -58063,7 +57998,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.46440399999999998</v>
       </c>
@@ -58071,7 +58006,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.46584100000000001</v>
       </c>
@@ -58079,7 +58014,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.46729500000000002</v>
       </c>
@@ -58087,7 +58022,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.46876800000000002</v>
       </c>
@@ -58095,7 +58030,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.47025899999999998</v>
       </c>
@@ -58103,7 +58038,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.47176699999999999</v>
       </c>
@@ -58111,7 +58046,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.47329399999999999</v>
       </c>
@@ -58119,7 +58054,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.47483900000000001</v>
       </c>
@@ -58127,7 +58062,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.47640199999999999</v>
       </c>
@@ -58135,7 +58070,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.47798200000000002</v>
       </c>
@@ -58143,7 +58078,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.47958099999999998</v>
       </c>
@@ -58151,7 +58086,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.48119800000000001</v>
       </c>
@@ -58159,7 +58094,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.48283300000000001</v>
       </c>
@@ -58167,7 +58102,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.48448600000000003</v>
       </c>
@@ -58175,7 +58110,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.48615599999999998</v>
       </c>
@@ -58183,7 +58118,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.48784499999999997</v>
       </c>
@@ -58191,7 +58126,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0.48955199999999999</v>
       </c>
@@ -58199,7 +58134,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0.49127700000000002</v>
       </c>
@@ -58207,7 +58142,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0.49302000000000001</v>
       </c>
@@ -58215,7 +58150,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0.49478100000000003</v>
       </c>
@@ -58223,7 +58158,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0.49655899999999997</v>
       </c>
@@ -58231,7 +58166,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0.49835600000000002</v>
       </c>
@@ -58239,7 +58174,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0.50017100000000003</v>
       </c>
@@ -58247,7 +58182,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0.50200400000000001</v>
       </c>
@@ -58255,7 +58190,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0.50385500000000005</v>
       </c>
@@ -58263,7 +58198,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0.50572399999999995</v>
       </c>
@@ -58271,7 +58206,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0.50761100000000003</v>
       </c>
@@ -58279,7 +58214,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0.50951500000000005</v>
       </c>
@@ -58287,7 +58222,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0.51143799999999995</v>
       </c>
@@ -58295,7 +58230,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>0.51337900000000003</v>
       </c>
@@ -58303,7 +58238,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0.51533799999999996</v>
       </c>
@@ -58311,7 +58246,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0.51731499999999997</v>
       </c>
@@ -58319,7 +58254,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.51931000000000005</v>
       </c>
@@ -58327,7 +58262,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0.52132299999999998</v>
       </c>
@@ -58335,7 +58270,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0.52335399999999999</v>
       </c>
@@ -58343,7 +58278,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0.52540299999999995</v>
       </c>
@@ -58351,7 +58286,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0.52746899999999997</v>
       </c>
@@ -58359,7 +58294,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0.52955399999999997</v>
       </c>
@@ -58367,7 +58302,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0.53165700000000005</v>
       </c>
@@ -58375,7 +58310,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0.53377799999999997</v>
       </c>
@@ -58383,7 +58318,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0.53591699999999998</v>
       </c>
@@ -58391,7 +58326,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0.53807400000000005</v>
       </c>
@@ -58399,7 +58334,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0.54024899999999998</v>
       </c>
@@ -58407,7 +58342,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0.54244199999999998</v>
       </c>
@@ -58415,7 +58350,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0.54465300000000005</v>
       </c>
@@ -58423,7 +58358,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0.54688199999999998</v>
       </c>
@@ -58431,7 +58366,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0.54912899999999998</v>
       </c>
@@ -58439,7 +58374,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0.55139400000000005</v>
       </c>
@@ -58447,7 +58382,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0.55367699999999997</v>
       </c>
@@ -58455,7 +58390,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0.55597700000000005</v>
       </c>
@@ -58463,7 +58398,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0.55829600000000001</v>
       </c>
@@ -58471,7 +58406,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0.56063300000000005</v>
       </c>
@@ -58479,7 +58414,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>0.56298800000000004</v>
       </c>
@@ -58487,7 +58422,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0.500413</v>
       </c>
@@ -58495,7 +58430,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0.50360700000000003</v>
       </c>
@@ -58503,7 +58438,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0.50680499999999995</v>
       </c>
@@ -58511,7 +58446,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>0.51000699999999999</v>
       </c>
@@ -58519,7 +58454,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0.513212</v>
       </c>
@@ -58527,7 +58462,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0.51642200000000005</v>
       </c>
@@ -58535,7 +58470,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>0.51963599999999999</v>
       </c>
@@ -58543,7 +58478,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0.52285400000000004</v>
       </c>
@@ -58551,7 +58486,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>0.52607599999999999</v>
       </c>
@@ -58559,7 +58494,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0.52930200000000005</v>
       </c>
@@ -58567,7 +58502,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0.53253099999999998</v>
       </c>
@@ -58575,7 +58510,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0.53576500000000005</v>
       </c>
@@ -58583,7 +58518,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>0.53900300000000001</v>
       </c>
@@ -58591,7 +58526,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>0.54224499999999998</v>
       </c>
@@ -58599,7 +58534,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>0.54549099999999995</v>
       </c>
@@ -58607,7 +58542,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>0.54874100000000003</v>
       </c>
@@ -58615,7 +58550,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>0.55199500000000001</v>
       </c>
@@ -58623,7 +58558,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>0.555253</v>
       </c>
@@ -58631,7 +58566,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>0.55851499999999998</v>
       </c>
@@ -58639,7 +58574,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>0.56177999999999995</v>
       </c>
@@ -58647,7 +58582,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>0.56505000000000005</v>
       </c>
@@ -58655,7 +58590,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>0.56832400000000005</v>
       </c>
@@ -58663,7 +58598,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>0.57160200000000005</v>
       </c>
@@ -58671,7 +58606,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>0.57488399999999995</v>
       </c>
@@ -58679,7 +58614,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>0.60925099999999999</v>
       </c>
@@ -58687,7 +58622,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>0.61000500000000002</v>
       </c>
@@ -58695,7 +58630,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>0.61074700000000004</v>
       </c>
@@ -58703,7 +58638,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>0.61147700000000005</v>
       </c>
@@ -58711,7 +58646,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.61219500000000004</v>
       </c>
@@ -58719,7 +58654,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>0.61290100000000003</v>
       </c>
@@ -58727,7 +58662,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>0.613595</v>
       </c>
@@ -58735,7 +58670,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>0.61427699999999996</v>
       </c>
@@ -58743,7 +58678,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>0.61494700000000002</v>
       </c>
@@ -58751,7 +58686,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>0.61560499999999996</v>
       </c>
@@ -58759,7 +58694,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0.61625099999999999</v>
       </c>
@@ -58767,7 +58702,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0.61688500000000002</v>
       </c>
@@ -58775,7 +58710,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>0.61750700000000003</v>
       </c>
@@ -58783,7 +58718,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>0.61811700000000003</v>
       </c>
@@ -58791,7 +58726,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0.61871500000000001</v>
       </c>
@@ -58799,7 +58734,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>0.61930099999999999</v>
       </c>
@@ -58807,7 +58742,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0.61987499999999995</v>
       </c>
@@ -58815,7 +58750,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0.62043700000000002</v>
       </c>
@@ -58823,7 +58758,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0.62098699999999996</v>
       </c>
@@ -58831,7 +58766,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>0.62152499999999999</v>
       </c>
@@ -58839,7 +58774,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>0.62205100000000002</v>
       </c>
@@ -58847,7 +58782,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>0.62256500000000004</v>
       </c>
@@ -58855,7 +58790,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0.62306700000000004</v>
       </c>
@@ -58863,7 +58798,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0.62355700000000003</v>
       </c>
@@ -58871,7 +58806,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>0.62403500000000001</v>
       </c>
@@ -58879,7 +58814,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>0.62450099999999997</v>
       </c>
@@ -58887,7 +58822,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>0.62495500000000004</v>
       </c>
@@ -58895,7 +58830,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>0.62539699999999998</v>
       </c>
@@ -58903,7 +58838,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>0.62582700000000002</v>
       </c>
@@ -58911,7 +58846,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>0.62624500000000005</v>
       </c>
@@ -58919,7 +58854,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>0.62665099999999996</v>
       </c>
@@ -58927,7 +58862,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0.62704499999999996</v>
       </c>
@@ -58935,7 +58870,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0.62742699999999996</v>
       </c>
@@ -58943,7 +58878,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0.62779700000000005</v>
       </c>
@@ -58951,7 +58886,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0.62815500000000002</v>
       </c>
@@ -58959,7 +58894,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0.62850099999999998</v>
       </c>
@@ -58967,7 +58902,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0.62883500000000003</v>
       </c>
@@ -58975,7 +58910,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0.62915699999999997</v>
       </c>
@@ -58983,7 +58918,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0.629467</v>
       </c>
@@ -58991,7 +58926,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0.62976500000000002</v>
       </c>
@@ -58999,7 +58934,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0.63005100000000003</v>
       </c>
@@ -59020,13 +58955,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA1C9C-9B9C-4B22-9640-19860B1C7174}">
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -59034,7 +58969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -59048,7 +58983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.8704358092670042E-4</v>
       </c>
@@ -59062,7 +58997,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.2823699760963937E-2</v>
       </c>
@@ -59076,7 +59011,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.1487057077629544E-2</v>
       </c>
@@ -59090,7 +59025,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.3694219407179337E-2</v>
       </c>
@@ -59104,7 +59039,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.7188616953497134E-2</v>
       </c>
@@ -59118,7 +59053,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11732523240541651</v>
       </c>
@@ -59132,7 +59067,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13236466540735028</v>
       </c>
@@ -59146,7 +59081,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.14485746444575009</v>
       </c>
@@ -59160,7 +59095,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.15898082121206311</v>
       </c>
@@ -59174,7 +59109,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.16290592219806463</v>
       </c>
@@ -59188,7 +59123,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.17644412023370443</v>
       </c>
@@ -59202,7 +59137,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.17646517446428464</v>
       </c>
@@ -59216,7 +59151,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.18217299613766277</v>
       </c>
@@ -59230,7 +59165,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.18964516789036034</v>
       </c>
@@ -59244,7 +59179,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.18967370615274448</v>
       </c>
@@ -59258,7 +59193,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.19701406222476264</v>
       </c>
@@ -59272,7 +59207,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.20244548173481314</v>
       </c>
@@ -59286,7 +59221,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.20603100948424874</v>
       </c>
@@ -59300,7 +59235,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.21308698873861018</v>
       </c>
@@ -59314,7 +59249,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.21485535269763475</v>
       </c>
@@ -59328,7 +59263,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.22345575047730468</v>
       </c>
@@ -59342,7 +59277,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.2335219918276184</v>
       </c>
@@ -59356,7 +59291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24171330108940928</v>
       </c>
@@ -59370,7 +59305,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25289133527119789</v>
       </c>
@@ -59384,7 +59319,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25913546382995689</v>
       </c>
@@ -59398,7 +59333,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27575875212273737</v>
       </c>
@@ -59412,7 +59347,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.28161517647408635</v>
       </c>
@@ -59426,7 +59361,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28880934438583261</v>
       </c>
@@ -59440,7 +59375,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.30001043030815761</v>
       </c>
@@ -59454,7 +59389,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3135369044946853</v>
       </c>
@@ -59468,7 +59403,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.32139787543606363</v>
       </c>
@@ -59482,7 +59417,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3290920249146787</v>
       </c>
@@ -59496,7 +59431,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33161441676718256</v>
       </c>
@@ -59510,7 +59445,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34030617329796392</v>
       </c>
@@ -59524,7 +59459,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35233351607035707</v>
       </c>
@@ -59538,7 +59473,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36164113187157093</v>
       </c>
@@ -59552,7 +59487,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37290975325192577</v>
       </c>
@@ -59566,7 +59501,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38378272219593601</v>
       </c>
@@ -59580,7 +59515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.38697940189894225</v>
       </c>
@@ -59594,7 +59529,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.39222342832777096</v>
       </c>
@@ -59608,7 +59543,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.39431240293267006</v>
       </c>
@@ -59622,7 +59557,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.39640063907581174</v>
       </c>
@@ -59636,7 +59571,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.40451249389970351</v>
       </c>
@@ -59650,7 +59585,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.41144084931813785</v>
       </c>
@@ -59664,7 +59599,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.42199919855021301</v>
       </c>
@@ -59678,7 +59613,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.4303599743001808</v>
       </c>
@@ -59692,7 +59627,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.44288537412691403</v>
       </c>
@@ -59706,7 +59641,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.44978991357420123</v>
       </c>
@@ -59720,7 +59655,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.46471814618777785</v>
       </c>
@@ -59734,7 +59669,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.47267445286700427</v>
       </c>
@@ -59748,7 +59683,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.48491247669474113</v>
       </c>
@@ -59762,7 +59697,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.49515634272531867</v>
       </c>
@@ -59776,7 +59711,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.50775399516922415</v>
       </c>
@@ -59790,7 +59725,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.51447725920805065</v>
       </c>
@@ -59804,7 +59739,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.5197239207703499</v>
       </c>
@@ -59818,7 +59753,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.54260053180260925</v>
       </c>
@@ -59832,7 +59767,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.55126091781629694</v>
       </c>
@@ -59846,7 +59781,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.55351491502276229</v>
       </c>
@@ -59860,7 +59795,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.55905690009335263</v>
       </c>
@@ -59874,7 +59809,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.56658312867422123</v>
       </c>
@@ -59888,7 +59823,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.57488252522595329</v>
       </c>
@@ -59902,7 +59837,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.5896125779668151</v>
       </c>
@@ -59916,7 +59851,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.59615072804863534</v>
       </c>
@@ -59930,7 +59865,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.59933930786528788</v>
       </c>
@@ -59944,7 +59879,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.60114209395447904</v>
       </c>
@@ -59958,7 +59893,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.60470137037403593</v>
       </c>
@@ -59972,7 +59907,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.6116214563070117</v>
       </c>
@@ -59986,7 +59921,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.61415489381274313</v>
       </c>
@@ -60000,7 +59935,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.61582434776801231</v>
       </c>
@@ -60014,7 +59949,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.61666552956800236</v>
       </c>
@@ -60028,7 +59963,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.60428862034965369</v>
       </c>
@@ -60042,7 +59977,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.31611641306455429</v>
       </c>
@@ -60056,7 +59991,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.32135212723524031</v>
       </c>
@@ -60070,7 +60005,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.32649420160570913</v>
       </c>
@@ -60084,7 +60019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.3378000764709348</v>
       </c>
@@ -60098,7 +60033,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.34512612285390565</v>
       </c>
@@ -60112,7 +60047,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.35111761664641056</v>
       </c>
@@ -60126,7 +60061,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.35465603914801597</v>
       </c>
@@ -60140,7 +60075,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.36046503932901586</v>
       </c>
@@ -60154,7 +60089,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.37177730337487552</v>
       </c>
@@ -60168,7 +60103,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.38268687072578866</v>
       </c>
@@ -60182,7 +60117,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.38695840274244747</v>
       </c>
@@ -60196,7 +60131,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.29719123758048771</v>
       </c>
@@ -60210,7 +60145,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.29719737088983367</v>
       </c>
@@ -60224,7 +60159,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.38268687072578866</v>
       </c>
@@ -60238,7 +60173,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.38695840274244747</v>
       </c>
@@ -60252,7 +60187,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.29719123758048771</v>
       </c>
@@ -60266,7 +60201,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.29719737088983367</v>
       </c>
@@ -60280,7 +60215,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.26374999999999998</v>
       </c>
@@ -60288,7 +60223,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.26819199999999999</v>
       </c>
@@ -60296,7 +60231,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.27262199999999998</v>
       </c>
@@ -60304,7 +60239,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.27704000000000001</v>
       </c>
@@ -60312,7 +60247,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.281445</v>
       </c>
@@ -60320,7 +60255,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.28583900000000001</v>
       </c>
@@ -60328,7 +60263,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.29022100000000001</v>
       </c>
@@ -60336,7 +60271,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.29459099999999999</v>
       </c>
@@ -60344,7 +60279,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.29894900000000002</v>
       </c>
@@ -60352,7 +60287,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.30329499999999998</v>
       </c>
@@ -60360,7 +60295,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.30762899999999999</v>
       </c>
@@ -60368,7 +60303,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>0.31195000000000001</v>
       </c>
@@ -60376,7 +60311,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.31625999999999999</v>
       </c>
@@ -60384,7 +60319,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.32055800000000001</v>
       </c>
@@ -60392,7 +60327,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.32484400000000002</v>
       </c>
@@ -60400,7 +60335,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.32911699999999999</v>
       </c>
@@ -60408,7 +60343,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.33337899999999998</v>
       </c>
@@ -60416,7 +60351,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.33762900000000001</v>
       </c>
@@ -60424,7 +60359,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.341866</v>
       </c>
@@ -60432,7 +60367,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.34609200000000001</v>
       </c>
@@ -60440,7 +60375,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.35030600000000001</v>
       </c>
@@ -60448,7 +60383,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.35450700000000002</v>
       </c>
@@ -60456,7 +60391,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.35869600000000001</v>
       </c>
@@ -60464,7 +60399,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.36287399999999997</v>
       </c>
@@ -60472,7 +60407,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.367039</v>
       </c>
@@ -60480,7 +60415,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.37119200000000002</v>
       </c>
@@ -60488,7 +60423,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.37533300000000003</v>
       </c>
@@ -60496,7 +60431,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.37946200000000002</v>
       </c>
@@ -60504,7 +60439,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.407802</v>
       </c>
@@ -60512,7 +60447,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.40787000000000001</v>
       </c>
@@ -60520,7 +60455,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.40795700000000001</v>
       </c>
@@ -60528,7 +60463,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.40806100000000001</v>
       </c>
@@ -60536,7 +60471,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.40818399999999999</v>
       </c>
@@ -60544,7 +60479,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.40832400000000002</v>
       </c>
@@ -60552,7 +60487,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.40848200000000001</v>
       </c>
@@ -60560,7 +60495,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.40865800000000002</v>
       </c>
@@ -60568,7 +60503,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.40885199999999999</v>
       </c>
@@ -60576,7 +60511,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.40906300000000001</v>
       </c>
@@ -60584,7 +60519,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.40929300000000002</v>
       </c>
@@ -60592,7 +60527,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.40954000000000002</v>
       </c>
@@ -60600,7 +60535,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.40980499999999997</v>
       </c>
@@ -60608,7 +60543,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.41008800000000001</v>
       </c>
@@ -60616,7 +60551,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.41038799999999998</v>
       </c>
@@ -60624,7 +60559,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.41070600000000002</v>
       </c>
@@ -60632,7 +60567,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.41104200000000002</v>
       </c>
@@ -60640,7 +60575,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.41139500000000001</v>
       </c>
@@ -60648,7 +60583,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.41176499999999999</v>
       </c>
@@ -60656,7 +60591,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.41215299999999999</v>
       </c>
@@ -60664,7 +60599,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.41255700000000001</v>
       </c>
@@ -60672,7 +60607,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.41297800000000001</v>
       </c>
@@ -60680,7 +60615,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.41341499999999998</v>
       </c>
@@ -60688,7 +60623,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.41386699999999998</v>
       </c>
@@ -60696,7 +60631,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.41433300000000001</v>
       </c>
@@ -60704,7 +60639,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.41481099999999999</v>
       </c>
@@ -60712,7 +60647,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.415296</v>
       </c>
@@ -60720,7 +60655,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.41577999999999998</v>
       </c>
@@ -60728,7 +60663,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.41623700000000002</v>
       </c>
@@ -60736,7 +60671,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.416578</v>
       </c>
@@ -60744,7 +60679,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.419819</v>
       </c>
@@ -60752,7 +60687,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.41950100000000001</v>
       </c>
@@ -60760,7 +60695,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.41993999999999998</v>
       </c>
@@ -60768,7 +60703,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.42051300000000003</v>
       </c>
@@ -60776,7 +60711,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.42114299999999999</v>
       </c>
@@ -60784,7 +60719,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.42181000000000002</v>
       </c>
@@ -60792,7 +60727,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.42250500000000002</v>
       </c>
@@ -60800,7 +60735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.42322300000000002</v>
       </c>
@@ -60808,7 +60743,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.42396400000000001</v>
       </c>
@@ -60816,7 +60751,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.42472500000000002</v>
       </c>
@@ -60824,7 +60759,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.425506</v>
       </c>
@@ -60832,7 +60767,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>0.42630600000000002</v>
       </c>
@@ -60840,7 +60775,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.42712600000000001</v>
       </c>
@@ -60848,7 +60783,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>0.42796400000000001</v>
       </c>
@@ -60856,7 +60791,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.42882100000000001</v>
       </c>
@@ -60864,7 +60799,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.42969600000000002</v>
       </c>
@@ -60872,7 +60807,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.43058999999999997</v>
       </c>
@@ -60880,7 +60815,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.431502</v>
       </c>
@@ -60888,7 +60823,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.43243300000000001</v>
       </c>
@@ -60896,7 +60831,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.43338199999999999</v>
       </c>
@@ -60904,7 +60839,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.43434899999999999</v>
       </c>
@@ -60912,7 +60847,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.435334</v>
       </c>
@@ -60920,7 +60855,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.436338</v>
       </c>
@@ -60928,7 +60863,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.437359</v>
       </c>
@@ -60936,7 +60871,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173">
         <v>0.43839899999999998</v>
       </c>
@@ -60944,7 +60879,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174">
         <v>0.43945699999999999</v>
       </c>
@@ -60952,7 +60887,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175">
         <v>0.44053199999999998</v>
       </c>
@@ -60960,7 +60895,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.44162600000000002</v>
       </c>
@@ -60968,7 +60903,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.44273800000000002</v>
       </c>
@@ -60976,7 +60911,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.44386900000000001</v>
       </c>
@@ -60984,7 +60919,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.445017</v>
       </c>
@@ -60992,7 +60927,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180">
         <v>0.446183</v>
       </c>
@@ -61000,7 +60935,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.44736700000000001</v>
       </c>
@@ -61008,7 +60943,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.44857000000000002</v>
       </c>
@@ -61016,7 +60951,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.44979000000000002</v>
       </c>
@@ -61024,7 +60959,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.45102799999999998</v>
       </c>
@@ -61032,7 +60967,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.45228499999999999</v>
       </c>
@@ -61040,7 +60975,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.45355899999999999</v>
       </c>
@@ -61048,7 +60983,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187">
         <v>0.45485199999999998</v>
       </c>
@@ -61056,7 +60991,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.45616200000000001</v>
       </c>
@@ -61064,7 +60999,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.45749099999999998</v>
       </c>
@@ -61072,7 +61007,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.45883699999999999</v>
       </c>
@@ -61080,7 +61015,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.460202</v>
       </c>
@@ -61088,7 +61023,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.46298499999999998</v>
       </c>
@@ -61096,7 +61031,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193">
         <v>0.46440399999999998</v>
       </c>
@@ -61104,7 +61039,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.46584100000000001</v>
       </c>
@@ -61112,7 +61047,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.46729500000000002</v>
       </c>
@@ -61120,7 +61055,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.46876800000000002</v>
       </c>
@@ -61128,7 +61063,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197">
         <v>0.47025899999999998</v>
       </c>
@@ -61136,7 +61071,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.47176699999999999</v>
       </c>
@@ -61144,7 +61079,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.47329399999999999</v>
       </c>
@@ -61152,7 +61087,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.47483900000000001</v>
       </c>
@@ -61160,7 +61095,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.47640199999999999</v>
       </c>
@@ -61168,7 +61103,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202">
         <v>0.47798200000000002</v>
       </c>
@@ -61176,7 +61111,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203">
         <v>0.47958099999999998</v>
       </c>
@@ -61184,7 +61119,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204">
         <v>0.48119800000000001</v>
       </c>
@@ -61192,7 +61127,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205">
         <v>0.48283300000000001</v>
       </c>
@@ -61200,7 +61135,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206">
         <v>0.48448600000000003</v>
       </c>
@@ -61208,7 +61143,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207">
         <v>0.48615599999999998</v>
       </c>
@@ -61216,7 +61151,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208">
         <v>0.48784499999999997</v>
       </c>
@@ -61224,7 +61159,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209">
         <v>0.48955199999999999</v>
       </c>
@@ -61232,7 +61167,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210">
         <v>0.49127700000000002</v>
       </c>
@@ -61240,7 +61175,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211">
         <v>0.49302000000000001</v>
       </c>
@@ -61248,7 +61183,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212">
         <v>0.49478100000000003</v>
       </c>
@@ -61256,7 +61191,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213">
         <v>0.49655899999999997</v>
       </c>
@@ -61264,7 +61199,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214">
         <v>0.49835600000000002</v>
       </c>
@@ -61272,7 +61207,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215">
         <v>0.50017100000000003</v>
       </c>
@@ -61280,7 +61215,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216">
         <v>0.50200400000000001</v>
       </c>
@@ -61288,7 +61223,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217">
         <v>0.50385500000000005</v>
       </c>
@@ -61296,7 +61231,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218">
         <v>0.50572399999999995</v>
       </c>
@@ -61304,7 +61239,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219">
         <v>0.50761100000000003</v>
       </c>
@@ -61312,7 +61247,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D220">
         <v>0.50951500000000005</v>
       </c>
@@ -61320,7 +61255,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D221">
         <v>0.51143799999999995</v>
       </c>
@@ -61328,7 +61263,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D222">
         <v>0.51337900000000003</v>
       </c>
@@ -61336,7 +61271,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D223">
         <v>0.51533799999999996</v>
       </c>
@@ -61344,7 +61279,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D224">
         <v>0.51731499999999997</v>
       </c>
@@ -61352,7 +61287,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D225">
         <v>0.51931000000000005</v>
       </c>
@@ -61360,7 +61295,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D226">
         <v>0.52132299999999998</v>
       </c>
@@ -61368,7 +61303,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D227">
         <v>0.52335399999999999</v>
       </c>
@@ -61376,7 +61311,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D228">
         <v>0.52540299999999995</v>
       </c>
@@ -61384,7 +61319,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D229">
         <v>0.52746899999999997</v>
       </c>
@@ -61392,7 +61327,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D230">
         <v>0.52955399999999997</v>
       </c>
@@ -61400,7 +61335,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D231">
         <v>0.53165700000000005</v>
       </c>
@@ -61408,7 +61343,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D232">
         <v>0.53377799999999997</v>
       </c>
@@ -61416,7 +61351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D233">
         <v>0.53591699999999998</v>
       </c>
@@ -61424,7 +61359,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D234">
         <v>0.53807400000000005</v>
       </c>
@@ -61432,7 +61367,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D235">
         <v>0.54024899999999998</v>
       </c>
@@ -61440,7 +61375,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D236">
         <v>0.54244199999999998</v>
       </c>
@@ -61448,7 +61383,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D237">
         <v>0.54465300000000005</v>
       </c>
@@ -61456,7 +61391,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D238">
         <v>0.54688199999999998</v>
       </c>
@@ -61464,7 +61399,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D239">
         <v>0.54912899999999998</v>
       </c>
@@ -61472,7 +61407,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D240">
         <v>0.55139400000000005</v>
       </c>
@@ -61480,7 +61415,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D241">
         <v>0.55367699999999997</v>
       </c>
@@ -61488,7 +61423,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D242">
         <v>0.55597700000000005</v>
       </c>
@@ -61496,7 +61431,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D243">
         <v>0.55829600000000001</v>
       </c>
@@ -61504,7 +61439,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D244">
         <v>0.56063300000000005</v>
       </c>
@@ -61512,7 +61447,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D245">
         <v>0.56298800000000004</v>
       </c>
@@ -61520,7 +61455,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D246">
         <v>0.500413</v>
       </c>
@@ -61528,7 +61463,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D247">
         <v>0.50360700000000003</v>
       </c>
@@ -61536,7 +61471,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D248">
         <v>0.50680499999999995</v>
       </c>
@@ -61544,7 +61479,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D249">
         <v>0.51000699999999999</v>
       </c>
@@ -61552,7 +61487,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D250">
         <v>0.513212</v>
       </c>
@@ -61560,7 +61495,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D251">
         <v>0.51642200000000005</v>
       </c>
@@ -61568,7 +61503,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D252">
         <v>0.51963599999999999</v>
       </c>
@@ -61576,7 +61511,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D253">
         <v>0.52285400000000004</v>
       </c>
@@ -61584,7 +61519,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D254">
         <v>0.52607599999999999</v>
       </c>
@@ -61592,7 +61527,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D255">
         <v>0.52930200000000005</v>
       </c>
@@ -61600,7 +61535,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D256">
         <v>0.53253099999999998</v>
       </c>
@@ -61608,7 +61543,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D257">
         <v>0.53576500000000005</v>
       </c>
@@ -61616,7 +61551,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D258">
         <v>0.53900300000000001</v>
       </c>
@@ -61624,7 +61559,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D259">
         <v>0.54224499999999998</v>
       </c>
@@ -61632,7 +61567,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D260">
         <v>0.54549099999999995</v>
       </c>
@@ -61640,7 +61575,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D261">
         <v>0.54874100000000003</v>
       </c>
@@ -61648,7 +61583,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D262">
         <v>0.55199500000000001</v>
       </c>
@@ -61656,7 +61591,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D263">
         <v>0.555253</v>
       </c>
@@ -61664,7 +61599,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D264">
         <v>0.55851499999999998</v>
       </c>
@@ -61672,7 +61607,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D265">
         <v>0.56177999999999995</v>
       </c>
@@ -61680,7 +61615,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D266">
         <v>0.56505000000000005</v>
       </c>
@@ -61688,7 +61623,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D267">
         <v>0.56832400000000005</v>
       </c>
@@ -61696,7 +61631,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D268">
         <v>0.57160200000000005</v>
       </c>
@@ -61704,7 +61639,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D269">
         <v>0.57488399999999995</v>
       </c>
@@ -61712,7 +61647,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D270">
         <v>0.60925099999999999</v>
       </c>
@@ -61720,7 +61655,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D271">
         <v>0.61000500000000002</v>
       </c>
@@ -61728,7 +61663,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D272">
         <v>0.61074700000000004</v>
       </c>
@@ -61736,7 +61671,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D273">
         <v>0.61147700000000005</v>
       </c>
@@ -61744,7 +61679,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D274">
         <v>0.61219500000000004</v>
       </c>
@@ -61752,7 +61687,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D275">
         <v>0.61290100000000003</v>
       </c>
@@ -61760,7 +61695,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D276">
         <v>0.613595</v>
       </c>
@@ -61768,7 +61703,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D277">
         <v>0.61427699999999996</v>
       </c>
@@ -61776,7 +61711,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D278">
         <v>0.61494700000000002</v>
       </c>
@@ -61784,7 +61719,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D279">
         <v>0.61560499999999996</v>
       </c>
@@ -61792,7 +61727,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D280">
         <v>0.61625099999999999</v>
       </c>
@@ -61800,7 +61735,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D281">
         <v>0.61688500000000002</v>
       </c>
@@ -61808,7 +61743,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D282">
         <v>0.61750700000000003</v>
       </c>
@@ -61816,7 +61751,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D283">
         <v>0.61811700000000003</v>
       </c>
@@ -61824,7 +61759,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D284">
         <v>0.61871500000000001</v>
       </c>
@@ -61832,7 +61767,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D285">
         <v>0.61930099999999999</v>
       </c>
@@ -61840,7 +61775,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D286">
         <v>0.61987499999999995</v>
       </c>
@@ -61848,7 +61783,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D287">
         <v>0.62043700000000002</v>
       </c>
@@ -61856,7 +61791,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D288">
         <v>0.62098699999999996</v>
       </c>
@@ -61864,7 +61799,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D289">
         <v>0.62152499999999999</v>
       </c>
@@ -61872,7 +61807,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D290">
         <v>0.62205100000000002</v>
       </c>
@@ -61880,7 +61815,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D291">
         <v>0.62256500000000004</v>
       </c>
@@ -61888,7 +61823,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D292">
         <v>0.62306700000000004</v>
       </c>
@@ -61896,7 +61831,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D293">
         <v>0.62355700000000003</v>
       </c>
@@ -61904,7 +61839,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D294">
         <v>0.62403500000000001</v>
       </c>
@@ -61912,7 +61847,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D295">
         <v>0.62450099999999997</v>
       </c>
@@ -61920,7 +61855,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D296">
         <v>0.62495500000000004</v>
       </c>
@@ -61928,7 +61863,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D297">
         <v>0.62539699999999998</v>
       </c>
@@ -61936,7 +61871,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D298">
         <v>0.62582700000000002</v>
       </c>
@@ -61944,7 +61879,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D299">
         <v>0.62624500000000005</v>
       </c>
@@ -61952,7 +61887,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D300">
         <v>0.62665099999999996</v>
       </c>
@@ -61960,7 +61895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D301">
         <v>0.62704499999999996</v>
       </c>
@@ -61968,7 +61903,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D302">
         <v>0.62742699999999996</v>
       </c>
@@ -61976,7 +61911,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D303">
         <v>0.62779700000000005</v>
       </c>
@@ -61984,7 +61919,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D304">
         <v>0.62815500000000002</v>
       </c>
@@ -61992,7 +61927,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D305">
         <v>0.62850099999999998</v>
       </c>
@@ -62000,7 +61935,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D306">
         <v>0.62883500000000003</v>
       </c>
@@ -62008,7 +61943,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D307">
         <v>0.62915699999999997</v>
       </c>
@@ -62016,7 +61951,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D308">
         <v>0.629467</v>
       </c>
@@ -62024,7 +61959,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D309">
         <v>0.62976500000000002</v>
       </c>
@@ -62032,7 +61967,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D310">
         <v>0.63005100000000003</v>
       </c>
@@ -62047,20 +61982,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62293,6 +62228,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43649138-A2D4-479B-A33F-938C4CC7EA61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -62305,14 +62248,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF512C7-F629-44C7-ACF3-334FC72973D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
